--- a/db_tables/spaceshipResults.xlsx
+++ b/db_tables/spaceshipResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -101,6 +101,12 @@
     <t>cb</t>
   </si>
   <si>
+    <t>Moshe</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>user1</t>
   </si>
   <si>
@@ -110,7 +116,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>14</t>
+    <t>20</t>
   </si>
   <si>
     <t>ad</t>
@@ -122,7 +128,7 @@
     <t>Erez</t>
   </si>
   <si>
-    <t>11</t>
+    <t>110</t>
   </si>
   <si>
     <t>test</t>
@@ -141,6 +147,9 @@
   </si>
   <si>
     <t>bjnm</t>
+  </si>
+  <si>
+    <t>j</t>
   </si>
   <si>
     <t>sdfs</t>
@@ -233,7 +242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:CV45"/>
+  <dimension ref="A1:CV47"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2478,7 +2487,7 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -2581,10 +2590,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -2687,10 +2696,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -2796,7 +2805,7 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -2899,10 +2908,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -3005,7 +3014,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -3111,7 +3120,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -3217,7 +3226,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -3323,7 +3332,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -3429,10 +3438,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -3535,10 +3544,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -3641,10 +3650,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -3747,10 +3756,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
@@ -3853,7 +3862,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
@@ -3959,10 +3968,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -4068,7 +4077,7 @@
         <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
@@ -4174,7 +4183,7 @@
         <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
@@ -4277,10 +4286,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C40"/>
       <c r="D40"/>
@@ -4383,7 +4392,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -4489,10 +4498,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C42"/>
       <c r="D42"/>
@@ -4595,7 +4604,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -4701,10 +4710,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="C44"/>
       <c r="D44"/>
@@ -4911,6 +4920,218 @@
       <c r="CU45"/>
       <c r="CV45"/>
     </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46"/>
+      <c r="Y46"/>
+      <c r="Z46"/>
+      <c r="AA46"/>
+      <c r="AB46"/>
+      <c r="AC46"/>
+      <c r="AD46"/>
+      <c r="AE46"/>
+      <c r="AF46"/>
+      <c r="AG46"/>
+      <c r="AH46"/>
+      <c r="AI46"/>
+      <c r="AJ46"/>
+      <c r="AK46"/>
+      <c r="AL46"/>
+      <c r="AM46"/>
+      <c r="AN46"/>
+      <c r="AO46"/>
+      <c r="AP46"/>
+      <c r="AQ46"/>
+      <c r="AR46"/>
+      <c r="AS46"/>
+      <c r="AT46"/>
+      <c r="AU46"/>
+      <c r="AV46"/>
+      <c r="AW46"/>
+      <c r="AX46"/>
+      <c r="AY46"/>
+      <c r="AZ46"/>
+      <c r="BA46"/>
+      <c r="BB46"/>
+      <c r="BC46"/>
+      <c r="BD46"/>
+      <c r="BE46"/>
+      <c r="BF46"/>
+      <c r="BG46"/>
+      <c r="BH46"/>
+      <c r="BI46"/>
+      <c r="BJ46"/>
+      <c r="BK46"/>
+      <c r="BL46"/>
+      <c r="BM46"/>
+      <c r="BN46"/>
+      <c r="BO46"/>
+      <c r="BP46"/>
+      <c r="BQ46"/>
+      <c r="BR46"/>
+      <c r="BS46"/>
+      <c r="BT46"/>
+      <c r="BU46"/>
+      <c r="BV46"/>
+      <c r="BW46"/>
+      <c r="BX46"/>
+      <c r="BY46"/>
+      <c r="BZ46"/>
+      <c r="CA46"/>
+      <c r="CB46"/>
+      <c r="CC46"/>
+      <c r="CD46"/>
+      <c r="CE46"/>
+      <c r="CF46"/>
+      <c r="CG46"/>
+      <c r="CH46"/>
+      <c r="CI46"/>
+      <c r="CJ46"/>
+      <c r="CK46"/>
+      <c r="CL46"/>
+      <c r="CM46"/>
+      <c r="CN46"/>
+      <c r="CO46"/>
+      <c r="CP46"/>
+      <c r="CQ46"/>
+      <c r="CR46"/>
+      <c r="CS46"/>
+      <c r="CT46"/>
+      <c r="CU46"/>
+      <c r="CV46"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47"/>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47"/>
+      <c r="AE47"/>
+      <c r="AF47"/>
+      <c r="AG47"/>
+      <c r="AH47"/>
+      <c r="AI47"/>
+      <c r="AJ47"/>
+      <c r="AK47"/>
+      <c r="AL47"/>
+      <c r="AM47"/>
+      <c r="AN47"/>
+      <c r="AO47"/>
+      <c r="AP47"/>
+      <c r="AQ47"/>
+      <c r="AR47"/>
+      <c r="AS47"/>
+      <c r="AT47"/>
+      <c r="AU47"/>
+      <c r="AV47"/>
+      <c r="AW47"/>
+      <c r="AX47"/>
+      <c r="AY47"/>
+      <c r="AZ47"/>
+      <c r="BA47"/>
+      <c r="BB47"/>
+      <c r="BC47"/>
+      <c r="BD47"/>
+      <c r="BE47"/>
+      <c r="BF47"/>
+      <c r="BG47"/>
+      <c r="BH47"/>
+      <c r="BI47"/>
+      <c r="BJ47"/>
+      <c r="BK47"/>
+      <c r="BL47"/>
+      <c r="BM47"/>
+      <c r="BN47"/>
+      <c r="BO47"/>
+      <c r="BP47"/>
+      <c r="BQ47"/>
+      <c r="BR47"/>
+      <c r="BS47"/>
+      <c r="BT47"/>
+      <c r="BU47"/>
+      <c r="BV47"/>
+      <c r="BW47"/>
+      <c r="BX47"/>
+      <c r="BY47"/>
+      <c r="BZ47"/>
+      <c r="CA47"/>
+      <c r="CB47"/>
+      <c r="CC47"/>
+      <c r="CD47"/>
+      <c r="CE47"/>
+      <c r="CF47"/>
+      <c r="CG47"/>
+      <c r="CH47"/>
+      <c r="CI47"/>
+      <c r="CJ47"/>
+      <c r="CK47"/>
+      <c r="CL47"/>
+      <c r="CM47"/>
+      <c r="CN47"/>
+      <c r="CO47"/>
+      <c r="CP47"/>
+      <c r="CQ47"/>
+      <c r="CR47"/>
+      <c r="CS47"/>
+      <c r="CT47"/>
+      <c r="CU47"/>
+      <c r="CV47"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/db_tables/spaceshipResults.xlsx
+++ b/db_tables/spaceshipResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
   <si>
     <t>Name</t>
   </si>
@@ -20,37 +20,88 @@
     <t>Result</t>
   </si>
   <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>ohad</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>grfgbfgb</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>erez</t>
+  </si>
+  <si>
+    <t>erez8</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>erez9</t>
+  </si>
+  <si>
+    <t>Ariel</t>
+  </si>
+  <si>
+    <t>Eran</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>bjnm</t>
+  </si>
+  <si>
+    <t>ljk</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>vc</t>
+  </si>
+  <si>
+    <t>Erez1</t>
+  </si>
+  <si>
+    <t>Erez3</t>
+  </si>
+  <si>
+    <t>dfs</t>
+  </si>
+  <si>
+    <t>dsf</t>
+  </si>
+  <si>
     <t>aaa</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>jk</t>
   </si>
   <si>
     <t>fg</t>
   </si>
   <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>ohad</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>grfgbfgb</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>erez</t>
+    <t>J</t>
+  </si>
+  <si>
+    <t>32</t>
   </si>
   <si>
     <t>EG1</t>
@@ -68,12 +119,6 @@
     <t>sd</t>
   </si>
   <si>
-    <t>erez8</t>
-  </si>
-  <si>
-    <t>erez9</t>
-  </si>
-  <si>
     <t>szfd</t>
   </si>
   <si>
@@ -86,12 +131,6 @@
     <t>neta</t>
   </si>
   <si>
-    <t>Eran</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>Sorin</t>
   </si>
   <si>
@@ -107,6 +146,9 @@
     <t>12</t>
   </si>
   <si>
+    <t>kj</t>
+  </si>
+  <si>
     <t>user1</t>
   </si>
   <si>
@@ -119,9 +161,6 @@
     <t>20</t>
   </si>
   <si>
-    <t>ad</t>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
@@ -131,12 +170,12 @@
     <t>110</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>f</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>user23</t>
   </si>
   <si>
@@ -146,43 +185,31 @@
     <t>i</t>
   </si>
   <si>
-    <t>bjnm</t>
-  </si>
-  <si>
     <t>j</t>
   </si>
   <si>
     <t>sdfs</t>
   </si>
   <si>
-    <t>vc</t>
-  </si>
-  <si>
-    <t>Erez1</t>
+    <t>k</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
   <si>
     <t>xf</t>
   </si>
   <si>
-    <t>Erez3</t>
-  </si>
-  <si>
-    <t>dfs</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>neta G</t>
   </si>
   <si>
     <t>s</t>
   </si>
   <si>
+    <t>t</t>
+  </si>
+  <si>
     <t>v</t>
-  </si>
-  <si>
-    <t>dsf</t>
   </si>
   <si>
     <t>x</t>
@@ -242,7 +269,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:CV47"/>
+  <dimension ref="A1:CV54"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -367,7 +394,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -470,10 +497,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -576,10 +603,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -682,10 +709,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -788,10 +815,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -897,7 +924,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -1003,7 +1030,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -1106,10 +1133,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -1212,10 +1239,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -1321,7 +1348,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -1427,7 +1454,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -1530,10 +1557,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -1636,10 +1663,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -1742,10 +1769,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -1851,7 +1878,7 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -1957,7 +1984,7 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -2060,10 +2087,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -2166,10 +2193,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -2272,10 +2299,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -2378,116 +2405,18 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
-      <c r="U22"/>
-      <c r="V22"/>
-      <c r="W22"/>
-      <c r="X22"/>
-      <c r="Y22"/>
-      <c r="Z22"/>
-      <c r="AA22"/>
-      <c r="AB22"/>
-      <c r="AC22"/>
-      <c r="AD22"/>
-      <c r="AE22"/>
-      <c r="AF22"/>
-      <c r="AG22"/>
-      <c r="AH22"/>
-      <c r="AI22"/>
-      <c r="AJ22"/>
-      <c r="AK22"/>
-      <c r="AL22"/>
-      <c r="AM22"/>
-      <c r="AN22"/>
-      <c r="AO22"/>
-      <c r="AP22"/>
-      <c r="AQ22"/>
-      <c r="AR22"/>
-      <c r="AS22"/>
-      <c r="AT22"/>
-      <c r="AU22"/>
-      <c r="AV22"/>
-      <c r="AW22"/>
-      <c r="AX22"/>
-      <c r="AY22"/>
-      <c r="AZ22"/>
-      <c r="BA22"/>
-      <c r="BB22"/>
-      <c r="BC22"/>
-      <c r="BD22"/>
-      <c r="BE22"/>
-      <c r="BF22"/>
-      <c r="BG22"/>
-      <c r="BH22"/>
-      <c r="BI22"/>
-      <c r="BJ22"/>
-      <c r="BK22"/>
-      <c r="BL22"/>
-      <c r="BM22"/>
-      <c r="BN22"/>
-      <c r="BO22"/>
-      <c r="BP22"/>
-      <c r="BQ22"/>
-      <c r="BR22"/>
-      <c r="BS22"/>
-      <c r="BT22"/>
-      <c r="BU22"/>
-      <c r="BV22"/>
-      <c r="BW22"/>
-      <c r="BX22"/>
-      <c r="BY22"/>
-      <c r="BZ22"/>
-      <c r="CA22"/>
-      <c r="CB22"/>
-      <c r="CC22"/>
-      <c r="CD22"/>
-      <c r="CE22"/>
-      <c r="CF22"/>
-      <c r="CG22"/>
-      <c r="CH22"/>
-      <c r="CI22"/>
-      <c r="CJ22"/>
-      <c r="CK22"/>
-      <c r="CL22"/>
-      <c r="CM22"/>
-      <c r="CN22"/>
-      <c r="CO22"/>
-      <c r="CP22"/>
-      <c r="CQ22"/>
-      <c r="CR22"/>
-      <c r="CS22"/>
-      <c r="CT22"/>
-      <c r="CU22"/>
-      <c r="CV22"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -2590,10 +2519,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -2696,10 +2625,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -2802,10 +2731,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -2908,10 +2837,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -3014,10 +2943,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -3120,10 +3049,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -3226,10 +3155,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -3332,10 +3261,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -3438,10 +3367,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -3544,10 +3473,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -3650,10 +3579,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
         <v>46</v>
-      </c>
-      <c r="B34" t="s">
-        <v>11</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -3759,7 +3688,7 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
@@ -3862,10 +3791,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -3968,10 +3897,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -4074,10 +4003,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
@@ -4180,10 +4109,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
@@ -4286,10 +4215,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C40"/>
       <c r="D40"/>
@@ -4392,10 +4321,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C41"/>
       <c r="D41"/>
@@ -4498,10 +4427,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C42"/>
       <c r="D42"/>
@@ -4604,10 +4533,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C43"/>
       <c r="D43"/>
@@ -4710,10 +4639,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C44"/>
       <c r="D44"/>
@@ -4816,10 +4745,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="C45"/>
       <c r="D45"/>
@@ -4922,10 +4851,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C46"/>
       <c r="D46"/>
@@ -5028,10 +4957,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="C47"/>
       <c r="D47"/>
@@ -5132,6 +5061,748 @@
       <c r="CU47"/>
       <c r="CV47"/>
     </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48"/>
+      <c r="AB48"/>
+      <c r="AC48"/>
+      <c r="AD48"/>
+      <c r="AE48"/>
+      <c r="AF48"/>
+      <c r="AG48"/>
+      <c r="AH48"/>
+      <c r="AI48"/>
+      <c r="AJ48"/>
+      <c r="AK48"/>
+      <c r="AL48"/>
+      <c r="AM48"/>
+      <c r="AN48"/>
+      <c r="AO48"/>
+      <c r="AP48"/>
+      <c r="AQ48"/>
+      <c r="AR48"/>
+      <c r="AS48"/>
+      <c r="AT48"/>
+      <c r="AU48"/>
+      <c r="AV48"/>
+      <c r="AW48"/>
+      <c r="AX48"/>
+      <c r="AY48"/>
+      <c r="AZ48"/>
+      <c r="BA48"/>
+      <c r="BB48"/>
+      <c r="BC48"/>
+      <c r="BD48"/>
+      <c r="BE48"/>
+      <c r="BF48"/>
+      <c r="BG48"/>
+      <c r="BH48"/>
+      <c r="BI48"/>
+      <c r="BJ48"/>
+      <c r="BK48"/>
+      <c r="BL48"/>
+      <c r="BM48"/>
+      <c r="BN48"/>
+      <c r="BO48"/>
+      <c r="BP48"/>
+      <c r="BQ48"/>
+      <c r="BR48"/>
+      <c r="BS48"/>
+      <c r="BT48"/>
+      <c r="BU48"/>
+      <c r="BV48"/>
+      <c r="BW48"/>
+      <c r="BX48"/>
+      <c r="BY48"/>
+      <c r="BZ48"/>
+      <c r="CA48"/>
+      <c r="CB48"/>
+      <c r="CC48"/>
+      <c r="CD48"/>
+      <c r="CE48"/>
+      <c r="CF48"/>
+      <c r="CG48"/>
+      <c r="CH48"/>
+      <c r="CI48"/>
+      <c r="CJ48"/>
+      <c r="CK48"/>
+      <c r="CL48"/>
+      <c r="CM48"/>
+      <c r="CN48"/>
+      <c r="CO48"/>
+      <c r="CP48"/>
+      <c r="CQ48"/>
+      <c r="CR48"/>
+      <c r="CS48"/>
+      <c r="CT48"/>
+      <c r="CU48"/>
+      <c r="CV48"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49"/>
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AD49"/>
+      <c r="AE49"/>
+      <c r="AF49"/>
+      <c r="AG49"/>
+      <c r="AH49"/>
+      <c r="AI49"/>
+      <c r="AJ49"/>
+      <c r="AK49"/>
+      <c r="AL49"/>
+      <c r="AM49"/>
+      <c r="AN49"/>
+      <c r="AO49"/>
+      <c r="AP49"/>
+      <c r="AQ49"/>
+      <c r="AR49"/>
+      <c r="AS49"/>
+      <c r="AT49"/>
+      <c r="AU49"/>
+      <c r="AV49"/>
+      <c r="AW49"/>
+      <c r="AX49"/>
+      <c r="AY49"/>
+      <c r="AZ49"/>
+      <c r="BA49"/>
+      <c r="BB49"/>
+      <c r="BC49"/>
+      <c r="BD49"/>
+      <c r="BE49"/>
+      <c r="BF49"/>
+      <c r="BG49"/>
+      <c r="BH49"/>
+      <c r="BI49"/>
+      <c r="BJ49"/>
+      <c r="BK49"/>
+      <c r="BL49"/>
+      <c r="BM49"/>
+      <c r="BN49"/>
+      <c r="BO49"/>
+      <c r="BP49"/>
+      <c r="BQ49"/>
+      <c r="BR49"/>
+      <c r="BS49"/>
+      <c r="BT49"/>
+      <c r="BU49"/>
+      <c r="BV49"/>
+      <c r="BW49"/>
+      <c r="BX49"/>
+      <c r="BY49"/>
+      <c r="BZ49"/>
+      <c r="CA49"/>
+      <c r="CB49"/>
+      <c r="CC49"/>
+      <c r="CD49"/>
+      <c r="CE49"/>
+      <c r="CF49"/>
+      <c r="CG49"/>
+      <c r="CH49"/>
+      <c r="CI49"/>
+      <c r="CJ49"/>
+      <c r="CK49"/>
+      <c r="CL49"/>
+      <c r="CM49"/>
+      <c r="CN49"/>
+      <c r="CO49"/>
+      <c r="CP49"/>
+      <c r="CQ49"/>
+      <c r="CR49"/>
+      <c r="CS49"/>
+      <c r="CT49"/>
+      <c r="CU49"/>
+      <c r="CV49"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+      <c r="Y50"/>
+      <c r="Z50"/>
+      <c r="AA50"/>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50"/>
+      <c r="AE50"/>
+      <c r="AF50"/>
+      <c r="AG50"/>
+      <c r="AH50"/>
+      <c r="AI50"/>
+      <c r="AJ50"/>
+      <c r="AK50"/>
+      <c r="AL50"/>
+      <c r="AM50"/>
+      <c r="AN50"/>
+      <c r="AO50"/>
+      <c r="AP50"/>
+      <c r="AQ50"/>
+      <c r="AR50"/>
+      <c r="AS50"/>
+      <c r="AT50"/>
+      <c r="AU50"/>
+      <c r="AV50"/>
+      <c r="AW50"/>
+      <c r="AX50"/>
+      <c r="AY50"/>
+      <c r="AZ50"/>
+      <c r="BA50"/>
+      <c r="BB50"/>
+      <c r="BC50"/>
+      <c r="BD50"/>
+      <c r="BE50"/>
+      <c r="BF50"/>
+      <c r="BG50"/>
+      <c r="BH50"/>
+      <c r="BI50"/>
+      <c r="BJ50"/>
+      <c r="BK50"/>
+      <c r="BL50"/>
+      <c r="BM50"/>
+      <c r="BN50"/>
+      <c r="BO50"/>
+      <c r="BP50"/>
+      <c r="BQ50"/>
+      <c r="BR50"/>
+      <c r="BS50"/>
+      <c r="BT50"/>
+      <c r="BU50"/>
+      <c r="BV50"/>
+      <c r="BW50"/>
+      <c r="BX50"/>
+      <c r="BY50"/>
+      <c r="BZ50"/>
+      <c r="CA50"/>
+      <c r="CB50"/>
+      <c r="CC50"/>
+      <c r="CD50"/>
+      <c r="CE50"/>
+      <c r="CF50"/>
+      <c r="CG50"/>
+      <c r="CH50"/>
+      <c r="CI50"/>
+      <c r="CJ50"/>
+      <c r="CK50"/>
+      <c r="CL50"/>
+      <c r="CM50"/>
+      <c r="CN50"/>
+      <c r="CO50"/>
+      <c r="CP50"/>
+      <c r="CQ50"/>
+      <c r="CR50"/>
+      <c r="CS50"/>
+      <c r="CT50"/>
+      <c r="CU50"/>
+      <c r="CV50"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+      <c r="Z51"/>
+      <c r="AA51"/>
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AD51"/>
+      <c r="AE51"/>
+      <c r="AF51"/>
+      <c r="AG51"/>
+      <c r="AH51"/>
+      <c r="AI51"/>
+      <c r="AJ51"/>
+      <c r="AK51"/>
+      <c r="AL51"/>
+      <c r="AM51"/>
+      <c r="AN51"/>
+      <c r="AO51"/>
+      <c r="AP51"/>
+      <c r="AQ51"/>
+      <c r="AR51"/>
+      <c r="AS51"/>
+      <c r="AT51"/>
+      <c r="AU51"/>
+      <c r="AV51"/>
+      <c r="AW51"/>
+      <c r="AX51"/>
+      <c r="AY51"/>
+      <c r="AZ51"/>
+      <c r="BA51"/>
+      <c r="BB51"/>
+      <c r="BC51"/>
+      <c r="BD51"/>
+      <c r="BE51"/>
+      <c r="BF51"/>
+      <c r="BG51"/>
+      <c r="BH51"/>
+      <c r="BI51"/>
+      <c r="BJ51"/>
+      <c r="BK51"/>
+      <c r="BL51"/>
+      <c r="BM51"/>
+      <c r="BN51"/>
+      <c r="BO51"/>
+      <c r="BP51"/>
+      <c r="BQ51"/>
+      <c r="BR51"/>
+      <c r="BS51"/>
+      <c r="BT51"/>
+      <c r="BU51"/>
+      <c r="BV51"/>
+      <c r="BW51"/>
+      <c r="BX51"/>
+      <c r="BY51"/>
+      <c r="BZ51"/>
+      <c r="CA51"/>
+      <c r="CB51"/>
+      <c r="CC51"/>
+      <c r="CD51"/>
+      <c r="CE51"/>
+      <c r="CF51"/>
+      <c r="CG51"/>
+      <c r="CH51"/>
+      <c r="CI51"/>
+      <c r="CJ51"/>
+      <c r="CK51"/>
+      <c r="CL51"/>
+      <c r="CM51"/>
+      <c r="CN51"/>
+      <c r="CO51"/>
+      <c r="CP51"/>
+      <c r="CQ51"/>
+      <c r="CR51"/>
+      <c r="CS51"/>
+      <c r="CT51"/>
+      <c r="CU51"/>
+      <c r="CV51"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52"/>
+      <c r="AB52"/>
+      <c r="AC52"/>
+      <c r="AD52"/>
+      <c r="AE52"/>
+      <c r="AF52"/>
+      <c r="AG52"/>
+      <c r="AH52"/>
+      <c r="AI52"/>
+      <c r="AJ52"/>
+      <c r="AK52"/>
+      <c r="AL52"/>
+      <c r="AM52"/>
+      <c r="AN52"/>
+      <c r="AO52"/>
+      <c r="AP52"/>
+      <c r="AQ52"/>
+      <c r="AR52"/>
+      <c r="AS52"/>
+      <c r="AT52"/>
+      <c r="AU52"/>
+      <c r="AV52"/>
+      <c r="AW52"/>
+      <c r="AX52"/>
+      <c r="AY52"/>
+      <c r="AZ52"/>
+      <c r="BA52"/>
+      <c r="BB52"/>
+      <c r="BC52"/>
+      <c r="BD52"/>
+      <c r="BE52"/>
+      <c r="BF52"/>
+      <c r="BG52"/>
+      <c r="BH52"/>
+      <c r="BI52"/>
+      <c r="BJ52"/>
+      <c r="BK52"/>
+      <c r="BL52"/>
+      <c r="BM52"/>
+      <c r="BN52"/>
+      <c r="BO52"/>
+      <c r="BP52"/>
+      <c r="BQ52"/>
+      <c r="BR52"/>
+      <c r="BS52"/>
+      <c r="BT52"/>
+      <c r="BU52"/>
+      <c r="BV52"/>
+      <c r="BW52"/>
+      <c r="BX52"/>
+      <c r="BY52"/>
+      <c r="BZ52"/>
+      <c r="CA52"/>
+      <c r="CB52"/>
+      <c r="CC52"/>
+      <c r="CD52"/>
+      <c r="CE52"/>
+      <c r="CF52"/>
+      <c r="CG52"/>
+      <c r="CH52"/>
+      <c r="CI52"/>
+      <c r="CJ52"/>
+      <c r="CK52"/>
+      <c r="CL52"/>
+      <c r="CM52"/>
+      <c r="CN52"/>
+      <c r="CO52"/>
+      <c r="CP52"/>
+      <c r="CQ52"/>
+      <c r="CR52"/>
+      <c r="CS52"/>
+      <c r="CT52"/>
+      <c r="CU52"/>
+      <c r="CV52"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53"/>
+      <c r="W53"/>
+      <c r="X53"/>
+      <c r="Y53"/>
+      <c r="Z53"/>
+      <c r="AA53"/>
+      <c r="AB53"/>
+      <c r="AC53"/>
+      <c r="AD53"/>
+      <c r="AE53"/>
+      <c r="AF53"/>
+      <c r="AG53"/>
+      <c r="AH53"/>
+      <c r="AI53"/>
+      <c r="AJ53"/>
+      <c r="AK53"/>
+      <c r="AL53"/>
+      <c r="AM53"/>
+      <c r="AN53"/>
+      <c r="AO53"/>
+      <c r="AP53"/>
+      <c r="AQ53"/>
+      <c r="AR53"/>
+      <c r="AS53"/>
+      <c r="AT53"/>
+      <c r="AU53"/>
+      <c r="AV53"/>
+      <c r="AW53"/>
+      <c r="AX53"/>
+      <c r="AY53"/>
+      <c r="AZ53"/>
+      <c r="BA53"/>
+      <c r="BB53"/>
+      <c r="BC53"/>
+      <c r="BD53"/>
+      <c r="BE53"/>
+      <c r="BF53"/>
+      <c r="BG53"/>
+      <c r="BH53"/>
+      <c r="BI53"/>
+      <c r="BJ53"/>
+      <c r="BK53"/>
+      <c r="BL53"/>
+      <c r="BM53"/>
+      <c r="BN53"/>
+      <c r="BO53"/>
+      <c r="BP53"/>
+      <c r="BQ53"/>
+      <c r="BR53"/>
+      <c r="BS53"/>
+      <c r="BT53"/>
+      <c r="BU53"/>
+      <c r="BV53"/>
+      <c r="BW53"/>
+      <c r="BX53"/>
+      <c r="BY53"/>
+      <c r="BZ53"/>
+      <c r="CA53"/>
+      <c r="CB53"/>
+      <c r="CC53"/>
+      <c r="CD53"/>
+      <c r="CE53"/>
+      <c r="CF53"/>
+      <c r="CG53"/>
+      <c r="CH53"/>
+      <c r="CI53"/>
+      <c r="CJ53"/>
+      <c r="CK53"/>
+      <c r="CL53"/>
+      <c r="CM53"/>
+      <c r="CN53"/>
+      <c r="CO53"/>
+      <c r="CP53"/>
+      <c r="CQ53"/>
+      <c r="CR53"/>
+      <c r="CS53"/>
+      <c r="CT53"/>
+      <c r="CU53"/>
+      <c r="CV53"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+      <c r="Y54"/>
+      <c r="Z54"/>
+      <c r="AA54"/>
+      <c r="AB54"/>
+      <c r="AC54"/>
+      <c r="AD54"/>
+      <c r="AE54"/>
+      <c r="AF54"/>
+      <c r="AG54"/>
+      <c r="AH54"/>
+      <c r="AI54"/>
+      <c r="AJ54"/>
+      <c r="AK54"/>
+      <c r="AL54"/>
+      <c r="AM54"/>
+      <c r="AN54"/>
+      <c r="AO54"/>
+      <c r="AP54"/>
+      <c r="AQ54"/>
+      <c r="AR54"/>
+      <c r="AS54"/>
+      <c r="AT54"/>
+      <c r="AU54"/>
+      <c r="AV54"/>
+      <c r="AW54"/>
+      <c r="AX54"/>
+      <c r="AY54"/>
+      <c r="AZ54"/>
+      <c r="BA54"/>
+      <c r="BB54"/>
+      <c r="BC54"/>
+      <c r="BD54"/>
+      <c r="BE54"/>
+      <c r="BF54"/>
+      <c r="BG54"/>
+      <c r="BH54"/>
+      <c r="BI54"/>
+      <c r="BJ54"/>
+      <c r="BK54"/>
+      <c r="BL54"/>
+      <c r="BM54"/>
+      <c r="BN54"/>
+      <c r="BO54"/>
+      <c r="BP54"/>
+      <c r="BQ54"/>
+      <c r="BR54"/>
+      <c r="BS54"/>
+      <c r="BT54"/>
+      <c r="BU54"/>
+      <c r="BV54"/>
+      <c r="BW54"/>
+      <c r="BX54"/>
+      <c r="BY54"/>
+      <c r="BZ54"/>
+      <c r="CA54"/>
+      <c r="CB54"/>
+      <c r="CC54"/>
+      <c r="CD54"/>
+      <c r="CE54"/>
+      <c r="CF54"/>
+      <c r="CG54"/>
+      <c r="CH54"/>
+      <c r="CI54"/>
+      <c r="CJ54"/>
+      <c r="CK54"/>
+      <c r="CL54"/>
+      <c r="CM54"/>
+      <c r="CN54"/>
+      <c r="CO54"/>
+      <c r="CP54"/>
+      <c r="CQ54"/>
+      <c r="CR54"/>
+      <c r="CS54"/>
+      <c r="CT54"/>
+      <c r="CU54"/>
+      <c r="CV54"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/db_tables/spaceshipResults.xlsx
+++ b/db_tables/spaceshipResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
   <si>
     <t>Name</t>
   </si>
@@ -188,10 +188,16 @@
     <t>j</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>sdfs</t>
   </si>
   <si>
     <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
   </si>
   <si>
     <t>m</t>
@@ -269,7 +275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:CV54"/>
+  <dimension ref="A1:CV55"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2410,6 +2416,104 @@
       <c r="B22" t="s">
         <v>29</v>
       </c>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+      <c r="AE22"/>
+      <c r="AF22"/>
+      <c r="AG22"/>
+      <c r="AH22"/>
+      <c r="AI22"/>
+      <c r="AJ22"/>
+      <c r="AK22"/>
+      <c r="AL22"/>
+      <c r="AM22"/>
+      <c r="AN22"/>
+      <c r="AO22"/>
+      <c r="AP22"/>
+      <c r="AQ22"/>
+      <c r="AR22"/>
+      <c r="AS22"/>
+      <c r="AT22"/>
+      <c r="AU22"/>
+      <c r="AV22"/>
+      <c r="AW22"/>
+      <c r="AX22"/>
+      <c r="AY22"/>
+      <c r="AZ22"/>
+      <c r="BA22"/>
+      <c r="BB22"/>
+      <c r="BC22"/>
+      <c r="BD22"/>
+      <c r="BE22"/>
+      <c r="BF22"/>
+      <c r="BG22"/>
+      <c r="BH22"/>
+      <c r="BI22"/>
+      <c r="BJ22"/>
+      <c r="BK22"/>
+      <c r="BL22"/>
+      <c r="BM22"/>
+      <c r="BN22"/>
+      <c r="BO22"/>
+      <c r="BP22"/>
+      <c r="BQ22"/>
+      <c r="BR22"/>
+      <c r="BS22"/>
+      <c r="BT22"/>
+      <c r="BU22"/>
+      <c r="BV22"/>
+      <c r="BW22"/>
+      <c r="BX22"/>
+      <c r="BY22"/>
+      <c r="BZ22"/>
+      <c r="CA22"/>
+      <c r="CB22"/>
+      <c r="CC22"/>
+      <c r="CD22"/>
+      <c r="CE22"/>
+      <c r="CF22"/>
+      <c r="CG22"/>
+      <c r="CH22"/>
+      <c r="CI22"/>
+      <c r="CJ22"/>
+      <c r="CK22"/>
+      <c r="CL22"/>
+      <c r="CM22"/>
+      <c r="CN22"/>
+      <c r="CO22"/>
+      <c r="CP22"/>
+      <c r="CQ22"/>
+      <c r="CR22"/>
+      <c r="CS22"/>
+      <c r="CT22"/>
+      <c r="CU22"/>
+      <c r="CV22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -4430,7 +4534,7 @@
         <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C42"/>
       <c r="D42"/>
@@ -4533,7 +4637,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
@@ -4639,7 +4743,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
@@ -4745,10 +4849,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C45"/>
       <c r="D45"/>
@@ -4851,10 +4955,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C46"/>
       <c r="D46"/>
@@ -4957,10 +5061,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C47"/>
       <c r="D47"/>
@@ -5063,10 +5167,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C48"/>
       <c r="D48"/>
@@ -5169,7 +5273,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
@@ -5275,7 +5379,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B50" t="s">
         <v>10</v>
@@ -5381,10 +5485,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
@@ -5487,10 +5591,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C52"/>
       <c r="D52"/>
@@ -5593,10 +5697,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="C53"/>
       <c r="D53"/>
@@ -5702,7 +5806,7 @@
         <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C54"/>
       <c r="D54"/>
@@ -5803,6 +5907,112 @@
       <c r="CU54"/>
       <c r="CV54"/>
     </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+      <c r="AB55"/>
+      <c r="AC55"/>
+      <c r="AD55"/>
+      <c r="AE55"/>
+      <c r="AF55"/>
+      <c r="AG55"/>
+      <c r="AH55"/>
+      <c r="AI55"/>
+      <c r="AJ55"/>
+      <c r="AK55"/>
+      <c r="AL55"/>
+      <c r="AM55"/>
+      <c r="AN55"/>
+      <c r="AO55"/>
+      <c r="AP55"/>
+      <c r="AQ55"/>
+      <c r="AR55"/>
+      <c r="AS55"/>
+      <c r="AT55"/>
+      <c r="AU55"/>
+      <c r="AV55"/>
+      <c r="AW55"/>
+      <c r="AX55"/>
+      <c r="AY55"/>
+      <c r="AZ55"/>
+      <c r="BA55"/>
+      <c r="BB55"/>
+      <c r="BC55"/>
+      <c r="BD55"/>
+      <c r="BE55"/>
+      <c r="BF55"/>
+      <c r="BG55"/>
+      <c r="BH55"/>
+      <c r="BI55"/>
+      <c r="BJ55"/>
+      <c r="BK55"/>
+      <c r="BL55"/>
+      <c r="BM55"/>
+      <c r="BN55"/>
+      <c r="BO55"/>
+      <c r="BP55"/>
+      <c r="BQ55"/>
+      <c r="BR55"/>
+      <c r="BS55"/>
+      <c r="BT55"/>
+      <c r="BU55"/>
+      <c r="BV55"/>
+      <c r="BW55"/>
+      <c r="BX55"/>
+      <c r="BY55"/>
+      <c r="BZ55"/>
+      <c r="CA55"/>
+      <c r="CB55"/>
+      <c r="CC55"/>
+      <c r="CD55"/>
+      <c r="CE55"/>
+      <c r="CF55"/>
+      <c r="CG55"/>
+      <c r="CH55"/>
+      <c r="CI55"/>
+      <c r="CJ55"/>
+      <c r="CK55"/>
+      <c r="CL55"/>
+      <c r="CM55"/>
+      <c r="CN55"/>
+      <c r="CO55"/>
+      <c r="CP55"/>
+      <c r="CQ55"/>
+      <c r="CR55"/>
+      <c r="CS55"/>
+      <c r="CT55"/>
+      <c r="CU55"/>
+      <c r="CV55"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/db_tables/spaceshipResults.xlsx
+++ b/db_tables/spaceshipResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="77">
   <si>
     <t>Name</t>
   </si>
@@ -26,6 +26,12 @@
     <t>1</t>
   </si>
   <si>
+    <t>EREZ</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
     <t>ohad</t>
   </si>
   <si>
@@ -168,6 +174,12 @@
   </si>
   <si>
     <t>110</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
   <si>
     <t>f</t>
@@ -275,7 +287,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:CV55"/>
+  <dimension ref="A1:CV58"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -402,104 +414,6 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-      <c r="AB3"/>
-      <c r="AC3"/>
-      <c r="AD3"/>
-      <c r="AE3"/>
-      <c r="AF3"/>
-      <c r="AG3"/>
-      <c r="AH3"/>
-      <c r="AI3"/>
-      <c r="AJ3"/>
-      <c r="AK3"/>
-      <c r="AL3"/>
-      <c r="AM3"/>
-      <c r="AN3"/>
-      <c r="AO3"/>
-      <c r="AP3"/>
-      <c r="AQ3"/>
-      <c r="AR3"/>
-      <c r="AS3"/>
-      <c r="AT3"/>
-      <c r="AU3"/>
-      <c r="AV3"/>
-      <c r="AW3"/>
-      <c r="AX3"/>
-      <c r="AY3"/>
-      <c r="AZ3"/>
-      <c r="BA3"/>
-      <c r="BB3"/>
-      <c r="BC3"/>
-      <c r="BD3"/>
-      <c r="BE3"/>
-      <c r="BF3"/>
-      <c r="BG3"/>
-      <c r="BH3"/>
-      <c r="BI3"/>
-      <c r="BJ3"/>
-      <c r="BK3"/>
-      <c r="BL3"/>
-      <c r="BM3"/>
-      <c r="BN3"/>
-      <c r="BO3"/>
-      <c r="BP3"/>
-      <c r="BQ3"/>
-      <c r="BR3"/>
-      <c r="BS3"/>
-      <c r="BT3"/>
-      <c r="BU3"/>
-      <c r="BV3"/>
-      <c r="BW3"/>
-      <c r="BX3"/>
-      <c r="BY3"/>
-      <c r="BZ3"/>
-      <c r="CA3"/>
-      <c r="CB3"/>
-      <c r="CC3"/>
-      <c r="CD3"/>
-      <c r="CE3"/>
-      <c r="CF3"/>
-      <c r="CG3"/>
-      <c r="CH3"/>
-      <c r="CI3"/>
-      <c r="CJ3"/>
-      <c r="CK3"/>
-      <c r="CL3"/>
-      <c r="CM3"/>
-      <c r="CN3"/>
-      <c r="CO3"/>
-      <c r="CP3"/>
-      <c r="CQ3"/>
-      <c r="CR3"/>
-      <c r="CS3"/>
-      <c r="CT3"/>
-      <c r="CU3"/>
-      <c r="CV3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -612,7 +526,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -715,10 +629,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -824,7 +738,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -927,10 +841,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -1033,10 +947,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -1142,7 +1056,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -1245,10 +1159,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -1351,10 +1265,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -1457,10 +1371,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -1566,7 +1480,7 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -1669,10 +1583,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -1775,10 +1689,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -1881,10 +1795,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -1987,10 +1901,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -2093,10 +2007,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -2199,10 +2113,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -2305,10 +2219,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -2411,10 +2325,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -2520,7 +2434,7 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -2623,10 +2537,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -2729,10 +2643,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -2838,7 +2752,7 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -2941,10 +2855,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -3047,10 +2961,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -3156,7 +3070,7 @@
         <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -3259,10 +3173,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -3368,7 +3282,7 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -3471,10 +3385,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -3580,7 +3494,7 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -3683,10 +3597,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -3898,7 +3812,7 @@
         <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -4001,10 +3915,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -4216,7 +4130,7 @@
         <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
@@ -4322,7 +4236,7 @@
         <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C40"/>
       <c r="D40"/>
@@ -4428,7 +4342,7 @@
         <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C41"/>
       <c r="D41"/>
@@ -4531,10 +4445,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="C42"/>
       <c r="D42"/>
@@ -4640,7 +4554,7 @@
         <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C43"/>
       <c r="D43"/>
@@ -4746,7 +4660,7 @@
         <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C44"/>
       <c r="D44"/>
@@ -4852,7 +4766,7 @@
         <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="C45"/>
       <c r="D45"/>
@@ -4955,10 +4869,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C46"/>
       <c r="D46"/>
@@ -5061,10 +4975,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C47"/>
       <c r="D47"/>
@@ -5167,10 +5081,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C48"/>
       <c r="D48"/>
@@ -5273,10 +5187,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C49"/>
       <c r="D49"/>
@@ -5379,10 +5293,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C50"/>
       <c r="D50"/>
@@ -5485,10 +5399,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
@@ -5591,10 +5505,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C52"/>
       <c r="D52"/>
@@ -5697,10 +5611,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C53"/>
       <c r="D53"/>
@@ -5803,10 +5717,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="C54"/>
       <c r="D54"/>
@@ -5912,7 +5826,7 @@
         <v>72</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C55"/>
       <c r="D55"/>
@@ -6013,6 +5927,324 @@
       <c r="CU55"/>
       <c r="CV55"/>
     </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
+      <c r="AB56"/>
+      <c r="AC56"/>
+      <c r="AD56"/>
+      <c r="AE56"/>
+      <c r="AF56"/>
+      <c r="AG56"/>
+      <c r="AH56"/>
+      <c r="AI56"/>
+      <c r="AJ56"/>
+      <c r="AK56"/>
+      <c r="AL56"/>
+      <c r="AM56"/>
+      <c r="AN56"/>
+      <c r="AO56"/>
+      <c r="AP56"/>
+      <c r="AQ56"/>
+      <c r="AR56"/>
+      <c r="AS56"/>
+      <c r="AT56"/>
+      <c r="AU56"/>
+      <c r="AV56"/>
+      <c r="AW56"/>
+      <c r="AX56"/>
+      <c r="AY56"/>
+      <c r="AZ56"/>
+      <c r="BA56"/>
+      <c r="BB56"/>
+      <c r="BC56"/>
+      <c r="BD56"/>
+      <c r="BE56"/>
+      <c r="BF56"/>
+      <c r="BG56"/>
+      <c r="BH56"/>
+      <c r="BI56"/>
+      <c r="BJ56"/>
+      <c r="BK56"/>
+      <c r="BL56"/>
+      <c r="BM56"/>
+      <c r="BN56"/>
+      <c r="BO56"/>
+      <c r="BP56"/>
+      <c r="BQ56"/>
+      <c r="BR56"/>
+      <c r="BS56"/>
+      <c r="BT56"/>
+      <c r="BU56"/>
+      <c r="BV56"/>
+      <c r="BW56"/>
+      <c r="BX56"/>
+      <c r="BY56"/>
+      <c r="BZ56"/>
+      <c r="CA56"/>
+      <c r="CB56"/>
+      <c r="CC56"/>
+      <c r="CD56"/>
+      <c r="CE56"/>
+      <c r="CF56"/>
+      <c r="CG56"/>
+      <c r="CH56"/>
+      <c r="CI56"/>
+      <c r="CJ56"/>
+      <c r="CK56"/>
+      <c r="CL56"/>
+      <c r="CM56"/>
+      <c r="CN56"/>
+      <c r="CO56"/>
+      <c r="CP56"/>
+      <c r="CQ56"/>
+      <c r="CR56"/>
+      <c r="CS56"/>
+      <c r="CT56"/>
+      <c r="CU56"/>
+      <c r="CV56"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57"/>
+      <c r="AB57"/>
+      <c r="AC57"/>
+      <c r="AD57"/>
+      <c r="AE57"/>
+      <c r="AF57"/>
+      <c r="AG57"/>
+      <c r="AH57"/>
+      <c r="AI57"/>
+      <c r="AJ57"/>
+      <c r="AK57"/>
+      <c r="AL57"/>
+      <c r="AM57"/>
+      <c r="AN57"/>
+      <c r="AO57"/>
+      <c r="AP57"/>
+      <c r="AQ57"/>
+      <c r="AR57"/>
+      <c r="AS57"/>
+      <c r="AT57"/>
+      <c r="AU57"/>
+      <c r="AV57"/>
+      <c r="AW57"/>
+      <c r="AX57"/>
+      <c r="AY57"/>
+      <c r="AZ57"/>
+      <c r="BA57"/>
+      <c r="BB57"/>
+      <c r="BC57"/>
+      <c r="BD57"/>
+      <c r="BE57"/>
+      <c r="BF57"/>
+      <c r="BG57"/>
+      <c r="BH57"/>
+      <c r="BI57"/>
+      <c r="BJ57"/>
+      <c r="BK57"/>
+      <c r="BL57"/>
+      <c r="BM57"/>
+      <c r="BN57"/>
+      <c r="BO57"/>
+      <c r="BP57"/>
+      <c r="BQ57"/>
+      <c r="BR57"/>
+      <c r="BS57"/>
+      <c r="BT57"/>
+      <c r="BU57"/>
+      <c r="BV57"/>
+      <c r="BW57"/>
+      <c r="BX57"/>
+      <c r="BY57"/>
+      <c r="BZ57"/>
+      <c r="CA57"/>
+      <c r="CB57"/>
+      <c r="CC57"/>
+      <c r="CD57"/>
+      <c r="CE57"/>
+      <c r="CF57"/>
+      <c r="CG57"/>
+      <c r="CH57"/>
+      <c r="CI57"/>
+      <c r="CJ57"/>
+      <c r="CK57"/>
+      <c r="CL57"/>
+      <c r="CM57"/>
+      <c r="CN57"/>
+      <c r="CO57"/>
+      <c r="CP57"/>
+      <c r="CQ57"/>
+      <c r="CR57"/>
+      <c r="CS57"/>
+      <c r="CT57"/>
+      <c r="CU57"/>
+      <c r="CV57"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58"/>
+      <c r="AB58"/>
+      <c r="AC58"/>
+      <c r="AD58"/>
+      <c r="AE58"/>
+      <c r="AF58"/>
+      <c r="AG58"/>
+      <c r="AH58"/>
+      <c r="AI58"/>
+      <c r="AJ58"/>
+      <c r="AK58"/>
+      <c r="AL58"/>
+      <c r="AM58"/>
+      <c r="AN58"/>
+      <c r="AO58"/>
+      <c r="AP58"/>
+      <c r="AQ58"/>
+      <c r="AR58"/>
+      <c r="AS58"/>
+      <c r="AT58"/>
+      <c r="AU58"/>
+      <c r="AV58"/>
+      <c r="AW58"/>
+      <c r="AX58"/>
+      <c r="AY58"/>
+      <c r="AZ58"/>
+      <c r="BA58"/>
+      <c r="BB58"/>
+      <c r="BC58"/>
+      <c r="BD58"/>
+      <c r="BE58"/>
+      <c r="BF58"/>
+      <c r="BG58"/>
+      <c r="BH58"/>
+      <c r="BI58"/>
+      <c r="BJ58"/>
+      <c r="BK58"/>
+      <c r="BL58"/>
+      <c r="BM58"/>
+      <c r="BN58"/>
+      <c r="BO58"/>
+      <c r="BP58"/>
+      <c r="BQ58"/>
+      <c r="BR58"/>
+      <c r="BS58"/>
+      <c r="BT58"/>
+      <c r="BU58"/>
+      <c r="BV58"/>
+      <c r="BW58"/>
+      <c r="BX58"/>
+      <c r="BY58"/>
+      <c r="BZ58"/>
+      <c r="CA58"/>
+      <c r="CB58"/>
+      <c r="CC58"/>
+      <c r="CD58"/>
+      <c r="CE58"/>
+      <c r="CF58"/>
+      <c r="CG58"/>
+      <c r="CH58"/>
+      <c r="CI58"/>
+      <c r="CJ58"/>
+      <c r="CK58"/>
+      <c r="CL58"/>
+      <c r="CM58"/>
+      <c r="CN58"/>
+      <c r="CO58"/>
+      <c r="CP58"/>
+      <c r="CQ58"/>
+      <c r="CR58"/>
+      <c r="CS58"/>
+      <c r="CT58"/>
+      <c r="CU58"/>
+      <c r="CV58"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/db_tables/spaceshipResults.xlsx
+++ b/db_tables/spaceshipResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="103">
   <si>
     <t>Name</t>
   </si>
@@ -20,42 +20,60 @@
     <t>Result</t>
   </si>
   <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>df</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>EREZ</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>ohad</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \c\\</t>
+  </si>
+  <si>
+    <t>grfgbfgb</t>
+  </si>
+  <si>
+    <t>erez</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>ds</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>beni</t>
+  </si>
+  <si>
+    <t>erez8</t>
+  </si>
+  <si>
+    <t>erez9</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>EREZ</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>ohad</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>grfgbfgb</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>erez</t>
-  </si>
-  <si>
-    <t>erez8</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>erez9</t>
-  </si>
-  <si>
     <t>Ariel</t>
   </si>
   <si>
@@ -65,6 +83,18 @@
     <t>6</t>
   </si>
   <si>
+    <t xml:space="preserve"> lj</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>ad</t>
   </si>
   <si>
@@ -77,9 +107,6 @@
     <t>ljk</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>vc</t>
   </si>
   <si>
@@ -92,6 +119,24 @@
     <t>dfs</t>
   </si>
   <si>
+    <t>vg</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>rf</t>
+  </si>
+  <si>
+    <t>nb</t>
+  </si>
+  <si>
+    <t>Avi</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>dsf</t>
   </si>
   <si>
@@ -104,6 +149,12 @@
     <t>fg</t>
   </si>
   <si>
+    <t>,m</t>
+  </si>
+  <si>
+    <t>csda</t>
+  </si>
+  <si>
     <t>J</t>
   </si>
   <si>
@@ -122,6 +173,9 @@
     <t>5</t>
   </si>
   <si>
+    <t>fv</t>
+  </si>
+  <si>
     <t>sd</t>
   </si>
   <si>
@@ -140,9 +194,6 @@
     <t>Sorin</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>cb</t>
   </si>
   <si>
@@ -155,16 +206,22 @@
     <t>kj</t>
   </si>
   <si>
+    <t>ששש</t>
+  </si>
+  <si>
     <t>user1</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
+    <t>bhg</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
-    <t>20</t>
+    <t>b</t>
   </si>
   <si>
     <t>c</t>
@@ -194,6 +251,9 @@
     <t>g</t>
   </si>
   <si>
+    <t>h</t>
+  </si>
+  <si>
     <t>i</t>
   </si>
   <si>
@@ -218,22 +278,40 @@
     <t>xf</t>
   </si>
   <si>
+    <t>n</t>
+  </si>
+  <si>
     <t>neta G</t>
   </si>
   <si>
+    <t>r</t>
+  </si>
+  <si>
     <t>s</t>
   </si>
   <si>
+    <t>cv</t>
+  </si>
+  <si>
     <t>t</t>
   </si>
   <si>
+    <t>דגכדג</t>
+  </si>
+  <si>
     <t>v</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
+    <t>sdasedfeasfsd</t>
+  </si>
+  <si>
     <t>z</t>
+  </si>
+  <si>
+    <t>xs</t>
   </si>
   <si>
     <t>user100</t>
@@ -287,7 +365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:CV58"/>
+  <dimension ref="A1:CV83"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -414,6 +492,104 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+      <c r="AM3"/>
+      <c r="AN3"/>
+      <c r="AO3"/>
+      <c r="AP3"/>
+      <c r="AQ3"/>
+      <c r="AR3"/>
+      <c r="AS3"/>
+      <c r="AT3"/>
+      <c r="AU3"/>
+      <c r="AV3"/>
+      <c r="AW3"/>
+      <c r="AX3"/>
+      <c r="AY3"/>
+      <c r="AZ3"/>
+      <c r="BA3"/>
+      <c r="BB3"/>
+      <c r="BC3"/>
+      <c r="BD3"/>
+      <c r="BE3"/>
+      <c r="BF3"/>
+      <c r="BG3"/>
+      <c r="BH3"/>
+      <c r="BI3"/>
+      <c r="BJ3"/>
+      <c r="BK3"/>
+      <c r="BL3"/>
+      <c r="BM3"/>
+      <c r="BN3"/>
+      <c r="BO3"/>
+      <c r="BP3"/>
+      <c r="BQ3"/>
+      <c r="BR3"/>
+      <c r="BS3"/>
+      <c r="BT3"/>
+      <c r="BU3"/>
+      <c r="BV3"/>
+      <c r="BW3"/>
+      <c r="BX3"/>
+      <c r="BY3"/>
+      <c r="BZ3"/>
+      <c r="CA3"/>
+      <c r="CB3"/>
+      <c r="CC3"/>
+      <c r="CD3"/>
+      <c r="CE3"/>
+      <c r="CF3"/>
+      <c r="CG3"/>
+      <c r="CH3"/>
+      <c r="CI3"/>
+      <c r="CJ3"/>
+      <c r="CK3"/>
+      <c r="CL3"/>
+      <c r="CM3"/>
+      <c r="CN3"/>
+      <c r="CO3"/>
+      <c r="CP3"/>
+      <c r="CQ3"/>
+      <c r="CR3"/>
+      <c r="CS3"/>
+      <c r="CT3"/>
+      <c r="CU3"/>
+      <c r="CV3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -632,7 +808,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -738,7 +914,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -841,10 +1017,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -950,7 +1126,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -1053,10 +1229,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -1162,7 +1338,7 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -1268,7 +1444,7 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -1371,10 +1547,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -1477,10 +1653,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -1583,10 +1759,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -1689,10 +1865,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -1795,10 +1971,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -1901,10 +2077,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -2007,10 +2183,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -2113,10 +2289,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -2219,10 +2395,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -2325,10 +2501,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -2431,10 +2607,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -2537,10 +2713,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -2643,10 +2819,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -2749,10 +2925,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -2858,7 +3034,7 @@
         <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -2964,7 +3140,7 @@
         <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -3070,7 +3246,7 @@
         <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -3173,10 +3349,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
         <v>40</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -3282,7 +3458,7 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -3385,10 +3561,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -3491,10 +3667,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -3597,10 +3773,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -3703,10 +3879,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
@@ -3809,10 +3985,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -3915,10 +4091,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -4021,10 +4197,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
@@ -4127,10 +4303,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
@@ -4233,10 +4409,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C40"/>
       <c r="D40"/>
@@ -4339,10 +4515,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="C41"/>
       <c r="D41"/>
@@ -4445,10 +4621,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C42"/>
       <c r="D42"/>
@@ -4551,10 +4727,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C43"/>
       <c r="D43"/>
@@ -4657,10 +4833,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="C44"/>
       <c r="D44"/>
@@ -4763,10 +4939,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="C45"/>
       <c r="D45"/>
@@ -4869,10 +5045,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C46"/>
       <c r="D46"/>
@@ -4975,10 +5151,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C47"/>
       <c r="D47"/>
@@ -5081,10 +5257,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="C48"/>
       <c r="D48"/>
@@ -5187,10 +5363,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="C49"/>
       <c r="D49"/>
@@ -5293,10 +5469,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C50"/>
       <c r="D50"/>
@@ -5399,10 +5575,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
@@ -5505,10 +5681,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C52"/>
       <c r="D52"/>
@@ -5611,10 +5787,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C53"/>
       <c r="D53"/>
@@ -5717,10 +5893,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C54"/>
       <c r="D54"/>
@@ -5823,10 +5999,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C55"/>
       <c r="D55"/>
@@ -5929,10 +6105,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="C56"/>
       <c r="D56"/>
@@ -6035,10 +6211,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C57"/>
       <c r="D57"/>
@@ -6141,10 +6317,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="C58"/>
       <c r="D58"/>
@@ -6245,6 +6421,2656 @@
       <c r="CU58"/>
       <c r="CV58"/>
     </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+      <c r="AB59"/>
+      <c r="AC59"/>
+      <c r="AD59"/>
+      <c r="AE59"/>
+      <c r="AF59"/>
+      <c r="AG59"/>
+      <c r="AH59"/>
+      <c r="AI59"/>
+      <c r="AJ59"/>
+      <c r="AK59"/>
+      <c r="AL59"/>
+      <c r="AM59"/>
+      <c r="AN59"/>
+      <c r="AO59"/>
+      <c r="AP59"/>
+      <c r="AQ59"/>
+      <c r="AR59"/>
+      <c r="AS59"/>
+      <c r="AT59"/>
+      <c r="AU59"/>
+      <c r="AV59"/>
+      <c r="AW59"/>
+      <c r="AX59"/>
+      <c r="AY59"/>
+      <c r="AZ59"/>
+      <c r="BA59"/>
+      <c r="BB59"/>
+      <c r="BC59"/>
+      <c r="BD59"/>
+      <c r="BE59"/>
+      <c r="BF59"/>
+      <c r="BG59"/>
+      <c r="BH59"/>
+      <c r="BI59"/>
+      <c r="BJ59"/>
+      <c r="BK59"/>
+      <c r="BL59"/>
+      <c r="BM59"/>
+      <c r="BN59"/>
+      <c r="BO59"/>
+      <c r="BP59"/>
+      <c r="BQ59"/>
+      <c r="BR59"/>
+      <c r="BS59"/>
+      <c r="BT59"/>
+      <c r="BU59"/>
+      <c r="BV59"/>
+      <c r="BW59"/>
+      <c r="BX59"/>
+      <c r="BY59"/>
+      <c r="BZ59"/>
+      <c r="CA59"/>
+      <c r="CB59"/>
+      <c r="CC59"/>
+      <c r="CD59"/>
+      <c r="CE59"/>
+      <c r="CF59"/>
+      <c r="CG59"/>
+      <c r="CH59"/>
+      <c r="CI59"/>
+      <c r="CJ59"/>
+      <c r="CK59"/>
+      <c r="CL59"/>
+      <c r="CM59"/>
+      <c r="CN59"/>
+      <c r="CO59"/>
+      <c r="CP59"/>
+      <c r="CQ59"/>
+      <c r="CR59"/>
+      <c r="CS59"/>
+      <c r="CT59"/>
+      <c r="CU59"/>
+      <c r="CV59"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+      <c r="Y60"/>
+      <c r="Z60"/>
+      <c r="AA60"/>
+      <c r="AB60"/>
+      <c r="AC60"/>
+      <c r="AD60"/>
+      <c r="AE60"/>
+      <c r="AF60"/>
+      <c r="AG60"/>
+      <c r="AH60"/>
+      <c r="AI60"/>
+      <c r="AJ60"/>
+      <c r="AK60"/>
+      <c r="AL60"/>
+      <c r="AM60"/>
+      <c r="AN60"/>
+      <c r="AO60"/>
+      <c r="AP60"/>
+      <c r="AQ60"/>
+      <c r="AR60"/>
+      <c r="AS60"/>
+      <c r="AT60"/>
+      <c r="AU60"/>
+      <c r="AV60"/>
+      <c r="AW60"/>
+      <c r="AX60"/>
+      <c r="AY60"/>
+      <c r="AZ60"/>
+      <c r="BA60"/>
+      <c r="BB60"/>
+      <c r="BC60"/>
+      <c r="BD60"/>
+      <c r="BE60"/>
+      <c r="BF60"/>
+      <c r="BG60"/>
+      <c r="BH60"/>
+      <c r="BI60"/>
+      <c r="BJ60"/>
+      <c r="BK60"/>
+      <c r="BL60"/>
+      <c r="BM60"/>
+      <c r="BN60"/>
+      <c r="BO60"/>
+      <c r="BP60"/>
+      <c r="BQ60"/>
+      <c r="BR60"/>
+      <c r="BS60"/>
+      <c r="BT60"/>
+      <c r="BU60"/>
+      <c r="BV60"/>
+      <c r="BW60"/>
+      <c r="BX60"/>
+      <c r="BY60"/>
+      <c r="BZ60"/>
+      <c r="CA60"/>
+      <c r="CB60"/>
+      <c r="CC60"/>
+      <c r="CD60"/>
+      <c r="CE60"/>
+      <c r="CF60"/>
+      <c r="CG60"/>
+      <c r="CH60"/>
+      <c r="CI60"/>
+      <c r="CJ60"/>
+      <c r="CK60"/>
+      <c r="CL60"/>
+      <c r="CM60"/>
+      <c r="CN60"/>
+      <c r="CO60"/>
+      <c r="CP60"/>
+      <c r="CQ60"/>
+      <c r="CR60"/>
+      <c r="CS60"/>
+      <c r="CT60"/>
+      <c r="CU60"/>
+      <c r="CV60"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+      <c r="Y61"/>
+      <c r="Z61"/>
+      <c r="AA61"/>
+      <c r="AB61"/>
+      <c r="AC61"/>
+      <c r="AD61"/>
+      <c r="AE61"/>
+      <c r="AF61"/>
+      <c r="AG61"/>
+      <c r="AH61"/>
+      <c r="AI61"/>
+      <c r="AJ61"/>
+      <c r="AK61"/>
+      <c r="AL61"/>
+      <c r="AM61"/>
+      <c r="AN61"/>
+      <c r="AO61"/>
+      <c r="AP61"/>
+      <c r="AQ61"/>
+      <c r="AR61"/>
+      <c r="AS61"/>
+      <c r="AT61"/>
+      <c r="AU61"/>
+      <c r="AV61"/>
+      <c r="AW61"/>
+      <c r="AX61"/>
+      <c r="AY61"/>
+      <c r="AZ61"/>
+      <c r="BA61"/>
+      <c r="BB61"/>
+      <c r="BC61"/>
+      <c r="BD61"/>
+      <c r="BE61"/>
+      <c r="BF61"/>
+      <c r="BG61"/>
+      <c r="BH61"/>
+      <c r="BI61"/>
+      <c r="BJ61"/>
+      <c r="BK61"/>
+      <c r="BL61"/>
+      <c r="BM61"/>
+      <c r="BN61"/>
+      <c r="BO61"/>
+      <c r="BP61"/>
+      <c r="BQ61"/>
+      <c r="BR61"/>
+      <c r="BS61"/>
+      <c r="BT61"/>
+      <c r="BU61"/>
+      <c r="BV61"/>
+      <c r="BW61"/>
+      <c r="BX61"/>
+      <c r="BY61"/>
+      <c r="BZ61"/>
+      <c r="CA61"/>
+      <c r="CB61"/>
+      <c r="CC61"/>
+      <c r="CD61"/>
+      <c r="CE61"/>
+      <c r="CF61"/>
+      <c r="CG61"/>
+      <c r="CH61"/>
+      <c r="CI61"/>
+      <c r="CJ61"/>
+      <c r="CK61"/>
+      <c r="CL61"/>
+      <c r="CM61"/>
+      <c r="CN61"/>
+      <c r="CO61"/>
+      <c r="CP61"/>
+      <c r="CQ61"/>
+      <c r="CR61"/>
+      <c r="CS61"/>
+      <c r="CT61"/>
+      <c r="CU61"/>
+      <c r="CV61"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+      <c r="Y62"/>
+      <c r="Z62"/>
+      <c r="AA62"/>
+      <c r="AB62"/>
+      <c r="AC62"/>
+      <c r="AD62"/>
+      <c r="AE62"/>
+      <c r="AF62"/>
+      <c r="AG62"/>
+      <c r="AH62"/>
+      <c r="AI62"/>
+      <c r="AJ62"/>
+      <c r="AK62"/>
+      <c r="AL62"/>
+      <c r="AM62"/>
+      <c r="AN62"/>
+      <c r="AO62"/>
+      <c r="AP62"/>
+      <c r="AQ62"/>
+      <c r="AR62"/>
+      <c r="AS62"/>
+      <c r="AT62"/>
+      <c r="AU62"/>
+      <c r="AV62"/>
+      <c r="AW62"/>
+      <c r="AX62"/>
+      <c r="AY62"/>
+      <c r="AZ62"/>
+      <c r="BA62"/>
+      <c r="BB62"/>
+      <c r="BC62"/>
+      <c r="BD62"/>
+      <c r="BE62"/>
+      <c r="BF62"/>
+      <c r="BG62"/>
+      <c r="BH62"/>
+      <c r="BI62"/>
+      <c r="BJ62"/>
+      <c r="BK62"/>
+      <c r="BL62"/>
+      <c r="BM62"/>
+      <c r="BN62"/>
+      <c r="BO62"/>
+      <c r="BP62"/>
+      <c r="BQ62"/>
+      <c r="BR62"/>
+      <c r="BS62"/>
+      <c r="BT62"/>
+      <c r="BU62"/>
+      <c r="BV62"/>
+      <c r="BW62"/>
+      <c r="BX62"/>
+      <c r="BY62"/>
+      <c r="BZ62"/>
+      <c r="CA62"/>
+      <c r="CB62"/>
+      <c r="CC62"/>
+      <c r="CD62"/>
+      <c r="CE62"/>
+      <c r="CF62"/>
+      <c r="CG62"/>
+      <c r="CH62"/>
+      <c r="CI62"/>
+      <c r="CJ62"/>
+      <c r="CK62"/>
+      <c r="CL62"/>
+      <c r="CM62"/>
+      <c r="CN62"/>
+      <c r="CO62"/>
+      <c r="CP62"/>
+      <c r="CQ62"/>
+      <c r="CR62"/>
+      <c r="CS62"/>
+      <c r="CT62"/>
+      <c r="CU62"/>
+      <c r="CV62"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63"/>
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63"/>
+      <c r="AB63"/>
+      <c r="AC63"/>
+      <c r="AD63"/>
+      <c r="AE63"/>
+      <c r="AF63"/>
+      <c r="AG63"/>
+      <c r="AH63"/>
+      <c r="AI63"/>
+      <c r="AJ63"/>
+      <c r="AK63"/>
+      <c r="AL63"/>
+      <c r="AM63"/>
+      <c r="AN63"/>
+      <c r="AO63"/>
+      <c r="AP63"/>
+      <c r="AQ63"/>
+      <c r="AR63"/>
+      <c r="AS63"/>
+      <c r="AT63"/>
+      <c r="AU63"/>
+      <c r="AV63"/>
+      <c r="AW63"/>
+      <c r="AX63"/>
+      <c r="AY63"/>
+      <c r="AZ63"/>
+      <c r="BA63"/>
+      <c r="BB63"/>
+      <c r="BC63"/>
+      <c r="BD63"/>
+      <c r="BE63"/>
+      <c r="BF63"/>
+      <c r="BG63"/>
+      <c r="BH63"/>
+      <c r="BI63"/>
+      <c r="BJ63"/>
+      <c r="BK63"/>
+      <c r="BL63"/>
+      <c r="BM63"/>
+      <c r="BN63"/>
+      <c r="BO63"/>
+      <c r="BP63"/>
+      <c r="BQ63"/>
+      <c r="BR63"/>
+      <c r="BS63"/>
+      <c r="BT63"/>
+      <c r="BU63"/>
+      <c r="BV63"/>
+      <c r="BW63"/>
+      <c r="BX63"/>
+      <c r="BY63"/>
+      <c r="BZ63"/>
+      <c r="CA63"/>
+      <c r="CB63"/>
+      <c r="CC63"/>
+      <c r="CD63"/>
+      <c r="CE63"/>
+      <c r="CF63"/>
+      <c r="CG63"/>
+      <c r="CH63"/>
+      <c r="CI63"/>
+      <c r="CJ63"/>
+      <c r="CK63"/>
+      <c r="CL63"/>
+      <c r="CM63"/>
+      <c r="CN63"/>
+      <c r="CO63"/>
+      <c r="CP63"/>
+      <c r="CQ63"/>
+      <c r="CR63"/>
+      <c r="CS63"/>
+      <c r="CT63"/>
+      <c r="CU63"/>
+      <c r="CV63"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+      <c r="X64"/>
+      <c r="Y64"/>
+      <c r="Z64"/>
+      <c r="AA64"/>
+      <c r="AB64"/>
+      <c r="AC64"/>
+      <c r="AD64"/>
+      <c r="AE64"/>
+      <c r="AF64"/>
+      <c r="AG64"/>
+      <c r="AH64"/>
+      <c r="AI64"/>
+      <c r="AJ64"/>
+      <c r="AK64"/>
+      <c r="AL64"/>
+      <c r="AM64"/>
+      <c r="AN64"/>
+      <c r="AO64"/>
+      <c r="AP64"/>
+      <c r="AQ64"/>
+      <c r="AR64"/>
+      <c r="AS64"/>
+      <c r="AT64"/>
+      <c r="AU64"/>
+      <c r="AV64"/>
+      <c r="AW64"/>
+      <c r="AX64"/>
+      <c r="AY64"/>
+      <c r="AZ64"/>
+      <c r="BA64"/>
+      <c r="BB64"/>
+      <c r="BC64"/>
+      <c r="BD64"/>
+      <c r="BE64"/>
+      <c r="BF64"/>
+      <c r="BG64"/>
+      <c r="BH64"/>
+      <c r="BI64"/>
+      <c r="BJ64"/>
+      <c r="BK64"/>
+      <c r="BL64"/>
+      <c r="BM64"/>
+      <c r="BN64"/>
+      <c r="BO64"/>
+      <c r="BP64"/>
+      <c r="BQ64"/>
+      <c r="BR64"/>
+      <c r="BS64"/>
+      <c r="BT64"/>
+      <c r="BU64"/>
+      <c r="BV64"/>
+      <c r="BW64"/>
+      <c r="BX64"/>
+      <c r="BY64"/>
+      <c r="BZ64"/>
+      <c r="CA64"/>
+      <c r="CB64"/>
+      <c r="CC64"/>
+      <c r="CD64"/>
+      <c r="CE64"/>
+      <c r="CF64"/>
+      <c r="CG64"/>
+      <c r="CH64"/>
+      <c r="CI64"/>
+      <c r="CJ64"/>
+      <c r="CK64"/>
+      <c r="CL64"/>
+      <c r="CM64"/>
+      <c r="CN64"/>
+      <c r="CO64"/>
+      <c r="CP64"/>
+      <c r="CQ64"/>
+      <c r="CR64"/>
+      <c r="CS64"/>
+      <c r="CT64"/>
+      <c r="CU64"/>
+      <c r="CV64"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
+      <c r="W65"/>
+      <c r="X65"/>
+      <c r="Y65"/>
+      <c r="Z65"/>
+      <c r="AA65"/>
+      <c r="AB65"/>
+      <c r="AC65"/>
+      <c r="AD65"/>
+      <c r="AE65"/>
+      <c r="AF65"/>
+      <c r="AG65"/>
+      <c r="AH65"/>
+      <c r="AI65"/>
+      <c r="AJ65"/>
+      <c r="AK65"/>
+      <c r="AL65"/>
+      <c r="AM65"/>
+      <c r="AN65"/>
+      <c r="AO65"/>
+      <c r="AP65"/>
+      <c r="AQ65"/>
+      <c r="AR65"/>
+      <c r="AS65"/>
+      <c r="AT65"/>
+      <c r="AU65"/>
+      <c r="AV65"/>
+      <c r="AW65"/>
+      <c r="AX65"/>
+      <c r="AY65"/>
+      <c r="AZ65"/>
+      <c r="BA65"/>
+      <c r="BB65"/>
+      <c r="BC65"/>
+      <c r="BD65"/>
+      <c r="BE65"/>
+      <c r="BF65"/>
+      <c r="BG65"/>
+      <c r="BH65"/>
+      <c r="BI65"/>
+      <c r="BJ65"/>
+      <c r="BK65"/>
+      <c r="BL65"/>
+      <c r="BM65"/>
+      <c r="BN65"/>
+      <c r="BO65"/>
+      <c r="BP65"/>
+      <c r="BQ65"/>
+      <c r="BR65"/>
+      <c r="BS65"/>
+      <c r="BT65"/>
+      <c r="BU65"/>
+      <c r="BV65"/>
+      <c r="BW65"/>
+      <c r="BX65"/>
+      <c r="BY65"/>
+      <c r="BZ65"/>
+      <c r="CA65"/>
+      <c r="CB65"/>
+      <c r="CC65"/>
+      <c r="CD65"/>
+      <c r="CE65"/>
+      <c r="CF65"/>
+      <c r="CG65"/>
+      <c r="CH65"/>
+      <c r="CI65"/>
+      <c r="CJ65"/>
+      <c r="CK65"/>
+      <c r="CL65"/>
+      <c r="CM65"/>
+      <c r="CN65"/>
+      <c r="CO65"/>
+      <c r="CP65"/>
+      <c r="CQ65"/>
+      <c r="CR65"/>
+      <c r="CS65"/>
+      <c r="CT65"/>
+      <c r="CU65"/>
+      <c r="CV65"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+      <c r="X66"/>
+      <c r="Y66"/>
+      <c r="Z66"/>
+      <c r="AA66"/>
+      <c r="AB66"/>
+      <c r="AC66"/>
+      <c r="AD66"/>
+      <c r="AE66"/>
+      <c r="AF66"/>
+      <c r="AG66"/>
+      <c r="AH66"/>
+      <c r="AI66"/>
+      <c r="AJ66"/>
+      <c r="AK66"/>
+      <c r="AL66"/>
+      <c r="AM66"/>
+      <c r="AN66"/>
+      <c r="AO66"/>
+      <c r="AP66"/>
+      <c r="AQ66"/>
+      <c r="AR66"/>
+      <c r="AS66"/>
+      <c r="AT66"/>
+      <c r="AU66"/>
+      <c r="AV66"/>
+      <c r="AW66"/>
+      <c r="AX66"/>
+      <c r="AY66"/>
+      <c r="AZ66"/>
+      <c r="BA66"/>
+      <c r="BB66"/>
+      <c r="BC66"/>
+      <c r="BD66"/>
+      <c r="BE66"/>
+      <c r="BF66"/>
+      <c r="BG66"/>
+      <c r="BH66"/>
+      <c r="BI66"/>
+      <c r="BJ66"/>
+      <c r="BK66"/>
+      <c r="BL66"/>
+      <c r="BM66"/>
+      <c r="BN66"/>
+      <c r="BO66"/>
+      <c r="BP66"/>
+      <c r="BQ66"/>
+      <c r="BR66"/>
+      <c r="BS66"/>
+      <c r="BT66"/>
+      <c r="BU66"/>
+      <c r="BV66"/>
+      <c r="BW66"/>
+      <c r="BX66"/>
+      <c r="BY66"/>
+      <c r="BZ66"/>
+      <c r="CA66"/>
+      <c r="CB66"/>
+      <c r="CC66"/>
+      <c r="CD66"/>
+      <c r="CE66"/>
+      <c r="CF66"/>
+      <c r="CG66"/>
+      <c r="CH66"/>
+      <c r="CI66"/>
+      <c r="CJ66"/>
+      <c r="CK66"/>
+      <c r="CL66"/>
+      <c r="CM66"/>
+      <c r="CN66"/>
+      <c r="CO66"/>
+      <c r="CP66"/>
+      <c r="CQ66"/>
+      <c r="CR66"/>
+      <c r="CS66"/>
+      <c r="CT66"/>
+      <c r="CU66"/>
+      <c r="CV66"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
+      <c r="W67"/>
+      <c r="X67"/>
+      <c r="Y67"/>
+      <c r="Z67"/>
+      <c r="AA67"/>
+      <c r="AB67"/>
+      <c r="AC67"/>
+      <c r="AD67"/>
+      <c r="AE67"/>
+      <c r="AF67"/>
+      <c r="AG67"/>
+      <c r="AH67"/>
+      <c r="AI67"/>
+      <c r="AJ67"/>
+      <c r="AK67"/>
+      <c r="AL67"/>
+      <c r="AM67"/>
+      <c r="AN67"/>
+      <c r="AO67"/>
+      <c r="AP67"/>
+      <c r="AQ67"/>
+      <c r="AR67"/>
+      <c r="AS67"/>
+      <c r="AT67"/>
+      <c r="AU67"/>
+      <c r="AV67"/>
+      <c r="AW67"/>
+      <c r="AX67"/>
+      <c r="AY67"/>
+      <c r="AZ67"/>
+      <c r="BA67"/>
+      <c r="BB67"/>
+      <c r="BC67"/>
+      <c r="BD67"/>
+      <c r="BE67"/>
+      <c r="BF67"/>
+      <c r="BG67"/>
+      <c r="BH67"/>
+      <c r="BI67"/>
+      <c r="BJ67"/>
+      <c r="BK67"/>
+      <c r="BL67"/>
+      <c r="BM67"/>
+      <c r="BN67"/>
+      <c r="BO67"/>
+      <c r="BP67"/>
+      <c r="BQ67"/>
+      <c r="BR67"/>
+      <c r="BS67"/>
+      <c r="BT67"/>
+      <c r="BU67"/>
+      <c r="BV67"/>
+      <c r="BW67"/>
+      <c r="BX67"/>
+      <c r="BY67"/>
+      <c r="BZ67"/>
+      <c r="CA67"/>
+      <c r="CB67"/>
+      <c r="CC67"/>
+      <c r="CD67"/>
+      <c r="CE67"/>
+      <c r="CF67"/>
+      <c r="CG67"/>
+      <c r="CH67"/>
+      <c r="CI67"/>
+      <c r="CJ67"/>
+      <c r="CK67"/>
+      <c r="CL67"/>
+      <c r="CM67"/>
+      <c r="CN67"/>
+      <c r="CO67"/>
+      <c r="CP67"/>
+      <c r="CQ67"/>
+      <c r="CR67"/>
+      <c r="CS67"/>
+      <c r="CT67"/>
+      <c r="CU67"/>
+      <c r="CV67"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
+      <c r="W68"/>
+      <c r="X68"/>
+      <c r="Y68"/>
+      <c r="Z68"/>
+      <c r="AA68"/>
+      <c r="AB68"/>
+      <c r="AC68"/>
+      <c r="AD68"/>
+      <c r="AE68"/>
+      <c r="AF68"/>
+      <c r="AG68"/>
+      <c r="AH68"/>
+      <c r="AI68"/>
+      <c r="AJ68"/>
+      <c r="AK68"/>
+      <c r="AL68"/>
+      <c r="AM68"/>
+      <c r="AN68"/>
+      <c r="AO68"/>
+      <c r="AP68"/>
+      <c r="AQ68"/>
+      <c r="AR68"/>
+      <c r="AS68"/>
+      <c r="AT68"/>
+      <c r="AU68"/>
+      <c r="AV68"/>
+      <c r="AW68"/>
+      <c r="AX68"/>
+      <c r="AY68"/>
+      <c r="AZ68"/>
+      <c r="BA68"/>
+      <c r="BB68"/>
+      <c r="BC68"/>
+      <c r="BD68"/>
+      <c r="BE68"/>
+      <c r="BF68"/>
+      <c r="BG68"/>
+      <c r="BH68"/>
+      <c r="BI68"/>
+      <c r="BJ68"/>
+      <c r="BK68"/>
+      <c r="BL68"/>
+      <c r="BM68"/>
+      <c r="BN68"/>
+      <c r="BO68"/>
+      <c r="BP68"/>
+      <c r="BQ68"/>
+      <c r="BR68"/>
+      <c r="BS68"/>
+      <c r="BT68"/>
+      <c r="BU68"/>
+      <c r="BV68"/>
+      <c r="BW68"/>
+      <c r="BX68"/>
+      <c r="BY68"/>
+      <c r="BZ68"/>
+      <c r="CA68"/>
+      <c r="CB68"/>
+      <c r="CC68"/>
+      <c r="CD68"/>
+      <c r="CE68"/>
+      <c r="CF68"/>
+      <c r="CG68"/>
+      <c r="CH68"/>
+      <c r="CI68"/>
+      <c r="CJ68"/>
+      <c r="CK68"/>
+      <c r="CL68"/>
+      <c r="CM68"/>
+      <c r="CN68"/>
+      <c r="CO68"/>
+      <c r="CP68"/>
+      <c r="CQ68"/>
+      <c r="CR68"/>
+      <c r="CS68"/>
+      <c r="CT68"/>
+      <c r="CU68"/>
+      <c r="CV68"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+      <c r="X69"/>
+      <c r="Y69"/>
+      <c r="Z69"/>
+      <c r="AA69"/>
+      <c r="AB69"/>
+      <c r="AC69"/>
+      <c r="AD69"/>
+      <c r="AE69"/>
+      <c r="AF69"/>
+      <c r="AG69"/>
+      <c r="AH69"/>
+      <c r="AI69"/>
+      <c r="AJ69"/>
+      <c r="AK69"/>
+      <c r="AL69"/>
+      <c r="AM69"/>
+      <c r="AN69"/>
+      <c r="AO69"/>
+      <c r="AP69"/>
+      <c r="AQ69"/>
+      <c r="AR69"/>
+      <c r="AS69"/>
+      <c r="AT69"/>
+      <c r="AU69"/>
+      <c r="AV69"/>
+      <c r="AW69"/>
+      <c r="AX69"/>
+      <c r="AY69"/>
+      <c r="AZ69"/>
+      <c r="BA69"/>
+      <c r="BB69"/>
+      <c r="BC69"/>
+      <c r="BD69"/>
+      <c r="BE69"/>
+      <c r="BF69"/>
+      <c r="BG69"/>
+      <c r="BH69"/>
+      <c r="BI69"/>
+      <c r="BJ69"/>
+      <c r="BK69"/>
+      <c r="BL69"/>
+      <c r="BM69"/>
+      <c r="BN69"/>
+      <c r="BO69"/>
+      <c r="BP69"/>
+      <c r="BQ69"/>
+      <c r="BR69"/>
+      <c r="BS69"/>
+      <c r="BT69"/>
+      <c r="BU69"/>
+      <c r="BV69"/>
+      <c r="BW69"/>
+      <c r="BX69"/>
+      <c r="BY69"/>
+      <c r="BZ69"/>
+      <c r="CA69"/>
+      <c r="CB69"/>
+      <c r="CC69"/>
+      <c r="CD69"/>
+      <c r="CE69"/>
+      <c r="CF69"/>
+      <c r="CG69"/>
+      <c r="CH69"/>
+      <c r="CI69"/>
+      <c r="CJ69"/>
+      <c r="CK69"/>
+      <c r="CL69"/>
+      <c r="CM69"/>
+      <c r="CN69"/>
+      <c r="CO69"/>
+      <c r="CP69"/>
+      <c r="CQ69"/>
+      <c r="CR69"/>
+      <c r="CS69"/>
+      <c r="CT69"/>
+      <c r="CU69"/>
+      <c r="CV69"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70"/>
+      <c r="T70"/>
+      <c r="U70"/>
+      <c r="V70"/>
+      <c r="W70"/>
+      <c r="X70"/>
+      <c r="Y70"/>
+      <c r="Z70"/>
+      <c r="AA70"/>
+      <c r="AB70"/>
+      <c r="AC70"/>
+      <c r="AD70"/>
+      <c r="AE70"/>
+      <c r="AF70"/>
+      <c r="AG70"/>
+      <c r="AH70"/>
+      <c r="AI70"/>
+      <c r="AJ70"/>
+      <c r="AK70"/>
+      <c r="AL70"/>
+      <c r="AM70"/>
+      <c r="AN70"/>
+      <c r="AO70"/>
+      <c r="AP70"/>
+      <c r="AQ70"/>
+      <c r="AR70"/>
+      <c r="AS70"/>
+      <c r="AT70"/>
+      <c r="AU70"/>
+      <c r="AV70"/>
+      <c r="AW70"/>
+      <c r="AX70"/>
+      <c r="AY70"/>
+      <c r="AZ70"/>
+      <c r="BA70"/>
+      <c r="BB70"/>
+      <c r="BC70"/>
+      <c r="BD70"/>
+      <c r="BE70"/>
+      <c r="BF70"/>
+      <c r="BG70"/>
+      <c r="BH70"/>
+      <c r="BI70"/>
+      <c r="BJ70"/>
+      <c r="BK70"/>
+      <c r="BL70"/>
+      <c r="BM70"/>
+      <c r="BN70"/>
+      <c r="BO70"/>
+      <c r="BP70"/>
+      <c r="BQ70"/>
+      <c r="BR70"/>
+      <c r="BS70"/>
+      <c r="BT70"/>
+      <c r="BU70"/>
+      <c r="BV70"/>
+      <c r="BW70"/>
+      <c r="BX70"/>
+      <c r="BY70"/>
+      <c r="BZ70"/>
+      <c r="CA70"/>
+      <c r="CB70"/>
+      <c r="CC70"/>
+      <c r="CD70"/>
+      <c r="CE70"/>
+      <c r="CF70"/>
+      <c r="CG70"/>
+      <c r="CH70"/>
+      <c r="CI70"/>
+      <c r="CJ70"/>
+      <c r="CK70"/>
+      <c r="CL70"/>
+      <c r="CM70"/>
+      <c r="CN70"/>
+      <c r="CO70"/>
+      <c r="CP70"/>
+      <c r="CQ70"/>
+      <c r="CR70"/>
+      <c r="CS70"/>
+      <c r="CT70"/>
+      <c r="CU70"/>
+      <c r="CV70"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71"/>
+      <c r="V71"/>
+      <c r="W71"/>
+      <c r="X71"/>
+      <c r="Y71"/>
+      <c r="Z71"/>
+      <c r="AA71"/>
+      <c r="AB71"/>
+      <c r="AC71"/>
+      <c r="AD71"/>
+      <c r="AE71"/>
+      <c r="AF71"/>
+      <c r="AG71"/>
+      <c r="AH71"/>
+      <c r="AI71"/>
+      <c r="AJ71"/>
+      <c r="AK71"/>
+      <c r="AL71"/>
+      <c r="AM71"/>
+      <c r="AN71"/>
+      <c r="AO71"/>
+      <c r="AP71"/>
+      <c r="AQ71"/>
+      <c r="AR71"/>
+      <c r="AS71"/>
+      <c r="AT71"/>
+      <c r="AU71"/>
+      <c r="AV71"/>
+      <c r="AW71"/>
+      <c r="AX71"/>
+      <c r="AY71"/>
+      <c r="AZ71"/>
+      <c r="BA71"/>
+      <c r="BB71"/>
+      <c r="BC71"/>
+      <c r="BD71"/>
+      <c r="BE71"/>
+      <c r="BF71"/>
+      <c r="BG71"/>
+      <c r="BH71"/>
+      <c r="BI71"/>
+      <c r="BJ71"/>
+      <c r="BK71"/>
+      <c r="BL71"/>
+      <c r="BM71"/>
+      <c r="BN71"/>
+      <c r="BO71"/>
+      <c r="BP71"/>
+      <c r="BQ71"/>
+      <c r="BR71"/>
+      <c r="BS71"/>
+      <c r="BT71"/>
+      <c r="BU71"/>
+      <c r="BV71"/>
+      <c r="BW71"/>
+      <c r="BX71"/>
+      <c r="BY71"/>
+      <c r="BZ71"/>
+      <c r="CA71"/>
+      <c r="CB71"/>
+      <c r="CC71"/>
+      <c r="CD71"/>
+      <c r="CE71"/>
+      <c r="CF71"/>
+      <c r="CG71"/>
+      <c r="CH71"/>
+      <c r="CI71"/>
+      <c r="CJ71"/>
+      <c r="CK71"/>
+      <c r="CL71"/>
+      <c r="CM71"/>
+      <c r="CN71"/>
+      <c r="CO71"/>
+      <c r="CP71"/>
+      <c r="CQ71"/>
+      <c r="CR71"/>
+      <c r="CS71"/>
+      <c r="CT71"/>
+      <c r="CU71"/>
+      <c r="CV71"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
+      <c r="W72"/>
+      <c r="X72"/>
+      <c r="Y72"/>
+      <c r="Z72"/>
+      <c r="AA72"/>
+      <c r="AB72"/>
+      <c r="AC72"/>
+      <c r="AD72"/>
+      <c r="AE72"/>
+      <c r="AF72"/>
+      <c r="AG72"/>
+      <c r="AH72"/>
+      <c r="AI72"/>
+      <c r="AJ72"/>
+      <c r="AK72"/>
+      <c r="AL72"/>
+      <c r="AM72"/>
+      <c r="AN72"/>
+      <c r="AO72"/>
+      <c r="AP72"/>
+      <c r="AQ72"/>
+      <c r="AR72"/>
+      <c r="AS72"/>
+      <c r="AT72"/>
+      <c r="AU72"/>
+      <c r="AV72"/>
+      <c r="AW72"/>
+      <c r="AX72"/>
+      <c r="AY72"/>
+      <c r="AZ72"/>
+      <c r="BA72"/>
+      <c r="BB72"/>
+      <c r="BC72"/>
+      <c r="BD72"/>
+      <c r="BE72"/>
+      <c r="BF72"/>
+      <c r="BG72"/>
+      <c r="BH72"/>
+      <c r="BI72"/>
+      <c r="BJ72"/>
+      <c r="BK72"/>
+      <c r="BL72"/>
+      <c r="BM72"/>
+      <c r="BN72"/>
+      <c r="BO72"/>
+      <c r="BP72"/>
+      <c r="BQ72"/>
+      <c r="BR72"/>
+      <c r="BS72"/>
+      <c r="BT72"/>
+      <c r="BU72"/>
+      <c r="BV72"/>
+      <c r="BW72"/>
+      <c r="BX72"/>
+      <c r="BY72"/>
+      <c r="BZ72"/>
+      <c r="CA72"/>
+      <c r="CB72"/>
+      <c r="CC72"/>
+      <c r="CD72"/>
+      <c r="CE72"/>
+      <c r="CF72"/>
+      <c r="CG72"/>
+      <c r="CH72"/>
+      <c r="CI72"/>
+      <c r="CJ72"/>
+      <c r="CK72"/>
+      <c r="CL72"/>
+      <c r="CM72"/>
+      <c r="CN72"/>
+      <c r="CO72"/>
+      <c r="CP72"/>
+      <c r="CQ72"/>
+      <c r="CR72"/>
+      <c r="CS72"/>
+      <c r="CT72"/>
+      <c r="CU72"/>
+      <c r="CV72"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73"/>
+      <c r="V73"/>
+      <c r="W73"/>
+      <c r="X73"/>
+      <c r="Y73"/>
+      <c r="Z73"/>
+      <c r="AA73"/>
+      <c r="AB73"/>
+      <c r="AC73"/>
+      <c r="AD73"/>
+      <c r="AE73"/>
+      <c r="AF73"/>
+      <c r="AG73"/>
+      <c r="AH73"/>
+      <c r="AI73"/>
+      <c r="AJ73"/>
+      <c r="AK73"/>
+      <c r="AL73"/>
+      <c r="AM73"/>
+      <c r="AN73"/>
+      <c r="AO73"/>
+      <c r="AP73"/>
+      <c r="AQ73"/>
+      <c r="AR73"/>
+      <c r="AS73"/>
+      <c r="AT73"/>
+      <c r="AU73"/>
+      <c r="AV73"/>
+      <c r="AW73"/>
+      <c r="AX73"/>
+      <c r="AY73"/>
+      <c r="AZ73"/>
+      <c r="BA73"/>
+      <c r="BB73"/>
+      <c r="BC73"/>
+      <c r="BD73"/>
+      <c r="BE73"/>
+      <c r="BF73"/>
+      <c r="BG73"/>
+      <c r="BH73"/>
+      <c r="BI73"/>
+      <c r="BJ73"/>
+      <c r="BK73"/>
+      <c r="BL73"/>
+      <c r="BM73"/>
+      <c r="BN73"/>
+      <c r="BO73"/>
+      <c r="BP73"/>
+      <c r="BQ73"/>
+      <c r="BR73"/>
+      <c r="BS73"/>
+      <c r="BT73"/>
+      <c r="BU73"/>
+      <c r="BV73"/>
+      <c r="BW73"/>
+      <c r="BX73"/>
+      <c r="BY73"/>
+      <c r="BZ73"/>
+      <c r="CA73"/>
+      <c r="CB73"/>
+      <c r="CC73"/>
+      <c r="CD73"/>
+      <c r="CE73"/>
+      <c r="CF73"/>
+      <c r="CG73"/>
+      <c r="CH73"/>
+      <c r="CI73"/>
+      <c r="CJ73"/>
+      <c r="CK73"/>
+      <c r="CL73"/>
+      <c r="CM73"/>
+      <c r="CN73"/>
+      <c r="CO73"/>
+      <c r="CP73"/>
+      <c r="CQ73"/>
+      <c r="CR73"/>
+      <c r="CS73"/>
+      <c r="CT73"/>
+      <c r="CU73"/>
+      <c r="CV73"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
+      <c r="W74"/>
+      <c r="X74"/>
+      <c r="Y74"/>
+      <c r="Z74"/>
+      <c r="AA74"/>
+      <c r="AB74"/>
+      <c r="AC74"/>
+      <c r="AD74"/>
+      <c r="AE74"/>
+      <c r="AF74"/>
+      <c r="AG74"/>
+      <c r="AH74"/>
+      <c r="AI74"/>
+      <c r="AJ74"/>
+      <c r="AK74"/>
+      <c r="AL74"/>
+      <c r="AM74"/>
+      <c r="AN74"/>
+      <c r="AO74"/>
+      <c r="AP74"/>
+      <c r="AQ74"/>
+      <c r="AR74"/>
+      <c r="AS74"/>
+      <c r="AT74"/>
+      <c r="AU74"/>
+      <c r="AV74"/>
+      <c r="AW74"/>
+      <c r="AX74"/>
+      <c r="AY74"/>
+      <c r="AZ74"/>
+      <c r="BA74"/>
+      <c r="BB74"/>
+      <c r="BC74"/>
+      <c r="BD74"/>
+      <c r="BE74"/>
+      <c r="BF74"/>
+      <c r="BG74"/>
+      <c r="BH74"/>
+      <c r="BI74"/>
+      <c r="BJ74"/>
+      <c r="BK74"/>
+      <c r="BL74"/>
+      <c r="BM74"/>
+      <c r="BN74"/>
+      <c r="BO74"/>
+      <c r="BP74"/>
+      <c r="BQ74"/>
+      <c r="BR74"/>
+      <c r="BS74"/>
+      <c r="BT74"/>
+      <c r="BU74"/>
+      <c r="BV74"/>
+      <c r="BW74"/>
+      <c r="BX74"/>
+      <c r="BY74"/>
+      <c r="BZ74"/>
+      <c r="CA74"/>
+      <c r="CB74"/>
+      <c r="CC74"/>
+      <c r="CD74"/>
+      <c r="CE74"/>
+      <c r="CF74"/>
+      <c r="CG74"/>
+      <c r="CH74"/>
+      <c r="CI74"/>
+      <c r="CJ74"/>
+      <c r="CK74"/>
+      <c r="CL74"/>
+      <c r="CM74"/>
+      <c r="CN74"/>
+      <c r="CO74"/>
+      <c r="CP74"/>
+      <c r="CQ74"/>
+      <c r="CR74"/>
+      <c r="CS74"/>
+      <c r="CT74"/>
+      <c r="CU74"/>
+      <c r="CV74"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75"/>
+      <c r="T75"/>
+      <c r="U75"/>
+      <c r="V75"/>
+      <c r="W75"/>
+      <c r="X75"/>
+      <c r="Y75"/>
+      <c r="Z75"/>
+      <c r="AA75"/>
+      <c r="AB75"/>
+      <c r="AC75"/>
+      <c r="AD75"/>
+      <c r="AE75"/>
+      <c r="AF75"/>
+      <c r="AG75"/>
+      <c r="AH75"/>
+      <c r="AI75"/>
+      <c r="AJ75"/>
+      <c r="AK75"/>
+      <c r="AL75"/>
+      <c r="AM75"/>
+      <c r="AN75"/>
+      <c r="AO75"/>
+      <c r="AP75"/>
+      <c r="AQ75"/>
+      <c r="AR75"/>
+      <c r="AS75"/>
+      <c r="AT75"/>
+      <c r="AU75"/>
+      <c r="AV75"/>
+      <c r="AW75"/>
+      <c r="AX75"/>
+      <c r="AY75"/>
+      <c r="AZ75"/>
+      <c r="BA75"/>
+      <c r="BB75"/>
+      <c r="BC75"/>
+      <c r="BD75"/>
+      <c r="BE75"/>
+      <c r="BF75"/>
+      <c r="BG75"/>
+      <c r="BH75"/>
+      <c r="BI75"/>
+      <c r="BJ75"/>
+      <c r="BK75"/>
+      <c r="BL75"/>
+      <c r="BM75"/>
+      <c r="BN75"/>
+      <c r="BO75"/>
+      <c r="BP75"/>
+      <c r="BQ75"/>
+      <c r="BR75"/>
+      <c r="BS75"/>
+      <c r="BT75"/>
+      <c r="BU75"/>
+      <c r="BV75"/>
+      <c r="BW75"/>
+      <c r="BX75"/>
+      <c r="BY75"/>
+      <c r="BZ75"/>
+      <c r="CA75"/>
+      <c r="CB75"/>
+      <c r="CC75"/>
+      <c r="CD75"/>
+      <c r="CE75"/>
+      <c r="CF75"/>
+      <c r="CG75"/>
+      <c r="CH75"/>
+      <c r="CI75"/>
+      <c r="CJ75"/>
+      <c r="CK75"/>
+      <c r="CL75"/>
+      <c r="CM75"/>
+      <c r="CN75"/>
+      <c r="CO75"/>
+      <c r="CP75"/>
+      <c r="CQ75"/>
+      <c r="CR75"/>
+      <c r="CS75"/>
+      <c r="CT75"/>
+      <c r="CU75"/>
+      <c r="CV75"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="R76"/>
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76"/>
+      <c r="V76"/>
+      <c r="W76"/>
+      <c r="X76"/>
+      <c r="Y76"/>
+      <c r="Z76"/>
+      <c r="AA76"/>
+      <c r="AB76"/>
+      <c r="AC76"/>
+      <c r="AD76"/>
+      <c r="AE76"/>
+      <c r="AF76"/>
+      <c r="AG76"/>
+      <c r="AH76"/>
+      <c r="AI76"/>
+      <c r="AJ76"/>
+      <c r="AK76"/>
+      <c r="AL76"/>
+      <c r="AM76"/>
+      <c r="AN76"/>
+      <c r="AO76"/>
+      <c r="AP76"/>
+      <c r="AQ76"/>
+      <c r="AR76"/>
+      <c r="AS76"/>
+      <c r="AT76"/>
+      <c r="AU76"/>
+      <c r="AV76"/>
+      <c r="AW76"/>
+      <c r="AX76"/>
+      <c r="AY76"/>
+      <c r="AZ76"/>
+      <c r="BA76"/>
+      <c r="BB76"/>
+      <c r="BC76"/>
+      <c r="BD76"/>
+      <c r="BE76"/>
+      <c r="BF76"/>
+      <c r="BG76"/>
+      <c r="BH76"/>
+      <c r="BI76"/>
+      <c r="BJ76"/>
+      <c r="BK76"/>
+      <c r="BL76"/>
+      <c r="BM76"/>
+      <c r="BN76"/>
+      <c r="BO76"/>
+      <c r="BP76"/>
+      <c r="BQ76"/>
+      <c r="BR76"/>
+      <c r="BS76"/>
+      <c r="BT76"/>
+      <c r="BU76"/>
+      <c r="BV76"/>
+      <c r="BW76"/>
+      <c r="BX76"/>
+      <c r="BY76"/>
+      <c r="BZ76"/>
+      <c r="CA76"/>
+      <c r="CB76"/>
+      <c r="CC76"/>
+      <c r="CD76"/>
+      <c r="CE76"/>
+      <c r="CF76"/>
+      <c r="CG76"/>
+      <c r="CH76"/>
+      <c r="CI76"/>
+      <c r="CJ76"/>
+      <c r="CK76"/>
+      <c r="CL76"/>
+      <c r="CM76"/>
+      <c r="CN76"/>
+      <c r="CO76"/>
+      <c r="CP76"/>
+      <c r="CQ76"/>
+      <c r="CR76"/>
+      <c r="CS76"/>
+      <c r="CT76"/>
+      <c r="CU76"/>
+      <c r="CV76"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>95</v>
+      </c>
+      <c r="B77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
+      <c r="R77"/>
+      <c r="S77"/>
+      <c r="T77"/>
+      <c r="U77"/>
+      <c r="V77"/>
+      <c r="W77"/>
+      <c r="X77"/>
+      <c r="Y77"/>
+      <c r="Z77"/>
+      <c r="AA77"/>
+      <c r="AB77"/>
+      <c r="AC77"/>
+      <c r="AD77"/>
+      <c r="AE77"/>
+      <c r="AF77"/>
+      <c r="AG77"/>
+      <c r="AH77"/>
+      <c r="AI77"/>
+      <c r="AJ77"/>
+      <c r="AK77"/>
+      <c r="AL77"/>
+      <c r="AM77"/>
+      <c r="AN77"/>
+      <c r="AO77"/>
+      <c r="AP77"/>
+      <c r="AQ77"/>
+      <c r="AR77"/>
+      <c r="AS77"/>
+      <c r="AT77"/>
+      <c r="AU77"/>
+      <c r="AV77"/>
+      <c r="AW77"/>
+      <c r="AX77"/>
+      <c r="AY77"/>
+      <c r="AZ77"/>
+      <c r="BA77"/>
+      <c r="BB77"/>
+      <c r="BC77"/>
+      <c r="BD77"/>
+      <c r="BE77"/>
+      <c r="BF77"/>
+      <c r="BG77"/>
+      <c r="BH77"/>
+      <c r="BI77"/>
+      <c r="BJ77"/>
+      <c r="BK77"/>
+      <c r="BL77"/>
+      <c r="BM77"/>
+      <c r="BN77"/>
+      <c r="BO77"/>
+      <c r="BP77"/>
+      <c r="BQ77"/>
+      <c r="BR77"/>
+      <c r="BS77"/>
+      <c r="BT77"/>
+      <c r="BU77"/>
+      <c r="BV77"/>
+      <c r="BW77"/>
+      <c r="BX77"/>
+      <c r="BY77"/>
+      <c r="BZ77"/>
+      <c r="CA77"/>
+      <c r="CB77"/>
+      <c r="CC77"/>
+      <c r="CD77"/>
+      <c r="CE77"/>
+      <c r="CF77"/>
+      <c r="CG77"/>
+      <c r="CH77"/>
+      <c r="CI77"/>
+      <c r="CJ77"/>
+      <c r="CK77"/>
+      <c r="CL77"/>
+      <c r="CM77"/>
+      <c r="CN77"/>
+      <c r="CO77"/>
+      <c r="CP77"/>
+      <c r="CQ77"/>
+      <c r="CR77"/>
+      <c r="CS77"/>
+      <c r="CT77"/>
+      <c r="CU77"/>
+      <c r="CV77"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>96</v>
+      </c>
+      <c r="B78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78"/>
+      <c r="Q78"/>
+      <c r="R78"/>
+      <c r="S78"/>
+      <c r="T78"/>
+      <c r="U78"/>
+      <c r="V78"/>
+      <c r="W78"/>
+      <c r="X78"/>
+      <c r="Y78"/>
+      <c r="Z78"/>
+      <c r="AA78"/>
+      <c r="AB78"/>
+      <c r="AC78"/>
+      <c r="AD78"/>
+      <c r="AE78"/>
+      <c r="AF78"/>
+      <c r="AG78"/>
+      <c r="AH78"/>
+      <c r="AI78"/>
+      <c r="AJ78"/>
+      <c r="AK78"/>
+      <c r="AL78"/>
+      <c r="AM78"/>
+      <c r="AN78"/>
+      <c r="AO78"/>
+      <c r="AP78"/>
+      <c r="AQ78"/>
+      <c r="AR78"/>
+      <c r="AS78"/>
+      <c r="AT78"/>
+      <c r="AU78"/>
+      <c r="AV78"/>
+      <c r="AW78"/>
+      <c r="AX78"/>
+      <c r="AY78"/>
+      <c r="AZ78"/>
+      <c r="BA78"/>
+      <c r="BB78"/>
+      <c r="BC78"/>
+      <c r="BD78"/>
+      <c r="BE78"/>
+      <c r="BF78"/>
+      <c r="BG78"/>
+      <c r="BH78"/>
+      <c r="BI78"/>
+      <c r="BJ78"/>
+      <c r="BK78"/>
+      <c r="BL78"/>
+      <c r="BM78"/>
+      <c r="BN78"/>
+      <c r="BO78"/>
+      <c r="BP78"/>
+      <c r="BQ78"/>
+      <c r="BR78"/>
+      <c r="BS78"/>
+      <c r="BT78"/>
+      <c r="BU78"/>
+      <c r="BV78"/>
+      <c r="BW78"/>
+      <c r="BX78"/>
+      <c r="BY78"/>
+      <c r="BZ78"/>
+      <c r="CA78"/>
+      <c r="CB78"/>
+      <c r="CC78"/>
+      <c r="CD78"/>
+      <c r="CE78"/>
+      <c r="CF78"/>
+      <c r="CG78"/>
+      <c r="CH78"/>
+      <c r="CI78"/>
+      <c r="CJ78"/>
+      <c r="CK78"/>
+      <c r="CL78"/>
+      <c r="CM78"/>
+      <c r="CN78"/>
+      <c r="CO78"/>
+      <c r="CP78"/>
+      <c r="CQ78"/>
+      <c r="CR78"/>
+      <c r="CS78"/>
+      <c r="CT78"/>
+      <c r="CU78"/>
+      <c r="CV78"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>97</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79"/>
+      <c r="R79"/>
+      <c r="S79"/>
+      <c r="T79"/>
+      <c r="U79"/>
+      <c r="V79"/>
+      <c r="W79"/>
+      <c r="X79"/>
+      <c r="Y79"/>
+      <c r="Z79"/>
+      <c r="AA79"/>
+      <c r="AB79"/>
+      <c r="AC79"/>
+      <c r="AD79"/>
+      <c r="AE79"/>
+      <c r="AF79"/>
+      <c r="AG79"/>
+      <c r="AH79"/>
+      <c r="AI79"/>
+      <c r="AJ79"/>
+      <c r="AK79"/>
+      <c r="AL79"/>
+      <c r="AM79"/>
+      <c r="AN79"/>
+      <c r="AO79"/>
+      <c r="AP79"/>
+      <c r="AQ79"/>
+      <c r="AR79"/>
+      <c r="AS79"/>
+      <c r="AT79"/>
+      <c r="AU79"/>
+      <c r="AV79"/>
+      <c r="AW79"/>
+      <c r="AX79"/>
+      <c r="AY79"/>
+      <c r="AZ79"/>
+      <c r="BA79"/>
+      <c r="BB79"/>
+      <c r="BC79"/>
+      <c r="BD79"/>
+      <c r="BE79"/>
+      <c r="BF79"/>
+      <c r="BG79"/>
+      <c r="BH79"/>
+      <c r="BI79"/>
+      <c r="BJ79"/>
+      <c r="BK79"/>
+      <c r="BL79"/>
+      <c r="BM79"/>
+      <c r="BN79"/>
+      <c r="BO79"/>
+      <c r="BP79"/>
+      <c r="BQ79"/>
+      <c r="BR79"/>
+      <c r="BS79"/>
+      <c r="BT79"/>
+      <c r="BU79"/>
+      <c r="BV79"/>
+      <c r="BW79"/>
+      <c r="BX79"/>
+      <c r="BY79"/>
+      <c r="BZ79"/>
+      <c r="CA79"/>
+      <c r="CB79"/>
+      <c r="CC79"/>
+      <c r="CD79"/>
+      <c r="CE79"/>
+      <c r="CF79"/>
+      <c r="CG79"/>
+      <c r="CH79"/>
+      <c r="CI79"/>
+      <c r="CJ79"/>
+      <c r="CK79"/>
+      <c r="CL79"/>
+      <c r="CM79"/>
+      <c r="CN79"/>
+      <c r="CO79"/>
+      <c r="CP79"/>
+      <c r="CQ79"/>
+      <c r="CR79"/>
+      <c r="CS79"/>
+      <c r="CT79"/>
+      <c r="CU79"/>
+      <c r="CV79"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>98</v>
+      </c>
+      <c r="B80" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+      <c r="Q80"/>
+      <c r="R80"/>
+      <c r="S80"/>
+      <c r="T80"/>
+      <c r="U80"/>
+      <c r="V80"/>
+      <c r="W80"/>
+      <c r="X80"/>
+      <c r="Y80"/>
+      <c r="Z80"/>
+      <c r="AA80"/>
+      <c r="AB80"/>
+      <c r="AC80"/>
+      <c r="AD80"/>
+      <c r="AE80"/>
+      <c r="AF80"/>
+      <c r="AG80"/>
+      <c r="AH80"/>
+      <c r="AI80"/>
+      <c r="AJ80"/>
+      <c r="AK80"/>
+      <c r="AL80"/>
+      <c r="AM80"/>
+      <c r="AN80"/>
+      <c r="AO80"/>
+      <c r="AP80"/>
+      <c r="AQ80"/>
+      <c r="AR80"/>
+      <c r="AS80"/>
+      <c r="AT80"/>
+      <c r="AU80"/>
+      <c r="AV80"/>
+      <c r="AW80"/>
+      <c r="AX80"/>
+      <c r="AY80"/>
+      <c r="AZ80"/>
+      <c r="BA80"/>
+      <c r="BB80"/>
+      <c r="BC80"/>
+      <c r="BD80"/>
+      <c r="BE80"/>
+      <c r="BF80"/>
+      <c r="BG80"/>
+      <c r="BH80"/>
+      <c r="BI80"/>
+      <c r="BJ80"/>
+      <c r="BK80"/>
+      <c r="BL80"/>
+      <c r="BM80"/>
+      <c r="BN80"/>
+      <c r="BO80"/>
+      <c r="BP80"/>
+      <c r="BQ80"/>
+      <c r="BR80"/>
+      <c r="BS80"/>
+      <c r="BT80"/>
+      <c r="BU80"/>
+      <c r="BV80"/>
+      <c r="BW80"/>
+      <c r="BX80"/>
+      <c r="BY80"/>
+      <c r="BZ80"/>
+      <c r="CA80"/>
+      <c r="CB80"/>
+      <c r="CC80"/>
+      <c r="CD80"/>
+      <c r="CE80"/>
+      <c r="CF80"/>
+      <c r="CG80"/>
+      <c r="CH80"/>
+      <c r="CI80"/>
+      <c r="CJ80"/>
+      <c r="CK80"/>
+      <c r="CL80"/>
+      <c r="CM80"/>
+      <c r="CN80"/>
+      <c r="CO80"/>
+      <c r="CP80"/>
+      <c r="CQ80"/>
+      <c r="CR80"/>
+      <c r="CS80"/>
+      <c r="CT80"/>
+      <c r="CU80"/>
+      <c r="CV80"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>99</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81"/>
+      <c r="R81"/>
+      <c r="S81"/>
+      <c r="T81"/>
+      <c r="U81"/>
+      <c r="V81"/>
+      <c r="W81"/>
+      <c r="X81"/>
+      <c r="Y81"/>
+      <c r="Z81"/>
+      <c r="AA81"/>
+      <c r="AB81"/>
+      <c r="AC81"/>
+      <c r="AD81"/>
+      <c r="AE81"/>
+      <c r="AF81"/>
+      <c r="AG81"/>
+      <c r="AH81"/>
+      <c r="AI81"/>
+      <c r="AJ81"/>
+      <c r="AK81"/>
+      <c r="AL81"/>
+      <c r="AM81"/>
+      <c r="AN81"/>
+      <c r="AO81"/>
+      <c r="AP81"/>
+      <c r="AQ81"/>
+      <c r="AR81"/>
+      <c r="AS81"/>
+      <c r="AT81"/>
+      <c r="AU81"/>
+      <c r="AV81"/>
+      <c r="AW81"/>
+      <c r="AX81"/>
+      <c r="AY81"/>
+      <c r="AZ81"/>
+      <c r="BA81"/>
+      <c r="BB81"/>
+      <c r="BC81"/>
+      <c r="BD81"/>
+      <c r="BE81"/>
+      <c r="BF81"/>
+      <c r="BG81"/>
+      <c r="BH81"/>
+      <c r="BI81"/>
+      <c r="BJ81"/>
+      <c r="BK81"/>
+      <c r="BL81"/>
+      <c r="BM81"/>
+      <c r="BN81"/>
+      <c r="BO81"/>
+      <c r="BP81"/>
+      <c r="BQ81"/>
+      <c r="BR81"/>
+      <c r="BS81"/>
+      <c r="BT81"/>
+      <c r="BU81"/>
+      <c r="BV81"/>
+      <c r="BW81"/>
+      <c r="BX81"/>
+      <c r="BY81"/>
+      <c r="BZ81"/>
+      <c r="CA81"/>
+      <c r="CB81"/>
+      <c r="CC81"/>
+      <c r="CD81"/>
+      <c r="CE81"/>
+      <c r="CF81"/>
+      <c r="CG81"/>
+      <c r="CH81"/>
+      <c r="CI81"/>
+      <c r="CJ81"/>
+      <c r="CK81"/>
+      <c r="CL81"/>
+      <c r="CM81"/>
+      <c r="CN81"/>
+      <c r="CO81"/>
+      <c r="CP81"/>
+      <c r="CQ81"/>
+      <c r="CR81"/>
+      <c r="CS81"/>
+      <c r="CT81"/>
+      <c r="CU81"/>
+      <c r="CV81"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>100</v>
+      </c>
+      <c r="B82" t="s">
+        <v>101</v>
+      </c>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
+      <c r="Q82"/>
+      <c r="R82"/>
+      <c r="S82"/>
+      <c r="T82"/>
+      <c r="U82"/>
+      <c r="V82"/>
+      <c r="W82"/>
+      <c r="X82"/>
+      <c r="Y82"/>
+      <c r="Z82"/>
+      <c r="AA82"/>
+      <c r="AB82"/>
+      <c r="AC82"/>
+      <c r="AD82"/>
+      <c r="AE82"/>
+      <c r="AF82"/>
+      <c r="AG82"/>
+      <c r="AH82"/>
+      <c r="AI82"/>
+      <c r="AJ82"/>
+      <c r="AK82"/>
+      <c r="AL82"/>
+      <c r="AM82"/>
+      <c r="AN82"/>
+      <c r="AO82"/>
+      <c r="AP82"/>
+      <c r="AQ82"/>
+      <c r="AR82"/>
+      <c r="AS82"/>
+      <c r="AT82"/>
+      <c r="AU82"/>
+      <c r="AV82"/>
+      <c r="AW82"/>
+      <c r="AX82"/>
+      <c r="AY82"/>
+      <c r="AZ82"/>
+      <c r="BA82"/>
+      <c r="BB82"/>
+      <c r="BC82"/>
+      <c r="BD82"/>
+      <c r="BE82"/>
+      <c r="BF82"/>
+      <c r="BG82"/>
+      <c r="BH82"/>
+      <c r="BI82"/>
+      <c r="BJ82"/>
+      <c r="BK82"/>
+      <c r="BL82"/>
+      <c r="BM82"/>
+      <c r="BN82"/>
+      <c r="BO82"/>
+      <c r="BP82"/>
+      <c r="BQ82"/>
+      <c r="BR82"/>
+      <c r="BS82"/>
+      <c r="BT82"/>
+      <c r="BU82"/>
+      <c r="BV82"/>
+      <c r="BW82"/>
+      <c r="BX82"/>
+      <c r="BY82"/>
+      <c r="BZ82"/>
+      <c r="CA82"/>
+      <c r="CB82"/>
+      <c r="CC82"/>
+      <c r="CD82"/>
+      <c r="CE82"/>
+      <c r="CF82"/>
+      <c r="CG82"/>
+      <c r="CH82"/>
+      <c r="CI82"/>
+      <c r="CJ82"/>
+      <c r="CK82"/>
+      <c r="CL82"/>
+      <c r="CM82"/>
+      <c r="CN82"/>
+      <c r="CO82"/>
+      <c r="CP82"/>
+      <c r="CQ82"/>
+      <c r="CR82"/>
+      <c r="CS82"/>
+      <c r="CT82"/>
+      <c r="CU82"/>
+      <c r="CV82"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83"/>
+      <c r="Q83"/>
+      <c r="R83"/>
+      <c r="S83"/>
+      <c r="T83"/>
+      <c r="U83"/>
+      <c r="V83"/>
+      <c r="W83"/>
+      <c r="X83"/>
+      <c r="Y83"/>
+      <c r="Z83"/>
+      <c r="AA83"/>
+      <c r="AB83"/>
+      <c r="AC83"/>
+      <c r="AD83"/>
+      <c r="AE83"/>
+      <c r="AF83"/>
+      <c r="AG83"/>
+      <c r="AH83"/>
+      <c r="AI83"/>
+      <c r="AJ83"/>
+      <c r="AK83"/>
+      <c r="AL83"/>
+      <c r="AM83"/>
+      <c r="AN83"/>
+      <c r="AO83"/>
+      <c r="AP83"/>
+      <c r="AQ83"/>
+      <c r="AR83"/>
+      <c r="AS83"/>
+      <c r="AT83"/>
+      <c r="AU83"/>
+      <c r="AV83"/>
+      <c r="AW83"/>
+      <c r="AX83"/>
+      <c r="AY83"/>
+      <c r="AZ83"/>
+      <c r="BA83"/>
+      <c r="BB83"/>
+      <c r="BC83"/>
+      <c r="BD83"/>
+      <c r="BE83"/>
+      <c r="BF83"/>
+      <c r="BG83"/>
+      <c r="BH83"/>
+      <c r="BI83"/>
+      <c r="BJ83"/>
+      <c r="BK83"/>
+      <c r="BL83"/>
+      <c r="BM83"/>
+      <c r="BN83"/>
+      <c r="BO83"/>
+      <c r="BP83"/>
+      <c r="BQ83"/>
+      <c r="BR83"/>
+      <c r="BS83"/>
+      <c r="BT83"/>
+      <c r="BU83"/>
+      <c r="BV83"/>
+      <c r="BW83"/>
+      <c r="BX83"/>
+      <c r="BY83"/>
+      <c r="BZ83"/>
+      <c r="CA83"/>
+      <c r="CB83"/>
+      <c r="CC83"/>
+      <c r="CD83"/>
+      <c r="CE83"/>
+      <c r="CF83"/>
+      <c r="CG83"/>
+      <c r="CH83"/>
+      <c r="CI83"/>
+      <c r="CJ83"/>
+      <c r="CK83"/>
+      <c r="CL83"/>
+      <c r="CM83"/>
+      <c r="CN83"/>
+      <c r="CO83"/>
+      <c r="CP83"/>
+      <c r="CQ83"/>
+      <c r="CR83"/>
+      <c r="CS83"/>
+      <c r="CT83"/>
+      <c r="CU83"/>
+      <c r="CV83"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/db_tables/spaceshipResults.xlsx
+++ b/db_tables/spaceshipResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="109">
   <si>
     <t>Name</t>
   </si>
@@ -122,6 +122,12 @@
     <t>vg</t>
   </si>
   <si>
+    <t>AAAAA</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
     <t>sdf</t>
   </si>
   <si>
@@ -140,9 +146,15 @@
     <t>dsf</t>
   </si>
   <si>
+    <t>Player99</t>
+  </si>
+  <si>
     <t>aaa</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>jk</t>
   </si>
   <si>
@@ -170,15 +182,18 @@
     <t>neta p</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>fv</t>
   </si>
   <si>
     <t>sd</t>
   </si>
   <si>
+    <t>DefaultUser</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
     <t>szfd</t>
   </si>
   <si>
@@ -321,6 +336,9 @@
   </si>
   <si>
     <t>dc</t>
+  </si>
+  <si>
+    <t>EGro</t>
   </si>
 </sst>
 </file>
@@ -365,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:CV83"/>
+  <dimension ref="A1:CV87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3034,7 +3052,7 @@
         <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -3137,10 +3155,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -3243,7 +3261,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -3349,10 +3367,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -3458,7 +3476,7 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -3561,7 +3579,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -3667,10 +3685,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -3773,10 +3791,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -3879,10 +3897,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
@@ -3985,7 +4003,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -4091,10 +4109,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -4197,7 +4215,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -4303,10 +4321,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
@@ -4409,10 +4427,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="C40"/>
       <c r="D40"/>
@@ -4515,7 +4533,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -4621,10 +4639,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="C42"/>
       <c r="D42"/>
@@ -4727,7 +4745,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -4833,10 +4851,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="C44"/>
       <c r="D44"/>
@@ -4942,7 +4960,7 @@
         <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="C45"/>
       <c r="D45"/>
@@ -5045,10 +5063,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C46"/>
       <c r="D46"/>
@@ -5151,10 +5169,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C47"/>
       <c r="D47"/>
@@ -5257,10 +5275,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="C48"/>
       <c r="D48"/>
@@ -5363,10 +5381,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C49"/>
       <c r="D49"/>
@@ -5469,7 +5487,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -5575,10 +5593,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
@@ -5681,7 +5699,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -5787,10 +5805,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B53" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="C53"/>
       <c r="D53"/>
@@ -5893,10 +5911,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="C54"/>
       <c r="D54"/>
@@ -5999,10 +6017,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C55"/>
       <c r="D55"/>
@@ -6105,10 +6123,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B56" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C56"/>
       <c r="D56"/>
@@ -6211,10 +6229,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="C57"/>
       <c r="D57"/>
@@ -6317,10 +6335,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C58"/>
       <c r="D58"/>
@@ -6423,10 +6441,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C59"/>
       <c r="D59"/>
@@ -6529,10 +6547,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B60" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="C60"/>
       <c r="D60"/>
@@ -6635,10 +6653,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C61"/>
       <c r="D61"/>
@@ -6741,10 +6759,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="C62"/>
       <c r="D62"/>
@@ -6847,7 +6865,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
@@ -6953,10 +6971,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B64" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="C64"/>
       <c r="D64"/>
@@ -7059,10 +7077,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C65"/>
       <c r="D65"/>
@@ -7165,10 +7183,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C66"/>
       <c r="D66"/>
@@ -7271,10 +7289,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="C67"/>
       <c r="D67"/>
@@ -7377,10 +7395,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="C68"/>
       <c r="D68"/>
@@ -7483,10 +7501,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B69" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C69"/>
       <c r="D69"/>
@@ -7589,10 +7607,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B70" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C70"/>
       <c r="D70"/>
@@ -7695,10 +7713,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B71" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="C71"/>
       <c r="D71"/>
@@ -7801,7 +7819,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
@@ -7907,10 +7925,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B73" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C73"/>
       <c r="D73"/>
@@ -8013,10 +8031,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C74"/>
       <c r="D74"/>
@@ -8119,7 +8137,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
@@ -8225,10 +8243,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B76" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C76"/>
       <c r="D76"/>
@@ -8331,10 +8349,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C77"/>
       <c r="D77"/>
@@ -8437,10 +8455,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C78"/>
       <c r="D78"/>
@@ -8543,7 +8561,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
@@ -8649,10 +8667,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B80" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C80"/>
       <c r="D80"/>
@@ -8755,10 +8773,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B81" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C81"/>
       <c r="D81"/>
@@ -8861,10 +8879,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B82" t="s">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="C82"/>
       <c r="D82"/>
@@ -8967,10 +8985,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B83" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C83"/>
       <c r="D83"/>
@@ -9071,6 +9089,430 @@
       <c r="CU83"/>
       <c r="CV83"/>
     </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>104</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84"/>
+      <c r="Q84"/>
+      <c r="R84"/>
+      <c r="S84"/>
+      <c r="T84"/>
+      <c r="U84"/>
+      <c r="V84"/>
+      <c r="W84"/>
+      <c r="X84"/>
+      <c r="Y84"/>
+      <c r="Z84"/>
+      <c r="AA84"/>
+      <c r="AB84"/>
+      <c r="AC84"/>
+      <c r="AD84"/>
+      <c r="AE84"/>
+      <c r="AF84"/>
+      <c r="AG84"/>
+      <c r="AH84"/>
+      <c r="AI84"/>
+      <c r="AJ84"/>
+      <c r="AK84"/>
+      <c r="AL84"/>
+      <c r="AM84"/>
+      <c r="AN84"/>
+      <c r="AO84"/>
+      <c r="AP84"/>
+      <c r="AQ84"/>
+      <c r="AR84"/>
+      <c r="AS84"/>
+      <c r="AT84"/>
+      <c r="AU84"/>
+      <c r="AV84"/>
+      <c r="AW84"/>
+      <c r="AX84"/>
+      <c r="AY84"/>
+      <c r="AZ84"/>
+      <c r="BA84"/>
+      <c r="BB84"/>
+      <c r="BC84"/>
+      <c r="BD84"/>
+      <c r="BE84"/>
+      <c r="BF84"/>
+      <c r="BG84"/>
+      <c r="BH84"/>
+      <c r="BI84"/>
+      <c r="BJ84"/>
+      <c r="BK84"/>
+      <c r="BL84"/>
+      <c r="BM84"/>
+      <c r="BN84"/>
+      <c r="BO84"/>
+      <c r="BP84"/>
+      <c r="BQ84"/>
+      <c r="BR84"/>
+      <c r="BS84"/>
+      <c r="BT84"/>
+      <c r="BU84"/>
+      <c r="BV84"/>
+      <c r="BW84"/>
+      <c r="BX84"/>
+      <c r="BY84"/>
+      <c r="BZ84"/>
+      <c r="CA84"/>
+      <c r="CB84"/>
+      <c r="CC84"/>
+      <c r="CD84"/>
+      <c r="CE84"/>
+      <c r="CF84"/>
+      <c r="CG84"/>
+      <c r="CH84"/>
+      <c r="CI84"/>
+      <c r="CJ84"/>
+      <c r="CK84"/>
+      <c r="CL84"/>
+      <c r="CM84"/>
+      <c r="CN84"/>
+      <c r="CO84"/>
+      <c r="CP84"/>
+      <c r="CQ84"/>
+      <c r="CR84"/>
+      <c r="CS84"/>
+      <c r="CT84"/>
+      <c r="CU84"/>
+      <c r="CV84"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>105</v>
+      </c>
+      <c r="B85" t="s">
+        <v>106</v>
+      </c>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="P85"/>
+      <c r="Q85"/>
+      <c r="R85"/>
+      <c r="S85"/>
+      <c r="T85"/>
+      <c r="U85"/>
+      <c r="V85"/>
+      <c r="W85"/>
+      <c r="X85"/>
+      <c r="Y85"/>
+      <c r="Z85"/>
+      <c r="AA85"/>
+      <c r="AB85"/>
+      <c r="AC85"/>
+      <c r="AD85"/>
+      <c r="AE85"/>
+      <c r="AF85"/>
+      <c r="AG85"/>
+      <c r="AH85"/>
+      <c r="AI85"/>
+      <c r="AJ85"/>
+      <c r="AK85"/>
+      <c r="AL85"/>
+      <c r="AM85"/>
+      <c r="AN85"/>
+      <c r="AO85"/>
+      <c r="AP85"/>
+      <c r="AQ85"/>
+      <c r="AR85"/>
+      <c r="AS85"/>
+      <c r="AT85"/>
+      <c r="AU85"/>
+      <c r="AV85"/>
+      <c r="AW85"/>
+      <c r="AX85"/>
+      <c r="AY85"/>
+      <c r="AZ85"/>
+      <c r="BA85"/>
+      <c r="BB85"/>
+      <c r="BC85"/>
+      <c r="BD85"/>
+      <c r="BE85"/>
+      <c r="BF85"/>
+      <c r="BG85"/>
+      <c r="BH85"/>
+      <c r="BI85"/>
+      <c r="BJ85"/>
+      <c r="BK85"/>
+      <c r="BL85"/>
+      <c r="BM85"/>
+      <c r="BN85"/>
+      <c r="BO85"/>
+      <c r="BP85"/>
+      <c r="BQ85"/>
+      <c r="BR85"/>
+      <c r="BS85"/>
+      <c r="BT85"/>
+      <c r="BU85"/>
+      <c r="BV85"/>
+      <c r="BW85"/>
+      <c r="BX85"/>
+      <c r="BY85"/>
+      <c r="BZ85"/>
+      <c r="CA85"/>
+      <c r="CB85"/>
+      <c r="CC85"/>
+      <c r="CD85"/>
+      <c r="CE85"/>
+      <c r="CF85"/>
+      <c r="CG85"/>
+      <c r="CH85"/>
+      <c r="CI85"/>
+      <c r="CJ85"/>
+      <c r="CK85"/>
+      <c r="CL85"/>
+      <c r="CM85"/>
+      <c r="CN85"/>
+      <c r="CO85"/>
+      <c r="CP85"/>
+      <c r="CQ85"/>
+      <c r="CR85"/>
+      <c r="CS85"/>
+      <c r="CT85"/>
+      <c r="CU85"/>
+      <c r="CV85"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>107</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="P86"/>
+      <c r="Q86"/>
+      <c r="R86"/>
+      <c r="S86"/>
+      <c r="T86"/>
+      <c r="U86"/>
+      <c r="V86"/>
+      <c r="W86"/>
+      <c r="X86"/>
+      <c r="Y86"/>
+      <c r="Z86"/>
+      <c r="AA86"/>
+      <c r="AB86"/>
+      <c r="AC86"/>
+      <c r="AD86"/>
+      <c r="AE86"/>
+      <c r="AF86"/>
+      <c r="AG86"/>
+      <c r="AH86"/>
+      <c r="AI86"/>
+      <c r="AJ86"/>
+      <c r="AK86"/>
+      <c r="AL86"/>
+      <c r="AM86"/>
+      <c r="AN86"/>
+      <c r="AO86"/>
+      <c r="AP86"/>
+      <c r="AQ86"/>
+      <c r="AR86"/>
+      <c r="AS86"/>
+      <c r="AT86"/>
+      <c r="AU86"/>
+      <c r="AV86"/>
+      <c r="AW86"/>
+      <c r="AX86"/>
+      <c r="AY86"/>
+      <c r="AZ86"/>
+      <c r="BA86"/>
+      <c r="BB86"/>
+      <c r="BC86"/>
+      <c r="BD86"/>
+      <c r="BE86"/>
+      <c r="BF86"/>
+      <c r="BG86"/>
+      <c r="BH86"/>
+      <c r="BI86"/>
+      <c r="BJ86"/>
+      <c r="BK86"/>
+      <c r="BL86"/>
+      <c r="BM86"/>
+      <c r="BN86"/>
+      <c r="BO86"/>
+      <c r="BP86"/>
+      <c r="BQ86"/>
+      <c r="BR86"/>
+      <c r="BS86"/>
+      <c r="BT86"/>
+      <c r="BU86"/>
+      <c r="BV86"/>
+      <c r="BW86"/>
+      <c r="BX86"/>
+      <c r="BY86"/>
+      <c r="BZ86"/>
+      <c r="CA86"/>
+      <c r="CB86"/>
+      <c r="CC86"/>
+      <c r="CD86"/>
+      <c r="CE86"/>
+      <c r="CF86"/>
+      <c r="CG86"/>
+      <c r="CH86"/>
+      <c r="CI86"/>
+      <c r="CJ86"/>
+      <c r="CK86"/>
+      <c r="CL86"/>
+      <c r="CM86"/>
+      <c r="CN86"/>
+      <c r="CO86"/>
+      <c r="CP86"/>
+      <c r="CQ86"/>
+      <c r="CR86"/>
+      <c r="CS86"/>
+      <c r="CT86"/>
+      <c r="CU86"/>
+      <c r="CV86"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>108</v>
+      </c>
+      <c r="B87" t="s">
+        <v>67</v>
+      </c>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="M87"/>
+      <c r="N87"/>
+      <c r="O87"/>
+      <c r="P87"/>
+      <c r="Q87"/>
+      <c r="R87"/>
+      <c r="S87"/>
+      <c r="T87"/>
+      <c r="U87"/>
+      <c r="V87"/>
+      <c r="W87"/>
+      <c r="X87"/>
+      <c r="Y87"/>
+      <c r="Z87"/>
+      <c r="AA87"/>
+      <c r="AB87"/>
+      <c r="AC87"/>
+      <c r="AD87"/>
+      <c r="AE87"/>
+      <c r="AF87"/>
+      <c r="AG87"/>
+      <c r="AH87"/>
+      <c r="AI87"/>
+      <c r="AJ87"/>
+      <c r="AK87"/>
+      <c r="AL87"/>
+      <c r="AM87"/>
+      <c r="AN87"/>
+      <c r="AO87"/>
+      <c r="AP87"/>
+      <c r="AQ87"/>
+      <c r="AR87"/>
+      <c r="AS87"/>
+      <c r="AT87"/>
+      <c r="AU87"/>
+      <c r="AV87"/>
+      <c r="AW87"/>
+      <c r="AX87"/>
+      <c r="AY87"/>
+      <c r="AZ87"/>
+      <c r="BA87"/>
+      <c r="BB87"/>
+      <c r="BC87"/>
+      <c r="BD87"/>
+      <c r="BE87"/>
+      <c r="BF87"/>
+      <c r="BG87"/>
+      <c r="BH87"/>
+      <c r="BI87"/>
+      <c r="BJ87"/>
+      <c r="BK87"/>
+      <c r="BL87"/>
+      <c r="BM87"/>
+      <c r="BN87"/>
+      <c r="BO87"/>
+      <c r="BP87"/>
+      <c r="BQ87"/>
+      <c r="BR87"/>
+      <c r="BS87"/>
+      <c r="BT87"/>
+      <c r="BU87"/>
+      <c r="BV87"/>
+      <c r="BW87"/>
+      <c r="BX87"/>
+      <c r="BY87"/>
+      <c r="BZ87"/>
+      <c r="CA87"/>
+      <c r="CB87"/>
+      <c r="CC87"/>
+      <c r="CD87"/>
+      <c r="CE87"/>
+      <c r="CF87"/>
+      <c r="CG87"/>
+      <c r="CH87"/>
+      <c r="CI87"/>
+      <c r="CJ87"/>
+      <c r="CK87"/>
+      <c r="CL87"/>
+      <c r="CM87"/>
+      <c r="CN87"/>
+      <c r="CO87"/>
+      <c r="CP87"/>
+      <c r="CQ87"/>
+      <c r="CR87"/>
+      <c r="CS87"/>
+      <c r="CT87"/>
+      <c r="CU87"/>
+      <c r="CV87"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/db_tables/spaceshipResults.xlsx
+++ b/db_tables/spaceshipResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="111">
   <si>
     <t>Name</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>Player99</t>
+  </si>
+  <si>
+    <t>A1A2</t>
+  </si>
+  <si>
+    <t>48</t>
   </si>
   <si>
     <t>aaa</t>
@@ -383,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:CV87"/>
+  <dimension ref="A1:CV88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3900,7 +3906,7 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
@@ -4003,7 +4009,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -4109,10 +4115,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -4215,10 +4221,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
@@ -4321,10 +4327,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
@@ -4430,7 +4436,7 @@
         <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="C40"/>
       <c r="D40"/>
@@ -4533,7 +4539,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -4639,10 +4645,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="C42"/>
       <c r="D42"/>
@@ -4745,10 +4751,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="C43"/>
       <c r="D43"/>
@@ -4851,7 +4857,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -4957,10 +4963,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="C45"/>
       <c r="D45"/>
@@ -5066,7 +5072,7 @@
         <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C46"/>
       <c r="D46"/>
@@ -5169,10 +5175,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="C47"/>
       <c r="D47"/>
@@ -5278,7 +5284,7 @@
         <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="C48"/>
       <c r="D48"/>
@@ -5381,10 +5387,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C49"/>
       <c r="D49"/>
@@ -5487,10 +5493,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C50"/>
       <c r="D50"/>
@@ -5593,10 +5599,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
@@ -5702,7 +5708,7 @@
         <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="C52"/>
       <c r="D52"/>
@@ -5805,7 +5811,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
@@ -5911,10 +5917,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C54"/>
       <c r="D54"/>
@@ -6020,7 +6026,7 @@
         <v>72</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="C55"/>
       <c r="D55"/>
@@ -6123,10 +6129,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B56" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="C56"/>
       <c r="D56"/>
@@ -6229,10 +6235,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C57"/>
       <c r="D57"/>
@@ -6335,10 +6341,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B58" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C58"/>
       <c r="D58"/>
@@ -6441,10 +6447,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B59" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="C59"/>
       <c r="D59"/>
@@ -6550,7 +6556,7 @@
         <v>78</v>
       </c>
       <c r="B60" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="C60"/>
       <c r="D60"/>
@@ -6653,10 +6659,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C61"/>
       <c r="D61"/>
@@ -6759,10 +6765,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C62"/>
       <c r="D62"/>
@@ -6868,7 +6874,7 @@
         <v>82</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="C63"/>
       <c r="D63"/>
@@ -6971,7 +6977,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B64" t="s">
         <v>3</v>
@@ -7077,10 +7083,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C65"/>
       <c r="D65"/>
@@ -7183,10 +7189,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C66"/>
       <c r="D66"/>
@@ -7289,10 +7295,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B67" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="C67"/>
       <c r="D67"/>
@@ -7398,7 +7404,7 @@
         <v>88</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="C68"/>
       <c r="D68"/>
@@ -7501,7 +7507,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
@@ -7607,10 +7613,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B70" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C70"/>
       <c r="D70"/>
@@ -7713,10 +7719,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B71" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="C71"/>
       <c r="D71"/>
@@ -7819,10 +7825,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B72" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="C72"/>
       <c r="D72"/>
@@ -7925,7 +7931,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B73" t="s">
         <v>3</v>
@@ -8031,10 +8037,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B74" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="C74"/>
       <c r="D74"/>
@@ -8137,10 +8143,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="C75"/>
       <c r="D75"/>
@@ -8243,10 +8249,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B76" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C76"/>
       <c r="D76"/>
@@ -8349,10 +8355,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C77"/>
       <c r="D77"/>
@@ -8455,7 +8461,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
@@ -8561,7 +8567,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
@@ -8667,10 +8673,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B80" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C80"/>
       <c r="D80"/>
@@ -8773,10 +8779,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B81" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C81"/>
       <c r="D81"/>
@@ -8879,10 +8885,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B82" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C82"/>
       <c r="D82"/>
@@ -8985,10 +8991,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B83" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C83"/>
       <c r="D83"/>
@@ -9091,10 +9097,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B84" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C84"/>
       <c r="D84"/>
@@ -9197,10 +9203,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B85" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="C85"/>
       <c r="D85"/>
@@ -9306,7 +9312,7 @@
         <v>107</v>
       </c>
       <c r="B86" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="C86"/>
       <c r="D86"/>
@@ -9409,10 +9415,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="C87"/>
       <c r="D87"/>
@@ -9513,6 +9519,112 @@
       <c r="CU87"/>
       <c r="CV87"/>
     </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>110</v>
+      </c>
+      <c r="B88" t="s">
+        <v>69</v>
+      </c>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88"/>
+      <c r="M88"/>
+      <c r="N88"/>
+      <c r="O88"/>
+      <c r="P88"/>
+      <c r="Q88"/>
+      <c r="R88"/>
+      <c r="S88"/>
+      <c r="T88"/>
+      <c r="U88"/>
+      <c r="V88"/>
+      <c r="W88"/>
+      <c r="X88"/>
+      <c r="Y88"/>
+      <c r="Z88"/>
+      <c r="AA88"/>
+      <c r="AB88"/>
+      <c r="AC88"/>
+      <c r="AD88"/>
+      <c r="AE88"/>
+      <c r="AF88"/>
+      <c r="AG88"/>
+      <c r="AH88"/>
+      <c r="AI88"/>
+      <c r="AJ88"/>
+      <c r="AK88"/>
+      <c r="AL88"/>
+      <c r="AM88"/>
+      <c r="AN88"/>
+      <c r="AO88"/>
+      <c r="AP88"/>
+      <c r="AQ88"/>
+      <c r="AR88"/>
+      <c r="AS88"/>
+      <c r="AT88"/>
+      <c r="AU88"/>
+      <c r="AV88"/>
+      <c r="AW88"/>
+      <c r="AX88"/>
+      <c r="AY88"/>
+      <c r="AZ88"/>
+      <c r="BA88"/>
+      <c r="BB88"/>
+      <c r="BC88"/>
+      <c r="BD88"/>
+      <c r="BE88"/>
+      <c r="BF88"/>
+      <c r="BG88"/>
+      <c r="BH88"/>
+      <c r="BI88"/>
+      <c r="BJ88"/>
+      <c r="BK88"/>
+      <c r="BL88"/>
+      <c r="BM88"/>
+      <c r="BN88"/>
+      <c r="BO88"/>
+      <c r="BP88"/>
+      <c r="BQ88"/>
+      <c r="BR88"/>
+      <c r="BS88"/>
+      <c r="BT88"/>
+      <c r="BU88"/>
+      <c r="BV88"/>
+      <c r="BW88"/>
+      <c r="BX88"/>
+      <c r="BY88"/>
+      <c r="BZ88"/>
+      <c r="CA88"/>
+      <c r="CB88"/>
+      <c r="CC88"/>
+      <c r="CD88"/>
+      <c r="CE88"/>
+      <c r="CF88"/>
+      <c r="CG88"/>
+      <c r="CH88"/>
+      <c r="CI88"/>
+      <c r="CJ88"/>
+      <c r="CK88"/>
+      <c r="CL88"/>
+      <c r="CM88"/>
+      <c r="CN88"/>
+      <c r="CO88"/>
+      <c r="CP88"/>
+      <c r="CQ88"/>
+      <c r="CR88"/>
+      <c r="CS88"/>
+      <c r="CT88"/>
+      <c r="CU88"/>
+      <c r="CV88"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/db_tables/spaceshipResults.xlsx
+++ b/db_tables/spaceshipResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="113">
   <si>
     <t>Name</t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>qwerty</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
   <si>
     <t xml:space="preserve"> \c\\</t>
@@ -389,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:CV88"/>
+  <dimension ref="A1:CV89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -832,7 +838,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -935,10 +941,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -1041,10 +1047,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -1256,7 +1262,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -1359,7 +1365,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1465,10 +1471,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -1574,7 +1580,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -1677,10 +1683,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -1786,7 +1792,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -1889,7 +1895,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1995,10 +2001,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -2104,7 +2110,7 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -2207,10 +2213,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -2313,10 +2319,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -2419,10 +2425,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -2525,10 +2531,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -2631,10 +2637,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -2737,7 +2743,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
@@ -2843,10 +2849,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -2949,10 +2955,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -3055,10 +3061,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -3164,7 +3170,7 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -3267,10 +3273,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -3373,7 +3379,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -3479,10 +3485,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -3588,7 +3594,7 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -3691,10 +3697,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -3797,10 +3803,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -4012,7 +4018,7 @@
         <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -4115,7 +4121,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -4221,10 +4227,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
@@ -4327,10 +4333,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
@@ -4433,10 +4439,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="C40"/>
       <c r="D40"/>
@@ -4542,7 +4548,7 @@
         <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="C41"/>
       <c r="D41"/>
@@ -4645,7 +4651,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -4751,10 +4757,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="C43"/>
       <c r="D43"/>
@@ -4857,10 +4863,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C44"/>
       <c r="D44"/>
@@ -4963,7 +4969,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -5069,10 +5075,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="C46"/>
       <c r="D46"/>
@@ -5178,7 +5184,7 @@
         <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="C47"/>
       <c r="D47"/>
@@ -5281,10 +5287,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="C48"/>
       <c r="D48"/>
@@ -5390,7 +5396,7 @@
         <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="C49"/>
       <c r="D49"/>
@@ -5493,10 +5499,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C50"/>
       <c r="D50"/>
@@ -5599,10 +5605,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
@@ -5705,10 +5711,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="C52"/>
       <c r="D52"/>
@@ -5814,7 +5820,7 @@
         <v>70</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="C53"/>
       <c r="D53"/>
@@ -5917,7 +5923,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
@@ -6023,10 +6029,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="C55"/>
       <c r="D55"/>
@@ -6132,7 +6138,7 @@
         <v>74</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="C56"/>
       <c r="D56"/>
@@ -6235,10 +6241,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B57" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="C57"/>
       <c r="D57"/>
@@ -6341,10 +6347,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="C58"/>
       <c r="D58"/>
@@ -6447,10 +6453,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C59"/>
       <c r="D59"/>
@@ -6553,10 +6559,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B60" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="C60"/>
       <c r="D60"/>
@@ -6662,7 +6668,7 @@
         <v>80</v>
       </c>
       <c r="B61" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="C61"/>
       <c r="D61"/>
@@ -6765,10 +6771,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C62"/>
       <c r="D62"/>
@@ -6871,10 +6877,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B63" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C63"/>
       <c r="D63"/>
@@ -6980,7 +6986,7 @@
         <v>84</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="C64"/>
       <c r="D64"/>
@@ -7083,7 +7089,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
@@ -7189,10 +7195,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C66"/>
       <c r="D66"/>
@@ -7295,10 +7301,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C67"/>
       <c r="D67"/>
@@ -7401,10 +7407,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B68" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="C68"/>
       <c r="D68"/>
@@ -7510,7 +7516,7 @@
         <v>90</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="C69"/>
       <c r="D69"/>
@@ -7613,7 +7619,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
@@ -7719,10 +7725,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C71"/>
       <c r="D71"/>
@@ -7825,10 +7831,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="C72"/>
       <c r="D72"/>
@@ -7931,10 +7937,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="C73"/>
       <c r="D73"/>
@@ -8037,7 +8043,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
@@ -8143,10 +8149,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="C75"/>
       <c r="D75"/>
@@ -8249,10 +8255,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="C76"/>
       <c r="D76"/>
@@ -8355,10 +8361,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B77" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C77"/>
       <c r="D77"/>
@@ -8461,10 +8467,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C78"/>
       <c r="D78"/>
@@ -8567,7 +8573,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
@@ -8673,7 +8679,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B80" t="s">
         <v>3</v>
@@ -8779,10 +8785,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C81"/>
       <c r="D81"/>
@@ -8885,10 +8891,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B82" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C82"/>
       <c r="D82"/>
@@ -8991,10 +8997,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C83"/>
       <c r="D83"/>
@@ -9097,10 +9103,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C84"/>
       <c r="D84"/>
@@ -9203,10 +9209,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C85"/>
       <c r="D85"/>
@@ -9309,10 +9315,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86" t="s">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="C86"/>
       <c r="D86"/>
@@ -9418,7 +9424,7 @@
         <v>109</v>
       </c>
       <c r="B87" t="s">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="C87"/>
       <c r="D87"/>
@@ -9521,10 +9527,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B88" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="C88"/>
       <c r="D88"/>
@@ -9625,6 +9631,112 @@
       <c r="CU88"/>
       <c r="CV88"/>
     </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>112</v>
+      </c>
+      <c r="B89" t="s">
+        <v>71</v>
+      </c>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="L89"/>
+      <c r="M89"/>
+      <c r="N89"/>
+      <c r="O89"/>
+      <c r="P89"/>
+      <c r="Q89"/>
+      <c r="R89"/>
+      <c r="S89"/>
+      <c r="T89"/>
+      <c r="U89"/>
+      <c r="V89"/>
+      <c r="W89"/>
+      <c r="X89"/>
+      <c r="Y89"/>
+      <c r="Z89"/>
+      <c r="AA89"/>
+      <c r="AB89"/>
+      <c r="AC89"/>
+      <c r="AD89"/>
+      <c r="AE89"/>
+      <c r="AF89"/>
+      <c r="AG89"/>
+      <c r="AH89"/>
+      <c r="AI89"/>
+      <c r="AJ89"/>
+      <c r="AK89"/>
+      <c r="AL89"/>
+      <c r="AM89"/>
+      <c r="AN89"/>
+      <c r="AO89"/>
+      <c r="AP89"/>
+      <c r="AQ89"/>
+      <c r="AR89"/>
+      <c r="AS89"/>
+      <c r="AT89"/>
+      <c r="AU89"/>
+      <c r="AV89"/>
+      <c r="AW89"/>
+      <c r="AX89"/>
+      <c r="AY89"/>
+      <c r="AZ89"/>
+      <c r="BA89"/>
+      <c r="BB89"/>
+      <c r="BC89"/>
+      <c r="BD89"/>
+      <c r="BE89"/>
+      <c r="BF89"/>
+      <c r="BG89"/>
+      <c r="BH89"/>
+      <c r="BI89"/>
+      <c r="BJ89"/>
+      <c r="BK89"/>
+      <c r="BL89"/>
+      <c r="BM89"/>
+      <c r="BN89"/>
+      <c r="BO89"/>
+      <c r="BP89"/>
+      <c r="BQ89"/>
+      <c r="BR89"/>
+      <c r="BS89"/>
+      <c r="BT89"/>
+      <c r="BU89"/>
+      <c r="BV89"/>
+      <c r="BW89"/>
+      <c r="BX89"/>
+      <c r="BY89"/>
+      <c r="BZ89"/>
+      <c r="CA89"/>
+      <c r="CB89"/>
+      <c r="CC89"/>
+      <c r="CD89"/>
+      <c r="CE89"/>
+      <c r="CF89"/>
+      <c r="CG89"/>
+      <c r="CH89"/>
+      <c r="CI89"/>
+      <c r="CJ89"/>
+      <c r="CK89"/>
+      <c r="CL89"/>
+      <c r="CM89"/>
+      <c r="CN89"/>
+      <c r="CO89"/>
+      <c r="CP89"/>
+      <c r="CQ89"/>
+      <c r="CR89"/>
+      <c r="CS89"/>
+      <c r="CT89"/>
+      <c r="CU89"/>
+      <c r="CV89"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/db_tables/spaceshipResults.xlsx
+++ b/db_tables/spaceshipResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="115">
   <si>
     <t>Name</t>
   </si>
@@ -203,7 +203,7 @@
     <t>DefaultUser</t>
   </si>
   <si>
-    <t>53</t>
+    <t>1522037</t>
   </si>
   <si>
     <t>szfd</t>
@@ -324,6 +324,12 @@
   </si>
   <si>
     <t>דגכדג</t>
+  </si>
+  <si>
+    <t>ppp1</t>
+  </si>
+  <si>
+    <t>34</t>
   </si>
   <si>
     <t>v</t>
@@ -395,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:CV89"/>
+  <dimension ref="A1:CV90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -8894,113 +8900,15 @@
         <v>104</v>
       </c>
       <c r="B82" t="s">
-        <v>21</v>
-      </c>
-      <c r="C82"/>
-      <c r="D82"/>
-      <c r="E82"/>
-      <c r="F82"/>
-      <c r="G82"/>
-      <c r="H82"/>
-      <c r="I82"/>
-      <c r="J82"/>
-      <c r="K82"/>
-      <c r="L82"/>
-      <c r="M82"/>
-      <c r="N82"/>
-      <c r="O82"/>
-      <c r="P82"/>
-      <c r="Q82"/>
-      <c r="R82"/>
-      <c r="S82"/>
-      <c r="T82"/>
-      <c r="U82"/>
-      <c r="V82"/>
-      <c r="W82"/>
-      <c r="X82"/>
-      <c r="Y82"/>
-      <c r="Z82"/>
-      <c r="AA82"/>
-      <c r="AB82"/>
-      <c r="AC82"/>
-      <c r="AD82"/>
-      <c r="AE82"/>
-      <c r="AF82"/>
-      <c r="AG82"/>
-      <c r="AH82"/>
-      <c r="AI82"/>
-      <c r="AJ82"/>
-      <c r="AK82"/>
-      <c r="AL82"/>
-      <c r="AM82"/>
-      <c r="AN82"/>
-      <c r="AO82"/>
-      <c r="AP82"/>
-      <c r="AQ82"/>
-      <c r="AR82"/>
-      <c r="AS82"/>
-      <c r="AT82"/>
-      <c r="AU82"/>
-      <c r="AV82"/>
-      <c r="AW82"/>
-      <c r="AX82"/>
-      <c r="AY82"/>
-      <c r="AZ82"/>
-      <c r="BA82"/>
-      <c r="BB82"/>
-      <c r="BC82"/>
-      <c r="BD82"/>
-      <c r="BE82"/>
-      <c r="BF82"/>
-      <c r="BG82"/>
-      <c r="BH82"/>
-      <c r="BI82"/>
-      <c r="BJ82"/>
-      <c r="BK82"/>
-      <c r="BL82"/>
-      <c r="BM82"/>
-      <c r="BN82"/>
-      <c r="BO82"/>
-      <c r="BP82"/>
-      <c r="BQ82"/>
-      <c r="BR82"/>
-      <c r="BS82"/>
-      <c r="BT82"/>
-      <c r="BU82"/>
-      <c r="BV82"/>
-      <c r="BW82"/>
-      <c r="BX82"/>
-      <c r="BY82"/>
-      <c r="BZ82"/>
-      <c r="CA82"/>
-      <c r="CB82"/>
-      <c r="CC82"/>
-      <c r="CD82"/>
-      <c r="CE82"/>
-      <c r="CF82"/>
-      <c r="CG82"/>
-      <c r="CH82"/>
-      <c r="CI82"/>
-      <c r="CJ82"/>
-      <c r="CK82"/>
-      <c r="CL82"/>
-      <c r="CM82"/>
-      <c r="CN82"/>
-      <c r="CO82"/>
-      <c r="CP82"/>
-      <c r="CQ82"/>
-      <c r="CR82"/>
-      <c r="CS82"/>
-      <c r="CT82"/>
-      <c r="CU82"/>
-      <c r="CV82"/>
+        <v>105</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B83" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C83"/>
       <c r="D83"/>
@@ -9103,10 +9011,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B84" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C84"/>
       <c r="D84"/>
@@ -9209,10 +9117,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B85" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C85"/>
       <c r="D85"/>
@@ -9315,10 +9223,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B86" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C86"/>
       <c r="D86"/>
@@ -9421,10 +9329,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B87" t="s">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="C87"/>
       <c r="D87"/>
@@ -9530,7 +9438,7 @@
         <v>111</v>
       </c>
       <c r="B88" t="s">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="C88"/>
       <c r="D88"/>
@@ -9633,10 +9541,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B89" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C89"/>
       <c r="D89"/>
@@ -9737,6 +9645,112 @@
       <c r="CU89"/>
       <c r="CV89"/>
     </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>114</v>
+      </c>
+      <c r="B90" t="s">
+        <v>71</v>
+      </c>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+      <c r="O90"/>
+      <c r="P90"/>
+      <c r="Q90"/>
+      <c r="R90"/>
+      <c r="S90"/>
+      <c r="T90"/>
+      <c r="U90"/>
+      <c r="V90"/>
+      <c r="W90"/>
+      <c r="X90"/>
+      <c r="Y90"/>
+      <c r="Z90"/>
+      <c r="AA90"/>
+      <c r="AB90"/>
+      <c r="AC90"/>
+      <c r="AD90"/>
+      <c r="AE90"/>
+      <c r="AF90"/>
+      <c r="AG90"/>
+      <c r="AH90"/>
+      <c r="AI90"/>
+      <c r="AJ90"/>
+      <c r="AK90"/>
+      <c r="AL90"/>
+      <c r="AM90"/>
+      <c r="AN90"/>
+      <c r="AO90"/>
+      <c r="AP90"/>
+      <c r="AQ90"/>
+      <c r="AR90"/>
+      <c r="AS90"/>
+      <c r="AT90"/>
+      <c r="AU90"/>
+      <c r="AV90"/>
+      <c r="AW90"/>
+      <c r="AX90"/>
+      <c r="AY90"/>
+      <c r="AZ90"/>
+      <c r="BA90"/>
+      <c r="BB90"/>
+      <c r="BC90"/>
+      <c r="BD90"/>
+      <c r="BE90"/>
+      <c r="BF90"/>
+      <c r="BG90"/>
+      <c r="BH90"/>
+      <c r="BI90"/>
+      <c r="BJ90"/>
+      <c r="BK90"/>
+      <c r="BL90"/>
+      <c r="BM90"/>
+      <c r="BN90"/>
+      <c r="BO90"/>
+      <c r="BP90"/>
+      <c r="BQ90"/>
+      <c r="BR90"/>
+      <c r="BS90"/>
+      <c r="BT90"/>
+      <c r="BU90"/>
+      <c r="BV90"/>
+      <c r="BW90"/>
+      <c r="BX90"/>
+      <c r="BY90"/>
+      <c r="BZ90"/>
+      <c r="CA90"/>
+      <c r="CB90"/>
+      <c r="CC90"/>
+      <c r="CD90"/>
+      <c r="CE90"/>
+      <c r="CF90"/>
+      <c r="CG90"/>
+      <c r="CH90"/>
+      <c r="CI90"/>
+      <c r="CJ90"/>
+      <c r="CK90"/>
+      <c r="CL90"/>
+      <c r="CM90"/>
+      <c r="CN90"/>
+      <c r="CO90"/>
+      <c r="CP90"/>
+      <c r="CQ90"/>
+      <c r="CR90"/>
+      <c r="CS90"/>
+      <c r="CT90"/>
+      <c r="CU90"/>
+      <c r="CV90"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/db_tables/spaceshipResults.xlsx
+++ b/db_tables/spaceshipResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="116">
   <si>
     <t>Name</t>
   </si>
@@ -203,7 +203,7 @@
     <t>DefaultUser</t>
   </si>
   <si>
-    <t>1522037</t>
+    <t>58</t>
   </si>
   <si>
     <t>szfd</t>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>110</t>
+  </si>
+  <si>
+    <t>UserName</t>
   </si>
   <si>
     <t>d</t>
@@ -401,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:CV90"/>
+  <dimension ref="A1:CV91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6780,7 +6783,7 @@
         <v>82</v>
       </c>
       <c r="B62" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C62"/>
       <c r="D62"/>
@@ -6886,7 +6889,7 @@
         <v>83</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C63"/>
       <c r="D63"/>
@@ -6992,7 +6995,7 @@
         <v>84</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C64"/>
       <c r="D64"/>
@@ -7095,10 +7098,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65" t="s">
         <v>86</v>
-      </c>
-      <c r="B65" t="s">
-        <v>3</v>
       </c>
       <c r="C65"/>
       <c r="D65"/>
@@ -7310,7 +7313,7 @@
         <v>88</v>
       </c>
       <c r="B67" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C67"/>
       <c r="D67"/>
@@ -7416,7 +7419,7 @@
         <v>89</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C68"/>
       <c r="D68"/>
@@ -7522,7 +7525,7 @@
         <v>90</v>
       </c>
       <c r="B69" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="C69"/>
       <c r="D69"/>
@@ -7625,10 +7628,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70" t="s">
         <v>92</v>
-      </c>
-      <c r="B70" t="s">
-        <v>5</v>
       </c>
       <c r="C70"/>
       <c r="D70"/>
@@ -7840,7 +7843,7 @@
         <v>94</v>
       </c>
       <c r="B72" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C72"/>
       <c r="D72"/>
@@ -7946,7 +7949,7 @@
         <v>95</v>
       </c>
       <c r="B73" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="C73"/>
       <c r="D73"/>
@@ -8052,7 +8055,7 @@
         <v>96</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="C74"/>
       <c r="D74"/>
@@ -8264,7 +8267,7 @@
         <v>98</v>
       </c>
       <c r="B76" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="C76"/>
       <c r="D76"/>
@@ -8370,7 +8373,7 @@
         <v>99</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="C77"/>
       <c r="D77"/>
@@ -8476,7 +8479,7 @@
         <v>100</v>
       </c>
       <c r="B78" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C78"/>
       <c r="D78"/>
@@ -8582,7 +8585,7 @@
         <v>101</v>
       </c>
       <c r="B79" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C79"/>
       <c r="D79"/>
@@ -8900,15 +8903,113 @@
         <v>104</v>
       </c>
       <c r="B82" t="s">
-        <v>105</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
+      <c r="Q82"/>
+      <c r="R82"/>
+      <c r="S82"/>
+      <c r="T82"/>
+      <c r="U82"/>
+      <c r="V82"/>
+      <c r="W82"/>
+      <c r="X82"/>
+      <c r="Y82"/>
+      <c r="Z82"/>
+      <c r="AA82"/>
+      <c r="AB82"/>
+      <c r="AC82"/>
+      <c r="AD82"/>
+      <c r="AE82"/>
+      <c r="AF82"/>
+      <c r="AG82"/>
+      <c r="AH82"/>
+      <c r="AI82"/>
+      <c r="AJ82"/>
+      <c r="AK82"/>
+      <c r="AL82"/>
+      <c r="AM82"/>
+      <c r="AN82"/>
+      <c r="AO82"/>
+      <c r="AP82"/>
+      <c r="AQ82"/>
+      <c r="AR82"/>
+      <c r="AS82"/>
+      <c r="AT82"/>
+      <c r="AU82"/>
+      <c r="AV82"/>
+      <c r="AW82"/>
+      <c r="AX82"/>
+      <c r="AY82"/>
+      <c r="AZ82"/>
+      <c r="BA82"/>
+      <c r="BB82"/>
+      <c r="BC82"/>
+      <c r="BD82"/>
+      <c r="BE82"/>
+      <c r="BF82"/>
+      <c r="BG82"/>
+      <c r="BH82"/>
+      <c r="BI82"/>
+      <c r="BJ82"/>
+      <c r="BK82"/>
+      <c r="BL82"/>
+      <c r="BM82"/>
+      <c r="BN82"/>
+      <c r="BO82"/>
+      <c r="BP82"/>
+      <c r="BQ82"/>
+      <c r="BR82"/>
+      <c r="BS82"/>
+      <c r="BT82"/>
+      <c r="BU82"/>
+      <c r="BV82"/>
+      <c r="BW82"/>
+      <c r="BX82"/>
+      <c r="BY82"/>
+      <c r="BZ82"/>
+      <c r="CA82"/>
+      <c r="CB82"/>
+      <c r="CC82"/>
+      <c r="CD82"/>
+      <c r="CE82"/>
+      <c r="CF82"/>
+      <c r="CG82"/>
+      <c r="CH82"/>
+      <c r="CI82"/>
+      <c r="CJ82"/>
+      <c r="CK82"/>
+      <c r="CL82"/>
+      <c r="CM82"/>
+      <c r="CN82"/>
+      <c r="CO82"/>
+      <c r="CP82"/>
+      <c r="CQ82"/>
+      <c r="CR82"/>
+      <c r="CS82"/>
+      <c r="CT82"/>
+      <c r="CU82"/>
+      <c r="CV82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>105</v>
+      </c>
+      <c r="B83" t="s">
         <v>106</v>
-      </c>
-      <c r="B83" t="s">
-        <v>21</v>
       </c>
       <c r="C83"/>
       <c r="D83"/>
@@ -9014,7 +9115,7 @@
         <v>107</v>
       </c>
       <c r="B84" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C84"/>
       <c r="D84"/>
@@ -9120,7 +9221,7 @@
         <v>108</v>
       </c>
       <c r="B85" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C85"/>
       <c r="D85"/>
@@ -9226,7 +9327,7 @@
         <v>109</v>
       </c>
       <c r="B86" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C86"/>
       <c r="D86"/>
@@ -9332,7 +9433,7 @@
         <v>110</v>
       </c>
       <c r="B87" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C87"/>
       <c r="D87"/>
@@ -9438,7 +9539,7 @@
         <v>111</v>
       </c>
       <c r="B88" t="s">
-        <v>112</v>
+        <v>3</v>
       </c>
       <c r="C88"/>
       <c r="D88"/>
@@ -9541,10 +9642,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>112</v>
+      </c>
+      <c r="B89" t="s">
         <v>113</v>
-      </c>
-      <c r="B89" t="s">
-        <v>3</v>
       </c>
       <c r="C89"/>
       <c r="D89"/>
@@ -9650,7 +9751,7 @@
         <v>114</v>
       </c>
       <c r="B90" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C90"/>
       <c r="D90"/>
@@ -9751,6 +9852,112 @@
       <c r="CU90"/>
       <c r="CV90"/>
     </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>115</v>
+      </c>
+      <c r="B91" t="s">
+        <v>71</v>
+      </c>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="L91"/>
+      <c r="M91"/>
+      <c r="N91"/>
+      <c r="O91"/>
+      <c r="P91"/>
+      <c r="Q91"/>
+      <c r="R91"/>
+      <c r="S91"/>
+      <c r="T91"/>
+      <c r="U91"/>
+      <c r="V91"/>
+      <c r="W91"/>
+      <c r="X91"/>
+      <c r="Y91"/>
+      <c r="Z91"/>
+      <c r="AA91"/>
+      <c r="AB91"/>
+      <c r="AC91"/>
+      <c r="AD91"/>
+      <c r="AE91"/>
+      <c r="AF91"/>
+      <c r="AG91"/>
+      <c r="AH91"/>
+      <c r="AI91"/>
+      <c r="AJ91"/>
+      <c r="AK91"/>
+      <c r="AL91"/>
+      <c r="AM91"/>
+      <c r="AN91"/>
+      <c r="AO91"/>
+      <c r="AP91"/>
+      <c r="AQ91"/>
+      <c r="AR91"/>
+      <c r="AS91"/>
+      <c r="AT91"/>
+      <c r="AU91"/>
+      <c r="AV91"/>
+      <c r="AW91"/>
+      <c r="AX91"/>
+      <c r="AY91"/>
+      <c r="AZ91"/>
+      <c r="BA91"/>
+      <c r="BB91"/>
+      <c r="BC91"/>
+      <c r="BD91"/>
+      <c r="BE91"/>
+      <c r="BF91"/>
+      <c r="BG91"/>
+      <c r="BH91"/>
+      <c r="BI91"/>
+      <c r="BJ91"/>
+      <c r="BK91"/>
+      <c r="BL91"/>
+      <c r="BM91"/>
+      <c r="BN91"/>
+      <c r="BO91"/>
+      <c r="BP91"/>
+      <c r="BQ91"/>
+      <c r="BR91"/>
+      <c r="BS91"/>
+      <c r="BT91"/>
+      <c r="BU91"/>
+      <c r="BV91"/>
+      <c r="BW91"/>
+      <c r="BX91"/>
+      <c r="BY91"/>
+      <c r="BZ91"/>
+      <c r="CA91"/>
+      <c r="CB91"/>
+      <c r="CC91"/>
+      <c r="CD91"/>
+      <c r="CE91"/>
+      <c r="CF91"/>
+      <c r="CG91"/>
+      <c r="CH91"/>
+      <c r="CI91"/>
+      <c r="CJ91"/>
+      <c r="CK91"/>
+      <c r="CL91"/>
+      <c r="CM91"/>
+      <c r="CN91"/>
+      <c r="CO91"/>
+      <c r="CP91"/>
+      <c r="CQ91"/>
+      <c r="CR91"/>
+      <c r="CS91"/>
+      <c r="CT91"/>
+      <c r="CU91"/>
+      <c r="CV91"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/db_tables/spaceshipResults.xlsx
+++ b/db_tables/spaceshipResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="118">
   <si>
     <t>Name</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>ששש</t>
+  </si>
+  <si>
+    <t>Egro</t>
+  </si>
+  <si>
+    <t>45</t>
   </si>
   <si>
     <t>user1</t>
@@ -404,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:CV91"/>
+  <dimension ref="A1:CV92"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6253,7 +6259,7 @@
         <v>76</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="C57"/>
       <c r="D57"/>
@@ -6356,10 +6362,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B58" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C58"/>
       <c r="D58"/>
@@ -6462,10 +6468,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="C59"/>
       <c r="D59"/>
@@ -6568,10 +6574,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B60" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C60"/>
       <c r="D60"/>
@@ -6674,10 +6680,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B61" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="C61"/>
       <c r="D61"/>
@@ -6783,7 +6789,7 @@
         <v>82</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="C62"/>
       <c r="D62"/>
@@ -6886,10 +6892,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B63" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C63"/>
       <c r="D63"/>
@@ -6992,10 +6998,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C64"/>
       <c r="D64"/>
@@ -7098,10 +7104,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B65" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C65"/>
       <c r="D65"/>
@@ -7207,7 +7213,7 @@
         <v>87</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="C66"/>
       <c r="D66"/>
@@ -7310,7 +7316,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
@@ -7416,10 +7422,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C68"/>
       <c r="D68"/>
@@ -7522,10 +7528,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C69"/>
       <c r="D69"/>
@@ -7628,10 +7634,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70" t="s">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="C70"/>
       <c r="D70"/>
@@ -7737,7 +7743,7 @@
         <v>93</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="C71"/>
       <c r="D71"/>
@@ -7840,7 +7846,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B72" t="s">
         <v>5</v>
@@ -7946,10 +7952,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B73" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C73"/>
       <c r="D73"/>
@@ -8052,10 +8058,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B74" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="C74"/>
       <c r="D74"/>
@@ -8158,10 +8164,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="C75"/>
       <c r="D75"/>
@@ -8264,7 +8270,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
@@ -8370,10 +8376,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B77" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="C77"/>
       <c r="D77"/>
@@ -8476,10 +8482,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="C78"/>
       <c r="D78"/>
@@ -8582,10 +8588,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B79" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C79"/>
       <c r="D79"/>
@@ -8688,10 +8694,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B80" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C80"/>
       <c r="D80"/>
@@ -8794,7 +8800,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
@@ -8900,7 +8906,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
@@ -9006,10 +9012,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B83" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="C83"/>
       <c r="D83"/>
@@ -9115,7 +9121,7 @@
         <v>107</v>
       </c>
       <c r="B84" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="C84"/>
       <c r="D84"/>
@@ -9218,10 +9224,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B85" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C85"/>
       <c r="D85"/>
@@ -9324,10 +9330,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B86" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C86"/>
       <c r="D86"/>
@@ -9430,10 +9436,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B87" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C87"/>
       <c r="D87"/>
@@ -9536,10 +9542,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B88" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C88"/>
       <c r="D88"/>
@@ -9642,10 +9648,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B89" t="s">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="C89"/>
       <c r="D89"/>
@@ -9751,7 +9757,7 @@
         <v>114</v>
       </c>
       <c r="B90" t="s">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="C90"/>
       <c r="D90"/>
@@ -9854,10 +9860,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B91" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C91"/>
       <c r="D91"/>
@@ -9958,6 +9964,112 @@
       <c r="CU91"/>
       <c r="CV91"/>
     </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>117</v>
+      </c>
+      <c r="B92" t="s">
+        <v>71</v>
+      </c>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92"/>
+      <c r="L92"/>
+      <c r="M92"/>
+      <c r="N92"/>
+      <c r="O92"/>
+      <c r="P92"/>
+      <c r="Q92"/>
+      <c r="R92"/>
+      <c r="S92"/>
+      <c r="T92"/>
+      <c r="U92"/>
+      <c r="V92"/>
+      <c r="W92"/>
+      <c r="X92"/>
+      <c r="Y92"/>
+      <c r="Z92"/>
+      <c r="AA92"/>
+      <c r="AB92"/>
+      <c r="AC92"/>
+      <c r="AD92"/>
+      <c r="AE92"/>
+      <c r="AF92"/>
+      <c r="AG92"/>
+      <c r="AH92"/>
+      <c r="AI92"/>
+      <c r="AJ92"/>
+      <c r="AK92"/>
+      <c r="AL92"/>
+      <c r="AM92"/>
+      <c r="AN92"/>
+      <c r="AO92"/>
+      <c r="AP92"/>
+      <c r="AQ92"/>
+      <c r="AR92"/>
+      <c r="AS92"/>
+      <c r="AT92"/>
+      <c r="AU92"/>
+      <c r="AV92"/>
+      <c r="AW92"/>
+      <c r="AX92"/>
+      <c r="AY92"/>
+      <c r="AZ92"/>
+      <c r="BA92"/>
+      <c r="BB92"/>
+      <c r="BC92"/>
+      <c r="BD92"/>
+      <c r="BE92"/>
+      <c r="BF92"/>
+      <c r="BG92"/>
+      <c r="BH92"/>
+      <c r="BI92"/>
+      <c r="BJ92"/>
+      <c r="BK92"/>
+      <c r="BL92"/>
+      <c r="BM92"/>
+      <c r="BN92"/>
+      <c r="BO92"/>
+      <c r="BP92"/>
+      <c r="BQ92"/>
+      <c r="BR92"/>
+      <c r="BS92"/>
+      <c r="BT92"/>
+      <c r="BU92"/>
+      <c r="BV92"/>
+      <c r="BW92"/>
+      <c r="BX92"/>
+      <c r="BY92"/>
+      <c r="BZ92"/>
+      <c r="CA92"/>
+      <c r="CB92"/>
+      <c r="CC92"/>
+      <c r="CD92"/>
+      <c r="CE92"/>
+      <c r="CF92"/>
+      <c r="CG92"/>
+      <c r="CH92"/>
+      <c r="CI92"/>
+      <c r="CJ92"/>
+      <c r="CK92"/>
+      <c r="CL92"/>
+      <c r="CM92"/>
+      <c r="CN92"/>
+      <c r="CO92"/>
+      <c r="CP92"/>
+      <c r="CQ92"/>
+      <c r="CR92"/>
+      <c r="CS92"/>
+      <c r="CT92"/>
+      <c r="CU92"/>
+      <c r="CV92"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/db_tables/spaceshipResults.xlsx
+++ b/db_tables/spaceshipResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="125">
   <si>
     <t>Name</t>
   </si>
@@ -110,6 +110,12 @@
     <t>bjnm</t>
   </si>
   <si>
+    <t>ArielG</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
     <t>ljk</t>
   </si>
   <si>
@@ -152,6 +158,12 @@
     <t>dsf</t>
   </si>
   <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
     <t>Player99</t>
   </si>
   <si>
@@ -239,9 +251,6 @@
     <t>Egro</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
     <t>user1</t>
   </si>
   <si>
@@ -257,6 +266,12 @@
     <t>b</t>
   </si>
   <si>
+    <t>OhadG</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
     <t>c</t>
   </si>
   <si>
@@ -315,6 +330,12 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>zz1</t>
+  </si>
+  <si>
+    <t>52</t>
   </si>
   <si>
     <t>neta G</t>
@@ -410,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:CV92"/>
+  <dimension ref="A1:CV96"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2549,7 +2570,7 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -2652,10 +2673,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -2758,10 +2779,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -2864,7 +2885,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
@@ -2970,10 +2991,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -3076,10 +3097,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -3182,10 +3203,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -3291,7 +3312,7 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -3394,10 +3415,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -3500,7 +3521,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -3606,10 +3627,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -3715,7 +3736,7 @@
         <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -3818,10 +3839,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -3924,10 +3945,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
@@ -4030,10 +4051,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -4139,7 +4160,7 @@
         <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -4242,10 +4263,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
@@ -4348,10 +4369,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
@@ -4454,7 +4475,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -4560,10 +4581,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="C41"/>
       <c r="D41"/>
@@ -4666,7 +4687,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -4772,10 +4793,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C43"/>
       <c r="D43"/>
@@ -4878,10 +4899,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C44"/>
       <c r="D44"/>
@@ -4984,7 +5005,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -5090,10 +5111,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="C46"/>
       <c r="D46"/>
@@ -5196,10 +5217,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="C47"/>
       <c r="D47"/>
@@ -5302,7 +5323,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -5408,10 +5429,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C49"/>
       <c r="D49"/>
@@ -5514,7 +5535,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -5620,10 +5641,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
@@ -5726,7 +5747,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -5832,10 +5853,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="C53"/>
       <c r="D53"/>
@@ -5938,7 +5959,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
@@ -6044,10 +6065,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="C55"/>
       <c r="D55"/>
@@ -6150,10 +6171,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="C56"/>
       <c r="D56"/>
@@ -6256,10 +6277,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B57" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="C57"/>
       <c r="D57"/>
@@ -6365,7 +6386,7 @@
         <v>78</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C58"/>
       <c r="D58"/>
@@ -6471,7 +6492,7 @@
         <v>79</v>
       </c>
       <c r="B59" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="C59"/>
       <c r="D59"/>
@@ -6574,7 +6595,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
@@ -6680,10 +6701,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B61" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C61"/>
       <c r="D61"/>
@@ -6786,10 +6807,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="C62"/>
       <c r="D62"/>
@@ -6895,113 +6916,15 @@
         <v>84</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
-      <c r="J63"/>
-      <c r="K63"/>
-      <c r="L63"/>
-      <c r="M63"/>
-      <c r="N63"/>
-      <c r="O63"/>
-      <c r="P63"/>
-      <c r="Q63"/>
-      <c r="R63"/>
-      <c r="S63"/>
-      <c r="T63"/>
-      <c r="U63"/>
-      <c r="V63"/>
-      <c r="W63"/>
-      <c r="X63"/>
-      <c r="Y63"/>
-      <c r="Z63"/>
-      <c r="AA63"/>
-      <c r="AB63"/>
-      <c r="AC63"/>
-      <c r="AD63"/>
-      <c r="AE63"/>
-      <c r="AF63"/>
-      <c r="AG63"/>
-      <c r="AH63"/>
-      <c r="AI63"/>
-      <c r="AJ63"/>
-      <c r="AK63"/>
-      <c r="AL63"/>
-      <c r="AM63"/>
-      <c r="AN63"/>
-      <c r="AO63"/>
-      <c r="AP63"/>
-      <c r="AQ63"/>
-      <c r="AR63"/>
-      <c r="AS63"/>
-      <c r="AT63"/>
-      <c r="AU63"/>
-      <c r="AV63"/>
-      <c r="AW63"/>
-      <c r="AX63"/>
-      <c r="AY63"/>
-      <c r="AZ63"/>
-      <c r="BA63"/>
-      <c r="BB63"/>
-      <c r="BC63"/>
-      <c r="BD63"/>
-      <c r="BE63"/>
-      <c r="BF63"/>
-      <c r="BG63"/>
-      <c r="BH63"/>
-      <c r="BI63"/>
-      <c r="BJ63"/>
-      <c r="BK63"/>
-      <c r="BL63"/>
-      <c r="BM63"/>
-      <c r="BN63"/>
-      <c r="BO63"/>
-      <c r="BP63"/>
-      <c r="BQ63"/>
-      <c r="BR63"/>
-      <c r="BS63"/>
-      <c r="BT63"/>
-      <c r="BU63"/>
-      <c r="BV63"/>
-      <c r="BW63"/>
-      <c r="BX63"/>
-      <c r="BY63"/>
-      <c r="BZ63"/>
-      <c r="CA63"/>
-      <c r="CB63"/>
-      <c r="CC63"/>
-      <c r="CD63"/>
-      <c r="CE63"/>
-      <c r="CF63"/>
-      <c r="CG63"/>
-      <c r="CH63"/>
-      <c r="CI63"/>
-      <c r="CJ63"/>
-      <c r="CK63"/>
-      <c r="CL63"/>
-      <c r="CM63"/>
-      <c r="CN63"/>
-      <c r="CO63"/>
-      <c r="CP63"/>
-      <c r="CQ63"/>
-      <c r="CR63"/>
-      <c r="CS63"/>
-      <c r="CT63"/>
-      <c r="CU63"/>
-      <c r="CV63"/>
+        <v>85</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C64"/>
       <c r="D64"/>
@@ -7104,10 +7027,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C65"/>
       <c r="D65"/>
@@ -7210,10 +7133,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B66" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="C66"/>
       <c r="D66"/>
@@ -7316,10 +7239,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="C67"/>
       <c r="D67"/>
@@ -7422,10 +7345,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="C68"/>
       <c r="D68"/>
@@ -7528,10 +7451,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B69" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="C69"/>
       <c r="D69"/>
@@ -7634,7 +7557,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
@@ -7740,10 +7663,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B71" t="s">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="C71"/>
       <c r="D71"/>
@@ -7846,10 +7769,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C72"/>
       <c r="D72"/>
@@ -7952,10 +7875,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C73"/>
       <c r="D73"/>
@@ -8058,10 +7981,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B74" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="C74"/>
       <c r="D74"/>
@@ -8164,10 +8087,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B75" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="C75"/>
       <c r="D75"/>
@@ -8270,10 +8193,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B76" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C76"/>
       <c r="D76"/>
@@ -8376,10 +8299,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C77"/>
       <c r="D77"/>
@@ -8482,10 +8405,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B78" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C78"/>
       <c r="D78"/>
@@ -8588,7 +8511,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
@@ -8694,10 +8617,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B80" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C80"/>
       <c r="D80"/>
@@ -8800,10 +8723,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B81" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="C81"/>
       <c r="D81"/>
@@ -8906,10 +8829,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B82" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="C82"/>
       <c r="D82"/>
@@ -9012,7 +8935,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
@@ -9118,10 +9041,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B84" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="C84"/>
       <c r="D84"/>
@@ -9224,10 +9147,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B85" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C85"/>
       <c r="D85"/>
@@ -9330,10 +9253,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C86"/>
       <c r="D86"/>
@@ -9436,7 +9359,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B87" t="s">
         <v>3</v>
@@ -9542,10 +9465,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B88" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="C88"/>
       <c r="D88"/>
@@ -9648,10 +9571,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B89" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C89"/>
       <c r="D89"/>
@@ -9754,10 +9677,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B90" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="C90"/>
       <c r="D90"/>
@@ -9860,7 +9783,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B91" t="s">
         <v>3</v>
@@ -9966,10 +9889,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B92" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="C92"/>
       <c r="D92"/>
@@ -10070,6 +9993,430 @@
       <c r="CU92"/>
       <c r="CV92"/>
     </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>120</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="L93"/>
+      <c r="M93"/>
+      <c r="N93"/>
+      <c r="O93"/>
+      <c r="P93"/>
+      <c r="Q93"/>
+      <c r="R93"/>
+      <c r="S93"/>
+      <c r="T93"/>
+      <c r="U93"/>
+      <c r="V93"/>
+      <c r="W93"/>
+      <c r="X93"/>
+      <c r="Y93"/>
+      <c r="Z93"/>
+      <c r="AA93"/>
+      <c r="AB93"/>
+      <c r="AC93"/>
+      <c r="AD93"/>
+      <c r="AE93"/>
+      <c r="AF93"/>
+      <c r="AG93"/>
+      <c r="AH93"/>
+      <c r="AI93"/>
+      <c r="AJ93"/>
+      <c r="AK93"/>
+      <c r="AL93"/>
+      <c r="AM93"/>
+      <c r="AN93"/>
+      <c r="AO93"/>
+      <c r="AP93"/>
+      <c r="AQ93"/>
+      <c r="AR93"/>
+      <c r="AS93"/>
+      <c r="AT93"/>
+      <c r="AU93"/>
+      <c r="AV93"/>
+      <c r="AW93"/>
+      <c r="AX93"/>
+      <c r="AY93"/>
+      <c r="AZ93"/>
+      <c r="BA93"/>
+      <c r="BB93"/>
+      <c r="BC93"/>
+      <c r="BD93"/>
+      <c r="BE93"/>
+      <c r="BF93"/>
+      <c r="BG93"/>
+      <c r="BH93"/>
+      <c r="BI93"/>
+      <c r="BJ93"/>
+      <c r="BK93"/>
+      <c r="BL93"/>
+      <c r="BM93"/>
+      <c r="BN93"/>
+      <c r="BO93"/>
+      <c r="BP93"/>
+      <c r="BQ93"/>
+      <c r="BR93"/>
+      <c r="BS93"/>
+      <c r="BT93"/>
+      <c r="BU93"/>
+      <c r="BV93"/>
+      <c r="BW93"/>
+      <c r="BX93"/>
+      <c r="BY93"/>
+      <c r="BZ93"/>
+      <c r="CA93"/>
+      <c r="CB93"/>
+      <c r="CC93"/>
+      <c r="CD93"/>
+      <c r="CE93"/>
+      <c r="CF93"/>
+      <c r="CG93"/>
+      <c r="CH93"/>
+      <c r="CI93"/>
+      <c r="CJ93"/>
+      <c r="CK93"/>
+      <c r="CL93"/>
+      <c r="CM93"/>
+      <c r="CN93"/>
+      <c r="CO93"/>
+      <c r="CP93"/>
+      <c r="CQ93"/>
+      <c r="CR93"/>
+      <c r="CS93"/>
+      <c r="CT93"/>
+      <c r="CU93"/>
+      <c r="CV93"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>121</v>
+      </c>
+      <c r="B94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+      <c r="O94"/>
+      <c r="P94"/>
+      <c r="Q94"/>
+      <c r="R94"/>
+      <c r="S94"/>
+      <c r="T94"/>
+      <c r="U94"/>
+      <c r="V94"/>
+      <c r="W94"/>
+      <c r="X94"/>
+      <c r="Y94"/>
+      <c r="Z94"/>
+      <c r="AA94"/>
+      <c r="AB94"/>
+      <c r="AC94"/>
+      <c r="AD94"/>
+      <c r="AE94"/>
+      <c r="AF94"/>
+      <c r="AG94"/>
+      <c r="AH94"/>
+      <c r="AI94"/>
+      <c r="AJ94"/>
+      <c r="AK94"/>
+      <c r="AL94"/>
+      <c r="AM94"/>
+      <c r="AN94"/>
+      <c r="AO94"/>
+      <c r="AP94"/>
+      <c r="AQ94"/>
+      <c r="AR94"/>
+      <c r="AS94"/>
+      <c r="AT94"/>
+      <c r="AU94"/>
+      <c r="AV94"/>
+      <c r="AW94"/>
+      <c r="AX94"/>
+      <c r="AY94"/>
+      <c r="AZ94"/>
+      <c r="BA94"/>
+      <c r="BB94"/>
+      <c r="BC94"/>
+      <c r="BD94"/>
+      <c r="BE94"/>
+      <c r="BF94"/>
+      <c r="BG94"/>
+      <c r="BH94"/>
+      <c r="BI94"/>
+      <c r="BJ94"/>
+      <c r="BK94"/>
+      <c r="BL94"/>
+      <c r="BM94"/>
+      <c r="BN94"/>
+      <c r="BO94"/>
+      <c r="BP94"/>
+      <c r="BQ94"/>
+      <c r="BR94"/>
+      <c r="BS94"/>
+      <c r="BT94"/>
+      <c r="BU94"/>
+      <c r="BV94"/>
+      <c r="BW94"/>
+      <c r="BX94"/>
+      <c r="BY94"/>
+      <c r="BZ94"/>
+      <c r="CA94"/>
+      <c r="CB94"/>
+      <c r="CC94"/>
+      <c r="CD94"/>
+      <c r="CE94"/>
+      <c r="CF94"/>
+      <c r="CG94"/>
+      <c r="CH94"/>
+      <c r="CI94"/>
+      <c r="CJ94"/>
+      <c r="CK94"/>
+      <c r="CL94"/>
+      <c r="CM94"/>
+      <c r="CN94"/>
+      <c r="CO94"/>
+      <c r="CP94"/>
+      <c r="CQ94"/>
+      <c r="CR94"/>
+      <c r="CS94"/>
+      <c r="CT94"/>
+      <c r="CU94"/>
+      <c r="CV94"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>123</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="L95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+      <c r="O95"/>
+      <c r="P95"/>
+      <c r="Q95"/>
+      <c r="R95"/>
+      <c r="S95"/>
+      <c r="T95"/>
+      <c r="U95"/>
+      <c r="V95"/>
+      <c r="W95"/>
+      <c r="X95"/>
+      <c r="Y95"/>
+      <c r="Z95"/>
+      <c r="AA95"/>
+      <c r="AB95"/>
+      <c r="AC95"/>
+      <c r="AD95"/>
+      <c r="AE95"/>
+      <c r="AF95"/>
+      <c r="AG95"/>
+      <c r="AH95"/>
+      <c r="AI95"/>
+      <c r="AJ95"/>
+      <c r="AK95"/>
+      <c r="AL95"/>
+      <c r="AM95"/>
+      <c r="AN95"/>
+      <c r="AO95"/>
+      <c r="AP95"/>
+      <c r="AQ95"/>
+      <c r="AR95"/>
+      <c r="AS95"/>
+      <c r="AT95"/>
+      <c r="AU95"/>
+      <c r="AV95"/>
+      <c r="AW95"/>
+      <c r="AX95"/>
+      <c r="AY95"/>
+      <c r="AZ95"/>
+      <c r="BA95"/>
+      <c r="BB95"/>
+      <c r="BC95"/>
+      <c r="BD95"/>
+      <c r="BE95"/>
+      <c r="BF95"/>
+      <c r="BG95"/>
+      <c r="BH95"/>
+      <c r="BI95"/>
+      <c r="BJ95"/>
+      <c r="BK95"/>
+      <c r="BL95"/>
+      <c r="BM95"/>
+      <c r="BN95"/>
+      <c r="BO95"/>
+      <c r="BP95"/>
+      <c r="BQ95"/>
+      <c r="BR95"/>
+      <c r="BS95"/>
+      <c r="BT95"/>
+      <c r="BU95"/>
+      <c r="BV95"/>
+      <c r="BW95"/>
+      <c r="BX95"/>
+      <c r="BY95"/>
+      <c r="BZ95"/>
+      <c r="CA95"/>
+      <c r="CB95"/>
+      <c r="CC95"/>
+      <c r="CD95"/>
+      <c r="CE95"/>
+      <c r="CF95"/>
+      <c r="CG95"/>
+      <c r="CH95"/>
+      <c r="CI95"/>
+      <c r="CJ95"/>
+      <c r="CK95"/>
+      <c r="CL95"/>
+      <c r="CM95"/>
+      <c r="CN95"/>
+      <c r="CO95"/>
+      <c r="CP95"/>
+      <c r="CQ95"/>
+      <c r="CR95"/>
+      <c r="CS95"/>
+      <c r="CT95"/>
+      <c r="CU95"/>
+      <c r="CV95"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>124</v>
+      </c>
+      <c r="B96" t="s">
+        <v>75</v>
+      </c>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="L96"/>
+      <c r="M96"/>
+      <c r="N96"/>
+      <c r="O96"/>
+      <c r="P96"/>
+      <c r="Q96"/>
+      <c r="R96"/>
+      <c r="S96"/>
+      <c r="T96"/>
+      <c r="U96"/>
+      <c r="V96"/>
+      <c r="W96"/>
+      <c r="X96"/>
+      <c r="Y96"/>
+      <c r="Z96"/>
+      <c r="AA96"/>
+      <c r="AB96"/>
+      <c r="AC96"/>
+      <c r="AD96"/>
+      <c r="AE96"/>
+      <c r="AF96"/>
+      <c r="AG96"/>
+      <c r="AH96"/>
+      <c r="AI96"/>
+      <c r="AJ96"/>
+      <c r="AK96"/>
+      <c r="AL96"/>
+      <c r="AM96"/>
+      <c r="AN96"/>
+      <c r="AO96"/>
+      <c r="AP96"/>
+      <c r="AQ96"/>
+      <c r="AR96"/>
+      <c r="AS96"/>
+      <c r="AT96"/>
+      <c r="AU96"/>
+      <c r="AV96"/>
+      <c r="AW96"/>
+      <c r="AX96"/>
+      <c r="AY96"/>
+      <c r="AZ96"/>
+      <c r="BA96"/>
+      <c r="BB96"/>
+      <c r="BC96"/>
+      <c r="BD96"/>
+      <c r="BE96"/>
+      <c r="BF96"/>
+      <c r="BG96"/>
+      <c r="BH96"/>
+      <c r="BI96"/>
+      <c r="BJ96"/>
+      <c r="BK96"/>
+      <c r="BL96"/>
+      <c r="BM96"/>
+      <c r="BN96"/>
+      <c r="BO96"/>
+      <c r="BP96"/>
+      <c r="BQ96"/>
+      <c r="BR96"/>
+      <c r="BS96"/>
+      <c r="BT96"/>
+      <c r="BU96"/>
+      <c r="BV96"/>
+      <c r="BW96"/>
+      <c r="BX96"/>
+      <c r="BY96"/>
+      <c r="BZ96"/>
+      <c r="CA96"/>
+      <c r="CB96"/>
+      <c r="CC96"/>
+      <c r="CD96"/>
+      <c r="CE96"/>
+      <c r="CF96"/>
+      <c r="CG96"/>
+      <c r="CH96"/>
+      <c r="CI96"/>
+      <c r="CJ96"/>
+      <c r="CK96"/>
+      <c r="CL96"/>
+      <c r="CM96"/>
+      <c r="CN96"/>
+      <c r="CO96"/>
+      <c r="CP96"/>
+      <c r="CQ96"/>
+      <c r="CR96"/>
+      <c r="CS96"/>
+      <c r="CT96"/>
+      <c r="CU96"/>
+      <c r="CV96"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/db_tables/spaceshipResults.xlsx
+++ b/db_tables/spaceshipResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="130">
   <si>
     <t>Name</t>
   </si>
@@ -26,24 +26,261 @@
     <t>0</t>
   </si>
   <si>
+    <t>EREZ</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>grfgbfgb</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>erez</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>beni</t>
+  </si>
+  <si>
+    <t>Ariel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>bjnm</t>
+  </si>
+  <si>
+    <t>ArielG</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Erez1</t>
+  </si>
+  <si>
+    <t>Erez3</t>
+  </si>
+  <si>
+    <t>dfs</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>rf</t>
+  </si>
+  <si>
+    <t>Player99</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>A1A2</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>jk</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>szfd</t>
+  </si>
+  <si>
+    <t>sdsc</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>neta</t>
+  </si>
+  <si>
+    <t>cb</t>
+  </si>
+  <si>
+    <t>kj</t>
+  </si>
+  <si>
+    <t>Egro</t>
+  </si>
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>OhadG</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>EG99</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Erez</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>GGG</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>user23</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>cv</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>דגכדג</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>sdasedfeasfsd</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>user100</t>
+  </si>
+  <si>
+    <t>dc</t>
+  </si>
+  <si>
+    <t>EGro</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>df</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>EREZ</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
     <t>ohad</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>qwerty</t>
   </si>
   <si>
@@ -53,84 +290,30 @@
     <t xml:space="preserve"> \c\\</t>
   </si>
   <si>
-    <t>grfgbfgb</t>
-  </si>
-  <si>
-    <t>erez</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
     <t>ds</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>beni</t>
-  </si>
-  <si>
     <t>erez8</t>
   </si>
   <si>
     <t>erez9</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Ariel</t>
-  </si>
-  <si>
     <t>Eran</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t xml:space="preserve"> lj</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>ad</t>
-  </si>
-  <si>
     <t>test</t>
   </si>
   <si>
-    <t>bjnm</t>
-  </si>
-  <si>
-    <t>ArielG</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
     <t>ljk</t>
   </si>
   <si>
     <t>vc</t>
   </si>
   <si>
-    <t>Erez1</t>
-  </si>
-  <si>
-    <t>Erez3</t>
-  </si>
-  <si>
-    <t>dfs</t>
-  </si>
-  <si>
     <t>vg</t>
   </si>
   <si>
@@ -140,21 +323,12 @@
     <t>26</t>
   </si>
   <si>
-    <t>sdf</t>
-  </si>
-  <si>
-    <t>rf</t>
-  </si>
-  <si>
     <t>nb</t>
   </si>
   <si>
     <t>Avi</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>dsf</t>
   </si>
   <si>
@@ -164,24 +338,6 @@
     <t>91</t>
   </si>
   <si>
-    <t>Player99</t>
-  </si>
-  <si>
-    <t>A1A2</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>jk</t>
-  </si>
-  <si>
     <t>fg</t>
   </si>
   <si>
@@ -191,12 +347,6 @@
     <t>csda</t>
   </si>
   <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>EG1</t>
   </si>
   <si>
@@ -209,129 +359,33 @@
     <t>fv</t>
   </si>
   <si>
-    <t>sd</t>
-  </si>
-  <si>
     <t>DefaultUser</t>
   </si>
   <si>
     <t>58</t>
   </si>
   <si>
-    <t>szfd</t>
-  </si>
-  <si>
-    <t>sdsc</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>neta</t>
-  </si>
-  <si>
     <t>Sorin</t>
   </si>
   <si>
-    <t>cb</t>
-  </si>
-  <si>
     <t>Moshe</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>kj</t>
-  </si>
-  <si>
     <t>ששש</t>
   </si>
   <si>
-    <t>Egro</t>
-  </si>
-  <si>
-    <t>user1</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>bhg</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>OhadG</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Erez</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
     <t>UserName</t>
   </si>
   <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>user23</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>sdfs</t>
   </si>
   <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
     <t>xf</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>zz1</t>
   </si>
   <si>
@@ -341,52 +395,13 @@
     <t>neta G</t>
   </si>
   <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>cv</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>דגכדג</t>
-  </si>
-  <si>
     <t>ppp1</t>
   </si>
   <si>
     <t>34</t>
   </si>
   <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>sdasedfeasfsd</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
     <t>xs</t>
-  </si>
-  <si>
-    <t>user100</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>dc</t>
-  </si>
-  <si>
-    <t>EGro</t>
   </si>
 </sst>
 </file>
@@ -431,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:CV96"/>
+  <dimension ref="A1:CV99"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -874,7 +889,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -977,7 +992,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1083,10 +1098,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -1189,10 +1204,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -1295,10 +1310,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -1401,10 +1416,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -1722,7 +1737,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -1828,7 +1843,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -1931,10 +1946,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -2037,10 +2052,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
         <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -2146,7 +2161,7 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -2249,10 +2264,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
         <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -2358,7 +2373,7 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -2461,10 +2476,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -2567,10 +2582,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -2673,10 +2688,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -2779,10 +2794,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -2885,10 +2900,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -2991,10 +3006,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -3097,10 +3112,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -3203,7 +3218,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -3309,10 +3324,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -3415,10 +3430,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -3521,10 +3536,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -3627,10 +3642,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -3733,10 +3748,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -3839,10 +3854,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -3945,116 +3960,18 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35"/>
-      <c r="U35"/>
-      <c r="V35"/>
-      <c r="W35"/>
-      <c r="X35"/>
-      <c r="Y35"/>
-      <c r="Z35"/>
-      <c r="AA35"/>
-      <c r="AB35"/>
-      <c r="AC35"/>
-      <c r="AD35"/>
-      <c r="AE35"/>
-      <c r="AF35"/>
-      <c r="AG35"/>
-      <c r="AH35"/>
-      <c r="AI35"/>
-      <c r="AJ35"/>
-      <c r="AK35"/>
-      <c r="AL35"/>
-      <c r="AM35"/>
-      <c r="AN35"/>
-      <c r="AO35"/>
-      <c r="AP35"/>
-      <c r="AQ35"/>
-      <c r="AR35"/>
-      <c r="AS35"/>
-      <c r="AT35"/>
-      <c r="AU35"/>
-      <c r="AV35"/>
-      <c r="AW35"/>
-      <c r="AX35"/>
-      <c r="AY35"/>
-      <c r="AZ35"/>
-      <c r="BA35"/>
-      <c r="BB35"/>
-      <c r="BC35"/>
-      <c r="BD35"/>
-      <c r="BE35"/>
-      <c r="BF35"/>
-      <c r="BG35"/>
-      <c r="BH35"/>
-      <c r="BI35"/>
-      <c r="BJ35"/>
-      <c r="BK35"/>
-      <c r="BL35"/>
-      <c r="BM35"/>
-      <c r="BN35"/>
-      <c r="BO35"/>
-      <c r="BP35"/>
-      <c r="BQ35"/>
-      <c r="BR35"/>
-      <c r="BS35"/>
-      <c r="BT35"/>
-      <c r="BU35"/>
-      <c r="BV35"/>
-      <c r="BW35"/>
-      <c r="BX35"/>
-      <c r="BY35"/>
-      <c r="BZ35"/>
-      <c r="CA35"/>
-      <c r="CB35"/>
-      <c r="CC35"/>
-      <c r="CD35"/>
-      <c r="CE35"/>
-      <c r="CF35"/>
-      <c r="CG35"/>
-      <c r="CH35"/>
-      <c r="CI35"/>
-      <c r="CJ35"/>
-      <c r="CK35"/>
-      <c r="CL35"/>
-      <c r="CM35"/>
-      <c r="CN35"/>
-      <c r="CO35"/>
-      <c r="CP35"/>
-      <c r="CQ35"/>
-      <c r="CR35"/>
-      <c r="CS35"/>
-      <c r="CT35"/>
-      <c r="CU35"/>
-      <c r="CV35"/>
+        <v>53</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -4157,10 +4074,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -4263,10 +4180,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
@@ -4369,10 +4286,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
@@ -4475,10 +4392,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C40"/>
       <c r="D40"/>
@@ -4581,10 +4498,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="C41"/>
       <c r="D41"/>
@@ -4687,7 +4604,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -4793,10 +4710,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C43"/>
       <c r="D43"/>
@@ -4899,10 +4816,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="C44"/>
       <c r="D44"/>
@@ -5005,7 +4922,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -5111,10 +5028,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C46"/>
       <c r="D46"/>
@@ -5217,10 +5134,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C47"/>
       <c r="D47"/>
@@ -5323,10 +5240,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C48"/>
       <c r="D48"/>
@@ -5429,10 +5346,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C49"/>
       <c r="D49"/>
@@ -5535,7 +5452,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -5641,10 +5558,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
@@ -5747,10 +5664,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C52"/>
       <c r="D52"/>
@@ -5853,10 +5770,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C53"/>
       <c r="D53"/>
@@ -5959,7 +5876,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
@@ -6065,10 +5982,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B55" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="C55"/>
       <c r="D55"/>
@@ -6171,10 +6088,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="C56"/>
       <c r="D56"/>
@@ -6277,10 +6194,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C57"/>
       <c r="D57"/>
@@ -6383,10 +6300,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B58" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C58"/>
       <c r="D58"/>
@@ -6489,10 +6406,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="C59"/>
       <c r="D59"/>
@@ -6595,10 +6512,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B60" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C60"/>
       <c r="D60"/>
@@ -6701,10 +6618,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B61" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="C61"/>
       <c r="D61"/>
@@ -6807,10 +6724,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="C62"/>
       <c r="D62"/>
@@ -6913,18 +6830,116 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B63" t="s">
-        <v>85</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63"/>
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63"/>
+      <c r="AB63"/>
+      <c r="AC63"/>
+      <c r="AD63"/>
+      <c r="AE63"/>
+      <c r="AF63"/>
+      <c r="AG63"/>
+      <c r="AH63"/>
+      <c r="AI63"/>
+      <c r="AJ63"/>
+      <c r="AK63"/>
+      <c r="AL63"/>
+      <c r="AM63"/>
+      <c r="AN63"/>
+      <c r="AO63"/>
+      <c r="AP63"/>
+      <c r="AQ63"/>
+      <c r="AR63"/>
+      <c r="AS63"/>
+      <c r="AT63"/>
+      <c r="AU63"/>
+      <c r="AV63"/>
+      <c r="AW63"/>
+      <c r="AX63"/>
+      <c r="AY63"/>
+      <c r="AZ63"/>
+      <c r="BA63"/>
+      <c r="BB63"/>
+      <c r="BC63"/>
+      <c r="BD63"/>
+      <c r="BE63"/>
+      <c r="BF63"/>
+      <c r="BG63"/>
+      <c r="BH63"/>
+      <c r="BI63"/>
+      <c r="BJ63"/>
+      <c r="BK63"/>
+      <c r="BL63"/>
+      <c r="BM63"/>
+      <c r="BN63"/>
+      <c r="BO63"/>
+      <c r="BP63"/>
+      <c r="BQ63"/>
+      <c r="BR63"/>
+      <c r="BS63"/>
+      <c r="BT63"/>
+      <c r="BU63"/>
+      <c r="BV63"/>
+      <c r="BW63"/>
+      <c r="BX63"/>
+      <c r="BY63"/>
+      <c r="BZ63"/>
+      <c r="CA63"/>
+      <c r="CB63"/>
+      <c r="CC63"/>
+      <c r="CD63"/>
+      <c r="CE63"/>
+      <c r="CF63"/>
+      <c r="CG63"/>
+      <c r="CH63"/>
+      <c r="CI63"/>
+      <c r="CJ63"/>
+      <c r="CK63"/>
+      <c r="CL63"/>
+      <c r="CM63"/>
+      <c r="CN63"/>
+      <c r="CO63"/>
+      <c r="CP63"/>
+      <c r="CQ63"/>
+      <c r="CR63"/>
+      <c r="CS63"/>
+      <c r="CT63"/>
+      <c r="CU63"/>
+      <c r="CV63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B64" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C64"/>
       <c r="D64"/>
@@ -7027,10 +7042,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B65" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C65"/>
       <c r="D65"/>
@@ -7133,7 +7148,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
@@ -7239,10 +7254,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B67" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C67"/>
       <c r="D67"/>
@@ -7345,10 +7360,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="C68"/>
       <c r="D68"/>
@@ -7451,10 +7466,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B69" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C69"/>
       <c r="D69"/>
@@ -7557,10 +7572,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B70" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C70"/>
       <c r="D70"/>
@@ -7663,7 +7678,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
@@ -7769,10 +7784,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B72" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="C72"/>
       <c r="D72"/>
@@ -7875,10 +7890,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C73"/>
       <c r="D73"/>
@@ -7981,10 +7996,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B74" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="C74"/>
       <c r="D74"/>
@@ -8090,7 +8105,7 @@
         <v>100</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C75"/>
       <c r="D75"/>
@@ -8196,7 +8211,7 @@
         <v>101</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="C76"/>
       <c r="D76"/>
@@ -8299,10 +8314,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B77" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C77"/>
       <c r="D77"/>
@@ -8405,10 +8420,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B78" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="C78"/>
       <c r="D78"/>
@@ -8511,7 +8526,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
@@ -8617,10 +8632,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B80" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="C80"/>
       <c r="D80"/>
@@ -8723,10 +8738,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B81" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="C81"/>
       <c r="D81"/>
@@ -8829,10 +8844,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B82" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="C82"/>
       <c r="D82"/>
@@ -8935,7 +8950,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
@@ -9041,10 +9056,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B84" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C84"/>
       <c r="D84"/>
@@ -9147,7 +9162,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B85" t="s">
         <v>3</v>
@@ -9253,10 +9268,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B86" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C86"/>
       <c r="D86"/>
@@ -9359,7 +9374,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B87" t="s">
         <v>3</v>
@@ -9465,10 +9480,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B88" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C88"/>
       <c r="D88"/>
@@ -9571,10 +9586,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B89" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C89"/>
       <c r="D89"/>
@@ -9677,10 +9692,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B90" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="C90"/>
       <c r="D90"/>
@@ -9783,7 +9798,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B91" t="s">
         <v>3</v>
@@ -9889,10 +9904,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B92" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C92"/>
       <c r="D92"/>
@@ -9995,7 +10010,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B93" t="s">
         <v>3</v>
@@ -10101,10 +10116,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B94" t="s">
-        <v>122</v>
+        <v>7</v>
       </c>
       <c r="C94"/>
       <c r="D94"/>
@@ -10316,7 +10331,7 @@
         <v>124</v>
       </c>
       <c r="B96" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="C96"/>
       <c r="D96"/>
@@ -10417,6 +10432,324 @@
       <c r="CU96"/>
       <c r="CV96"/>
     </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>126</v>
+      </c>
+      <c r="B97" t="s">
+        <v>40</v>
+      </c>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97"/>
+      <c r="J97"/>
+      <c r="K97"/>
+      <c r="L97"/>
+      <c r="M97"/>
+      <c r="N97"/>
+      <c r="O97"/>
+      <c r="P97"/>
+      <c r="Q97"/>
+      <c r="R97"/>
+      <c r="S97"/>
+      <c r="T97"/>
+      <c r="U97"/>
+      <c r="V97"/>
+      <c r="W97"/>
+      <c r="X97"/>
+      <c r="Y97"/>
+      <c r="Z97"/>
+      <c r="AA97"/>
+      <c r="AB97"/>
+      <c r="AC97"/>
+      <c r="AD97"/>
+      <c r="AE97"/>
+      <c r="AF97"/>
+      <c r="AG97"/>
+      <c r="AH97"/>
+      <c r="AI97"/>
+      <c r="AJ97"/>
+      <c r="AK97"/>
+      <c r="AL97"/>
+      <c r="AM97"/>
+      <c r="AN97"/>
+      <c r="AO97"/>
+      <c r="AP97"/>
+      <c r="AQ97"/>
+      <c r="AR97"/>
+      <c r="AS97"/>
+      <c r="AT97"/>
+      <c r="AU97"/>
+      <c r="AV97"/>
+      <c r="AW97"/>
+      <c r="AX97"/>
+      <c r="AY97"/>
+      <c r="AZ97"/>
+      <c r="BA97"/>
+      <c r="BB97"/>
+      <c r="BC97"/>
+      <c r="BD97"/>
+      <c r="BE97"/>
+      <c r="BF97"/>
+      <c r="BG97"/>
+      <c r="BH97"/>
+      <c r="BI97"/>
+      <c r="BJ97"/>
+      <c r="BK97"/>
+      <c r="BL97"/>
+      <c r="BM97"/>
+      <c r="BN97"/>
+      <c r="BO97"/>
+      <c r="BP97"/>
+      <c r="BQ97"/>
+      <c r="BR97"/>
+      <c r="BS97"/>
+      <c r="BT97"/>
+      <c r="BU97"/>
+      <c r="BV97"/>
+      <c r="BW97"/>
+      <c r="BX97"/>
+      <c r="BY97"/>
+      <c r="BZ97"/>
+      <c r="CA97"/>
+      <c r="CB97"/>
+      <c r="CC97"/>
+      <c r="CD97"/>
+      <c r="CE97"/>
+      <c r="CF97"/>
+      <c r="CG97"/>
+      <c r="CH97"/>
+      <c r="CI97"/>
+      <c r="CJ97"/>
+      <c r="CK97"/>
+      <c r="CL97"/>
+      <c r="CM97"/>
+      <c r="CN97"/>
+      <c r="CO97"/>
+      <c r="CP97"/>
+      <c r="CQ97"/>
+      <c r="CR97"/>
+      <c r="CS97"/>
+      <c r="CT97"/>
+      <c r="CU97"/>
+      <c r="CV97"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>127</v>
+      </c>
+      <c r="B98" t="s">
+        <v>128</v>
+      </c>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="L98"/>
+      <c r="M98"/>
+      <c r="N98"/>
+      <c r="O98"/>
+      <c r="P98"/>
+      <c r="Q98"/>
+      <c r="R98"/>
+      <c r="S98"/>
+      <c r="T98"/>
+      <c r="U98"/>
+      <c r="V98"/>
+      <c r="W98"/>
+      <c r="X98"/>
+      <c r="Y98"/>
+      <c r="Z98"/>
+      <c r="AA98"/>
+      <c r="AB98"/>
+      <c r="AC98"/>
+      <c r="AD98"/>
+      <c r="AE98"/>
+      <c r="AF98"/>
+      <c r="AG98"/>
+      <c r="AH98"/>
+      <c r="AI98"/>
+      <c r="AJ98"/>
+      <c r="AK98"/>
+      <c r="AL98"/>
+      <c r="AM98"/>
+      <c r="AN98"/>
+      <c r="AO98"/>
+      <c r="AP98"/>
+      <c r="AQ98"/>
+      <c r="AR98"/>
+      <c r="AS98"/>
+      <c r="AT98"/>
+      <c r="AU98"/>
+      <c r="AV98"/>
+      <c r="AW98"/>
+      <c r="AX98"/>
+      <c r="AY98"/>
+      <c r="AZ98"/>
+      <c r="BA98"/>
+      <c r="BB98"/>
+      <c r="BC98"/>
+      <c r="BD98"/>
+      <c r="BE98"/>
+      <c r="BF98"/>
+      <c r="BG98"/>
+      <c r="BH98"/>
+      <c r="BI98"/>
+      <c r="BJ98"/>
+      <c r="BK98"/>
+      <c r="BL98"/>
+      <c r="BM98"/>
+      <c r="BN98"/>
+      <c r="BO98"/>
+      <c r="BP98"/>
+      <c r="BQ98"/>
+      <c r="BR98"/>
+      <c r="BS98"/>
+      <c r="BT98"/>
+      <c r="BU98"/>
+      <c r="BV98"/>
+      <c r="BW98"/>
+      <c r="BX98"/>
+      <c r="BY98"/>
+      <c r="BZ98"/>
+      <c r="CA98"/>
+      <c r="CB98"/>
+      <c r="CC98"/>
+      <c r="CD98"/>
+      <c r="CE98"/>
+      <c r="CF98"/>
+      <c r="CG98"/>
+      <c r="CH98"/>
+      <c r="CI98"/>
+      <c r="CJ98"/>
+      <c r="CK98"/>
+      <c r="CL98"/>
+      <c r="CM98"/>
+      <c r="CN98"/>
+      <c r="CO98"/>
+      <c r="CP98"/>
+      <c r="CQ98"/>
+      <c r="CR98"/>
+      <c r="CS98"/>
+      <c r="CT98"/>
+      <c r="CU98"/>
+      <c r="CV98"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>129</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99"/>
+      <c r="K99"/>
+      <c r="L99"/>
+      <c r="M99"/>
+      <c r="N99"/>
+      <c r="O99"/>
+      <c r="P99"/>
+      <c r="Q99"/>
+      <c r="R99"/>
+      <c r="S99"/>
+      <c r="T99"/>
+      <c r="U99"/>
+      <c r="V99"/>
+      <c r="W99"/>
+      <c r="X99"/>
+      <c r="Y99"/>
+      <c r="Z99"/>
+      <c r="AA99"/>
+      <c r="AB99"/>
+      <c r="AC99"/>
+      <c r="AD99"/>
+      <c r="AE99"/>
+      <c r="AF99"/>
+      <c r="AG99"/>
+      <c r="AH99"/>
+      <c r="AI99"/>
+      <c r="AJ99"/>
+      <c r="AK99"/>
+      <c r="AL99"/>
+      <c r="AM99"/>
+      <c r="AN99"/>
+      <c r="AO99"/>
+      <c r="AP99"/>
+      <c r="AQ99"/>
+      <c r="AR99"/>
+      <c r="AS99"/>
+      <c r="AT99"/>
+      <c r="AU99"/>
+      <c r="AV99"/>
+      <c r="AW99"/>
+      <c r="AX99"/>
+      <c r="AY99"/>
+      <c r="AZ99"/>
+      <c r="BA99"/>
+      <c r="BB99"/>
+      <c r="BC99"/>
+      <c r="BD99"/>
+      <c r="BE99"/>
+      <c r="BF99"/>
+      <c r="BG99"/>
+      <c r="BH99"/>
+      <c r="BI99"/>
+      <c r="BJ99"/>
+      <c r="BK99"/>
+      <c r="BL99"/>
+      <c r="BM99"/>
+      <c r="BN99"/>
+      <c r="BO99"/>
+      <c r="BP99"/>
+      <c r="BQ99"/>
+      <c r="BR99"/>
+      <c r="BS99"/>
+      <c r="BT99"/>
+      <c r="BU99"/>
+      <c r="BV99"/>
+      <c r="BW99"/>
+      <c r="BX99"/>
+      <c r="BY99"/>
+      <c r="BZ99"/>
+      <c r="CA99"/>
+      <c r="CB99"/>
+      <c r="CC99"/>
+      <c r="CD99"/>
+      <c r="CE99"/>
+      <c r="CF99"/>
+      <c r="CG99"/>
+      <c r="CH99"/>
+      <c r="CI99"/>
+      <c r="CJ99"/>
+      <c r="CK99"/>
+      <c r="CL99"/>
+      <c r="CM99"/>
+      <c r="CN99"/>
+      <c r="CO99"/>
+      <c r="CP99"/>
+      <c r="CQ99"/>
+      <c r="CR99"/>
+      <c r="CS99"/>
+      <c r="CT99"/>
+      <c r="CU99"/>
+      <c r="CV99"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
